--- a/Data/databases/case2.xlsx
+++ b/Data/databases/case2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E430119-9409-4371-8CD9-B4A9F3A37E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145533B-268D-4875-BD20-F43BB6483773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -805,13 +805,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1265,12 +1266,14 @@
     <xf numFmtId="164" fontId="5" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 3" xfId="2" xr:uid="{178B93A8-99D6-4066-8FB3-94B5DE10D586}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{5BF881D6-2962-4D45-90BB-59684EED42AB}"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1502,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2071,7 +2074,7 @@
         <f>A128</f>
         <v>MUD packgaging materials</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="38">
         <v>5.1268149999999998E-3</v>
       </c>
       <c r="C30" s="38" t="str">
@@ -2125,7 +2128,7 @@
         <f>A164</f>
         <v>mechanical disinfection</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="287">
         <v>3.125E-2</v>
       </c>
       <c r="C32" s="38" t="str">
@@ -2179,9 +2182,9 @@
       <c r="A34" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="31">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+      <c r="B34" s="349">
+        <f>1/(12*4)</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>105</v>
@@ -2206,7 +2209,7 @@
         <f>A16</f>
         <v>transport</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="38">
         <v>1.9479437734400001E-2</v>
       </c>
       <c r="C35" s="23" t="str">
@@ -2232,7 +2235,7 @@
       <c r="A36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="287">
         <v>-0.95508976109681298</v>
       </c>
       <c r="C36" s="23" t="s">
@@ -2287,7 +2290,7 @@
         <f>A262</f>
         <v>eol MUD</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="38">
         <v>-6.9577838072522298E-3</v>
       </c>
       <c r="C38" s="23" t="str">
@@ -6961,8 +6964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916DA13D-3ACD-4FB0-8444-EE0A0D72880A}">
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7697,7 +7700,8 @@
         <v>104</v>
       </c>
       <c r="B34" s="346">
-        <v>8.3333333333333329E-2</v>
+        <f>ev391apos!B34</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C34" s="345" t="s">
         <v>105</v>
@@ -13360,8 +13364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCB1CF9-8C18-44A9-91B3-2C5BFD88192B}">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14101,7 +14105,7 @@
       </c>
       <c r="B34" s="31">
         <f>ev391apos!B34</f>
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C34" s="28" t="str">
         <f>ev391apos!C34</f>
@@ -19764,21 +19768,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Data/databases/case2.xlsx
+++ b/Data/databases/case2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145533B-268D-4875-BD20-F43BB6483773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB45D66-B29C-4FBE-9DED-49F8A3473A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="168">
   <si>
     <t>Database</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>scalpel</t>
-  </si>
-  <si>
-    <t>marginal electricity mix</t>
   </si>
   <si>
     <t>marginal heating grid</t>
@@ -522,12 +519,6 @@
     <t>heat production, air-water heat pump 10kW</t>
   </si>
   <si>
-    <t>heat, central or small-scale, natural gas</t>
-  </si>
-  <si>
-    <t>heat production, natural gas, at boiler atmospheric non-modulating &lt;100kW</t>
-  </si>
-  <si>
     <t>deinked pulp, wet lap</t>
   </si>
   <si>
@@ -547,6 +538,9 @@
   </si>
   <si>
     <t>ROW</t>
+  </si>
+  <si>
+    <t>heat production, at heat pump 30kW, allocation exergy</t>
   </si>
 </sst>
 </file>
@@ -812,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1267,6 +1261,7 @@
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1505,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1527,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -1673,7 +1668,7 @@
         <f>A76</f>
         <v>SUD packgaging materials</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="350">
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="C11" s="37" t="str">
@@ -1750,17 +1745,17 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="350">
         <v>-0.84100660000000005</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
+      <c r="C14" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1769,16 +1764,15 @@
       <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>case2_apos</v>
+      <c r="H14" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="350">
         <v>-4.2050332499999996</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1804,7 +1798,7 @@
         <f>A200</f>
         <v>transport</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="350">
         <v>4.76221188185003E-2</v>
       </c>
       <c r="C16" s="37" t="str">
@@ -1831,7 +1825,7 @@
         <f>A249</f>
         <v>eol SUD</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="350">
         <v>-0.19031802197973299</v>
       </c>
       <c r="C17" s="7" t="str">
@@ -1884,7 +1878,7 @@
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="37">
         <v>-1.4740219797333401E-3</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2180,14 +2174,14 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="349">
         <f>1/(12*4)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>5</v>
@@ -2257,32 +2251,27 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="38" t="str">
-        <f>A210</f>
-        <v>mixed electricity mix</v>
+      <c r="A37" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B37" s="287">
         <v>-0.19101795221936299</v>
       </c>
-      <c r="C37" s="38" t="str">
-        <f>C210</f>
-        <v>mixed electricity mix</v>
-      </c>
-      <c r="D37" s="38" t="str">
-        <f t="shared" ref="D37:E37" si="2">D210</f>
-        <v>GLO</v>
-      </c>
-      <c r="E37" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v>kilowatt hour</v>
+      <c r="C37" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>case2_apos</v>
+      <c r="H37" s="38" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2290,7 +2279,7 @@
         <f>A262</f>
         <v>eol MUD</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="287">
         <v>-6.9577838072522298E-3</v>
       </c>
       <c r="C38" s="23" t="str">
@@ -2345,19 +2334,19 @@
         <v>surgery use</v>
       </c>
       <c r="B40" s="287">
-        <f t="shared" ref="B40:E40" si="3">B18</f>
+        <f t="shared" ref="B40:E40" si="2">B18</f>
         <v>1</v>
       </c>
       <c r="C40" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>electricity consumption</v>
       </c>
       <c r="D40" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GLO</v>
       </c>
       <c r="E40" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>unit</v>
       </c>
       <c r="F40" s="23"/>
@@ -2374,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="42"/>
@@ -2402,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
@@ -2509,13 +2498,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="43">
         <v>0.51761638185036896</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>5</v>
@@ -2533,13 +2522,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="43">
         <v>503.11306089734097</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="43" t="s">
         <v>5</v>
@@ -2557,19 +2546,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="43">
         <v>-0.47242316418260299</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43" t="s">
@@ -2584,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="56"/>
@@ -2612,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -2719,13 +2708,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="57">
         <v>8.1936987704917998E-3</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D62" s="57" t="s">
         <v>5</v>
@@ -2743,13 +2732,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="57">
         <v>3.849E-3</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="57" t="s">
         <v>5</v>
@@ -2767,16 +2756,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="57">
         <v>3.0635245901639301E-4</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" s="57" t="s">
         <v>19</v>
@@ -2791,13 +2780,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="57">
         <v>8.1936987704917998E-3</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" s="57" t="s">
         <v>5</v>
@@ -2815,16 +2804,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66" s="57">
         <v>4.86127049180327E-3</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="57" t="s">
         <v>19</v>
@@ -2839,13 +2828,13 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67" s="57">
         <v>9.3611680327868804E-3</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="57" t="s">
         <v>5</v>
@@ -2866,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="68"/>
       <c r="D69" s="69"/>
@@ -2894,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="68"/>
       <c r="D71" s="68"/>
@@ -3001,16 +2990,16 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="70">
         <v>4.8857658705755397E-2</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" s="70" t="s">
         <v>19</v>
@@ -3025,13 +3014,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="70">
         <v>0.65943265945123697</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D78" s="70" t="s">
         <v>5</v>
@@ -3049,16 +3038,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="70">
         <v>0.291709681843007</v>
       </c>
       <c r="C79" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79" s="70" t="s">
         <v>19</v>
@@ -3076,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="81"/>
       <c r="D81" s="82"/>
@@ -3104,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="81"/>
       <c r="D83" s="81"/>
@@ -3211,13 +3200,13 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89" s="83">
         <v>4.5218700000000001E-2</v>
       </c>
       <c r="C89" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D89" s="83" t="s">
         <v>5</v>
@@ -3235,13 +3224,13 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" s="83">
         <v>2.7020000000000001E-4</v>
       </c>
       <c r="C90" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D90" s="83" t="s">
         <v>5</v>
@@ -3259,13 +3248,13 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B91" s="83">
         <v>0.1108104</v>
       </c>
       <c r="C91" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="83" t="s">
         <v>5</v>
@@ -3283,13 +3272,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="83">
         <v>3.849E-3</v>
       </c>
       <c r="C92" s="83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D92" s="83" t="s">
         <v>5</v>
@@ -3307,13 +3296,13 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B93" s="83">
         <v>0.16014829999999999</v>
       </c>
       <c r="C93" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" s="83" t="s">
         <v>5</v>
@@ -3334,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="94"/>
       <c r="D95" s="95"/>
@@ -3362,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="94"/>
       <c r="D97" s="94"/>
@@ -3469,13 +3458,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B103" s="96">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C103" s="96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D103" s="96" t="s">
         <v>5</v>
@@ -3493,13 +3482,13 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104" s="96">
         <v>0.92500000000000004</v>
       </c>
       <c r="C104" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D104" s="96" t="s">
         <v>5</v>
@@ -3520,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="107"/>
       <c r="D106" s="108"/>
@@ -3548,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C108" s="107"/>
       <c r="D108" s="107"/>
@@ -3655,13 +3644,13 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B114" s="117">
         <v>3.2790945000000001E-5</v>
       </c>
       <c r="C114" s="109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D114" s="109" t="s">
         <v>5</v>
@@ -3679,16 +3668,16 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B115" s="117">
         <v>2.2041159517487199E-5</v>
       </c>
       <c r="C115" s="109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D115" s="109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E115" s="109" t="s">
         <v>19</v>
@@ -3703,16 +3692,16 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B116" s="117">
         <v>2.1580106827279601E-7</v>
       </c>
       <c r="C116" s="109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D116" s="109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E116" s="109" t="s">
         <v>19</v>
@@ -3727,13 +3716,13 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B117" s="117">
         <v>5.2212909273413703E-7</v>
       </c>
       <c r="C117" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D117" s="109" t="s">
         <v>5</v>
@@ -3751,13 +3740,13 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B118" s="117">
         <v>3.1059351923866298E-6</v>
       </c>
       <c r="C118" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" s="109" t="s">
         <v>5</v>
@@ -3775,13 +3764,13 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B119" s="117">
         <v>1.01033619739448E-6</v>
       </c>
       <c r="C119" s="109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D119" s="109" t="s">
         <v>5</v>
@@ -3803,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="B121" s="119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121" s="120"/>
       <c r="D121" s="121"/>
@@ -3831,7 +3820,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C123" s="120"/>
       <c r="D123" s="120"/>
@@ -3938,13 +3927,13 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B129" s="122">
         <v>1</v>
       </c>
       <c r="C129" s="122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D129" s="122" t="s">
         <v>5</v>
@@ -3965,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C131" s="133"/>
       <c r="D131" s="134"/>
@@ -3993,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C133" s="133"/>
       <c r="D133" s="133"/>
@@ -4100,16 +4089,16 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B139" s="143">
         <v>2.5299999999999998E-5</v>
       </c>
       <c r="C139" s="135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D139" s="135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E139" s="135" t="s">
         <v>19</v>
@@ -4124,16 +4113,16 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B140" s="143">
         <v>3.2790945000000001E-5</v>
       </c>
       <c r="C140" s="135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D140" s="135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E140" s="135" t="s">
         <v>19</v>
@@ -4148,13 +4137,13 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="135" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B141" s="135">
         <v>1.8087480000000001E-4</v>
       </c>
       <c r="C141" s="135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D141" s="135" t="s">
         <v>5</v>
@@ -4172,13 +4161,13 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B142" s="135">
         <v>2.39976081173181E-4</v>
       </c>
       <c r="C142" s="135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D142" s="135" t="s">
         <v>5</v>
@@ -4218,13 +4207,13 @@
         <v>23</v>
       </c>
       <c r="H143" s="143" t="str">
-        <f t="shared" ref="H143:H144" si="4">$B$1</f>
+        <f t="shared" ref="H143:H144" si="3">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B144" s="135">
         <v>2.77777777777777E-2</v>
@@ -4243,7 +4232,7 @@
         <v>23</v>
       </c>
       <c r="H144" s="143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>case2_apos</v>
       </c>
     </row>
@@ -4387,13 +4376,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B154" s="148">
         <v>1.6799999999999901E-3</v>
       </c>
       <c r="C154" s="148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154" s="148" t="s">
         <v>5</v>
@@ -4411,13 +4400,13 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B155" s="148">
         <v>1.6799999999999901E-3</v>
       </c>
       <c r="C155" s="148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D155" s="148" t="s">
         <v>5</v>
@@ -4438,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C157" s="171"/>
       <c r="D157" s="172"/>
@@ -4464,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C159" s="171"/>
       <c r="D159" s="171"/>
@@ -4563,16 +4552,16 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B165" s="177">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="C165" s="180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D165" s="171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E165" s="171" t="s">
         <v>19</v>
@@ -4586,16 +4575,16 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B166" s="179">
         <v>15</v>
       </c>
       <c r="C166" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="D166" s="171" t="s">
         <v>95</v>
-      </c>
-      <c r="D166" s="171" t="s">
-        <v>96</v>
       </c>
       <c r="E166" s="171" t="s">
         <v>17</v>
@@ -4609,16 +4598,16 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="181" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B167" s="182">
         <v>70</v>
       </c>
       <c r="C167" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="D167" s="181" t="s">
         <v>98</v>
-      </c>
-      <c r="D167" s="181" t="s">
-        <v>99</v>
       </c>
       <c r="E167" s="181" t="s">
         <v>19</v>
@@ -4632,16 +4621,16 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="183" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B168" s="184">
         <v>140</v>
       </c>
       <c r="C168" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D168" s="183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E168" s="181" t="s">
         <v>19</v>
@@ -4655,19 +4644,19 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="183" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B169" s="184">
         <v>-0.21</v>
       </c>
       <c r="C169" s="171" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D169" s="181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E169" s="183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F169" s="171" t="s">
         <v>23</v>
@@ -4681,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="186" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C171" s="187"/>
       <c r="D171" s="188"/>
@@ -4709,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="B173" s="192" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C173" s="187"/>
       <c r="D173" s="187"/>
@@ -4816,16 +4805,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="198" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B179" s="197">
         <v>10.9</v>
       </c>
       <c r="C179" s="199" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179" s="187" t="s">
         <v>95</v>
-      </c>
-      <c r="D179" s="187" t="s">
-        <v>96</v>
       </c>
       <c r="E179" s="187" t="s">
         <v>17</v>
@@ -4840,16 +4829,16 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B180" s="197">
         <v>280</v>
       </c>
       <c r="C180" s="187" t="s">
+        <v>97</v>
+      </c>
+      <c r="D180" s="198" t="s">
         <v>98</v>
-      </c>
-      <c r="D180" s="198" t="s">
-        <v>99</v>
       </c>
       <c r="E180" s="187" t="s">
         <v>19</v>
@@ -4864,19 +4853,19 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="200" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B181" s="201">
         <v>-0.28000000000000003</v>
       </c>
       <c r="C181" s="187" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D181" s="198" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E181" s="198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F181" s="189"/>
       <c r="G181" s="187" t="s">
@@ -4891,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="203" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C183" s="204"/>
       <c r="D183" s="205"/>
@@ -4919,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="209" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C185" s="204"/>
       <c r="D185" s="204"/>
@@ -5026,17 +5015,17 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="215" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B191" s="215">
         <f>(56/60*40 + 500 * 4/60)/1000</f>
         <v>7.0666666666666669E-2</v>
       </c>
       <c r="C191" s="215" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" s="215" t="s">
         <v>95</v>
-      </c>
-      <c r="D191" s="215" t="s">
-        <v>96</v>
       </c>
       <c r="E191" s="215" t="s">
         <v>17</v>
@@ -5054,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="217" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C193" s="218"/>
       <c r="D193" s="219"/>
@@ -5082,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="223" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C195" s="218"/>
       <c r="D195" s="218"/>
@@ -5189,16 +5178,16 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="229" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B201" s="229">
         <v>1</v>
       </c>
       <c r="C201" s="229" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D201" s="229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E201" s="229" t="s">
         <v>16</v>
@@ -5351,16 +5340,16 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="242" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B211" s="242">
         <v>1</v>
       </c>
       <c r="C211" s="242" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D211" s="242" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E211" s="242" t="s">
         <v>17</v>
@@ -5378,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="243" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C213" s="244"/>
       <c r="D213" s="244"/>
@@ -5406,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="B215" s="244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C215" s="244"/>
       <c r="D215" s="244"/>
@@ -5487,19 +5476,19 @@
         <v>heat production from hot water</v>
       </c>
       <c r="B220" s="250">
-        <f t="shared" ref="B220" si="5">B214</f>
+        <f t="shared" ref="B220" si="4">B214</f>
         <v>1</v>
       </c>
       <c r="C220" s="249" t="str">
-        <f t="shared" ref="C220" si="6">B215</f>
+        <f t="shared" ref="C220" si="5">B215</f>
         <v>heat production from hot water</v>
       </c>
       <c r="D220" s="249" t="str">
-        <f t="shared" ref="D220" si="7">B216</f>
+        <f t="shared" ref="D220" si="6">B216</f>
         <v>GLO</v>
       </c>
       <c r="E220" s="249" t="str">
-        <f t="shared" ref="E220" si="8">B217</f>
+        <f t="shared" ref="E220" si="7">B217</f>
         <v>megajoule</v>
       </c>
       <c r="F220" s="244"/>
@@ -5507,13 +5496,13 @@
         <v>22</v>
       </c>
       <c r="H220" s="249" t="str">
-        <f t="shared" ref="H220" si="9">$B$1</f>
+        <f t="shared" ref="H220" si="8">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="244" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B221" s="244">
         <v>0.28850999999999999</v>
@@ -5524,24 +5513,24 @@
         <v>18</v>
       </c>
       <c r="F221" s="244" t="s">
+        <v>114</v>
+      </c>
+      <c r="G221" s="252" t="s">
         <v>115</v>
       </c>
-      <c r="G221" s="252" t="s">
+      <c r="H221" s="252" t="s">
         <v>116</v>
-      </c>
-      <c r="H221" s="252" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B222" s="244">
         <v>1</v>
       </c>
       <c r="C222" s="244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D222" s="244" t="s">
         <v>5</v>
@@ -5559,16 +5548,16 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="244" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B223" s="244">
         <v>6.5544999999999996E-8</v>
       </c>
       <c r="C223" s="244" t="s">
+        <v>118</v>
+      </c>
+      <c r="D223" s="244" t="s">
         <v>119</v>
-      </c>
-      <c r="D223" s="244" t="s">
-        <v>120</v>
       </c>
       <c r="E223" s="244" t="s">
         <v>6</v>
@@ -5583,16 +5572,16 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="244" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B224" s="244">
         <v>0.23457</v>
       </c>
       <c r="C224" s="244" t="s">
+        <v>94</v>
+      </c>
+      <c r="D224" s="244" t="s">
         <v>95</v>
-      </c>
-      <c r="D224" s="244" t="s">
-        <v>96</v>
       </c>
       <c r="E224" s="244" t="s">
         <v>17</v>
@@ -5607,16 +5596,16 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="244" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B225" s="244">
         <v>6.5544999999999996E-8</v>
       </c>
       <c r="C225" s="244" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D225" s="244" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E225" s="244" t="s">
         <v>6</v>
@@ -5763,19 +5752,19 @@
         <v>22</v>
       </c>
       <c r="H234" s="122" t="str">
-        <f t="shared" ref="H234:H235" si="10">$B$1</f>
+        <f t="shared" ref="H234:H235" si="9">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B235" s="122">
         <v>0.1026</v>
       </c>
       <c r="C235" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D235" s="122" t="s">
         <v>5</v>
@@ -5788,22 +5777,22 @@
         <v>23</v>
       </c>
       <c r="H235" s="122" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>case2_apos</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B236" s="122">
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="C236" s="122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D236" s="122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E236" s="122" t="s">
         <v>18</v>
@@ -5818,16 +5807,16 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B237" s="122">
         <v>0.44869999999999999</v>
       </c>
       <c r="C237" s="122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D237" s="122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E237" s="122" t="s">
         <v>18</v>
@@ -5842,16 +5831,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B238" s="122">
         <v>0.20513000000000001</v>
       </c>
       <c r="C238" s="122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D238" s="122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E238" s="122" t="s">
         <v>18</v>
@@ -5866,16 +5855,16 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B239" s="122">
         <v>0.17949999999999999</v>
       </c>
       <c r="C239" s="122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D239" s="122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E239" s="122" t="s">
         <v>18</v>
@@ -5890,16 +5879,16 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B240" s="122">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="C240" s="122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D240" s="122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E240" s="122" t="s">
         <v>18</v>
@@ -5917,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="B242" s="262" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C242" s="263"/>
       <c r="D242" s="263"/>
@@ -5945,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="B244" s="263" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C244" s="263"/>
       <c r="D244" s="263"/>
@@ -6046,22 +6035,22 @@
         <v>22</v>
       </c>
       <c r="H249" s="263" t="str">
-        <f t="shared" ref="H249" si="11">$B$1</f>
+        <f t="shared" ref="H249" si="10">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="263" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B250" s="263">
         <v>4.1554130910640599E-2</v>
       </c>
       <c r="C250" s="263" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D250" s="263" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E250" s="263" t="s">
         <v>19</v>
@@ -6076,16 +6065,16 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="263" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B251" s="263">
         <v>0.271672758270046</v>
       </c>
       <c r="C251" s="263" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D251" s="263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E251" s="263" t="s">
         <v>19</v>
@@ -6100,16 +6089,16 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="263" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B252" s="263">
         <v>0.52743927745681096</v>
       </c>
       <c r="C252" s="263" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D252" s="263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E252" s="263" t="s">
         <v>19</v>
@@ -6124,16 +6113,16 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="263" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B253" s="263">
         <v>0.15933383336250301</v>
       </c>
       <c r="C253" s="263" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D253" s="263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E253" s="263" t="s">
         <v>19</v>
@@ -6151,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="B255" s="256" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C255" s="257"/>
       <c r="D255" s="257"/>
@@ -6179,7 +6168,7 @@
         <v>3</v>
       </c>
       <c r="B257" s="257" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C257" s="257"/>
       <c r="D257" s="257"/>
@@ -6280,22 +6269,22 @@
         <v>22</v>
       </c>
       <c r="H262" s="257" t="str">
-        <f t="shared" ref="H262" si="12">$B$1</f>
+        <f t="shared" ref="H262" si="11">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="257" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B263" s="257">
         <v>4.1554130910640599E-2</v>
       </c>
       <c r="C263" s="257" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D263" s="257" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E263" s="257" t="s">
         <v>19</v>
@@ -6310,16 +6299,16 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="257" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B264" s="257">
         <v>0.52743927745681096</v>
       </c>
       <c r="C264" s="257" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D264" s="257" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E264" s="257" t="s">
         <v>19</v>
@@ -6334,16 +6323,16 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="257" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B265" s="257">
         <v>0.15933383336250301</v>
       </c>
       <c r="C265" s="257" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D265" s="257" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E265" s="257" t="s">
         <v>19</v>
@@ -6361,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="269" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C267" s="35"/>
       <c r="D267" s="270"/>
@@ -6389,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="B269" s="273" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C269" s="35"/>
       <c r="D269" s="35"/>
@@ -6496,13 +6485,13 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B275" s="33">
         <v>1</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>5</v>
@@ -6521,16 +6510,16 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="277" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B276" s="278">
         <v>-7.0999999999999994E-2</v>
       </c>
       <c r="C276" s="277" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D276" s="279" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E276" s="279" t="s">
         <v>19</v>
@@ -6545,16 +6534,16 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="281" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B277" s="278">
         <v>-7.2700000000000004E-3</v>
       </c>
       <c r="C277" s="280" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D277" s="279" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E277" s="279" t="s">
         <v>19</v>
@@ -6569,16 +6558,16 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="281" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B278" s="278">
         <v>-0.14709144573749999</v>
       </c>
       <c r="C278" s="280" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D278" s="279" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E278" s="279" t="s">
         <v>17</v>
@@ -6618,7 +6607,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="281" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B280" s="282">
         <v>-3.16E-3</v>
@@ -6627,7 +6616,7 @@
         <v>15</v>
       </c>
       <c r="D280" s="279" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E280" s="279" t="s">
         <v>19</v>
@@ -6645,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="B282" s="158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C282" s="17"/>
       <c r="D282" s="159"/>
@@ -6671,7 +6660,7 @@
         <v>3</v>
       </c>
       <c r="B284" s="162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C284" s="17"/>
       <c r="D284" s="17"/>
@@ -6770,13 +6759,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B290" s="16">
         <v>6.3E-2</v>
       </c>
       <c r="C290" s="165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D290" s="17" t="s">
         <v>5</v>
@@ -6793,13 +6782,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B291" s="16">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C291" s="165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D291" s="17" t="s">
         <v>5</v>
@@ -6816,16 +6805,16 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B292" s="162">
         <v>7.2700000000000004E-3</v>
       </c>
       <c r="C292" s="166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D292" s="166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E292" s="166" t="s">
         <v>19</v>
@@ -6839,16 +6828,16 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="167" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B293" s="283">
         <v>2.8E-3</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D293" s="167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E293" s="166" t="s">
         <v>19</v>
@@ -6862,16 +6851,16 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="167" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B294" s="283">
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="C294" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D294" s="167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E294" s="167" t="s">
         <v>16</v>
@@ -6885,16 +6874,16 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B295" s="283">
         <v>1.8100000000000001E-4</v>
       </c>
       <c r="C295" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D295" s="167" t="s">
         <v>150</v>
-      </c>
-      <c r="D295" s="167" t="s">
-        <v>151</v>
       </c>
       <c r="E295" s="167" t="s">
         <v>16</v>
@@ -6908,13 +6897,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B296" s="283">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="C296" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D296" s="167" t="s">
         <v>5</v>
@@ -6931,16 +6920,16 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="167" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B297" s="284">
         <v>4.1300000000000001E-5</v>
       </c>
       <c r="C297" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D297" s="167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E297" s="168" t="s">
         <v>16</v>
@@ -6962,10 +6951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916DA13D-3ACD-4FB0-8444-EE0A0D72880A}">
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6985,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -7221,36 +7210,32 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B14" s="7">
         <f>ev391apos!B14</f>
         <v>-0.84100660000000005</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f>ev391apos!D14</f>
-        <v>GLO</v>
-      </c>
-      <c r="E14" s="7" t="str">
-        <f>ev391apos!E14</f>
-        <v>kilowatt hour</v>
+        <v>111</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7" t="str">
-        <f>ev391apos!G14</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H14" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>case2_consq</v>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="str">
-        <f>A220</f>
+        <f>A210</f>
         <v>marginal heating grid</v>
       </c>
       <c r="B15" s="7">
@@ -7258,7 +7243,7 @@
         <v>-4.2050332499999996</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f>C220</f>
+        <f>C210</f>
         <v>marginal heating grid</v>
       </c>
       <c r="D15" s="7" t="str">
@@ -7305,8 +7290,9 @@
         <f>ev391apos!G16</f>
         <v>technosphere</v>
       </c>
-      <c r="H16" s="37" t="s">
-        <v>27</v>
+      <c r="H16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>case2_consq</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7697,14 +7683,14 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="346">
         <f>ev391apos!B34</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C34" s="345" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="345" t="s">
         <v>5</v>
@@ -7717,7 +7703,7 @@
         <v>23</v>
       </c>
       <c r="H34" s="345" t="str">
-        <f t="shared" ref="H34:H265" si="2">$B$1</f>
+        <f t="shared" ref="H34:H255" si="2">$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
@@ -7754,7 +7740,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="38" t="str">
-        <f>A220</f>
+        <f>A210</f>
         <v>marginal heating grid</v>
       </c>
       <c r="B36" s="38">
@@ -7762,7 +7748,7 @@
         <v>-0.95508976109681298</v>
       </c>
       <c r="C36" s="38" t="str">
-        <f>C220</f>
+        <f>C210</f>
         <v>marginal heating grid</v>
       </c>
       <c r="D36" s="38" t="str">
@@ -7784,34 +7770,28 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="38" t="str">
-        <f>A210</f>
-        <v>marginal electricity mix</v>
+      <c r="A37" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="B37" s="38">
         <f>ev391apos!B37</f>
         <v>-0.19101795221936299</v>
       </c>
-      <c r="C37" s="38" t="str">
-        <f>C210</f>
-        <v>marginal electricity mix</v>
-      </c>
-      <c r="D37" s="38" t="str">
-        <f>ev391apos!D37</f>
-        <v>GLO</v>
-      </c>
-      <c r="E37" s="38" t="str">
-        <f>ev391apos!E37</f>
-        <v>kilowatt hour</v>
+      <c r="C37" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="G37" s="23" t="str">
-        <f>ev391apos!G37</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H37" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>case2_consq</v>
+      <c r="G37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -11270,2088 +11250,1921 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
-      <c r="A203" s="230" t="str">
-        <f>ev391apos!A203</f>
+      <c r="A203" s="253" t="str">
+        <f>ev391apos!A227</f>
         <v>Activity</v>
       </c>
-      <c r="B203" s="231" t="s">
+      <c r="B203" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="C203" s="232"/>
-      <c r="D203" s="233"/>
-      <c r="E203" s="232"/>
-      <c r="F203" s="234"/>
-      <c r="G203" s="232"/>
-      <c r="H203" s="232"/>
+      <c r="C203" s="122"/>
+      <c r="D203" s="122"/>
+      <c r="E203" s="122"/>
+      <c r="F203" s="122"/>
+      <c r="G203" s="122"/>
+      <c r="H203" s="122"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="235" t="str">
-        <f>ev391apos!A204</f>
+      <c r="A204" s="122" t="str">
+        <f>ev391apos!A228</f>
         <v>production amount</v>
       </c>
-      <c r="B204" s="236">
-        <f>ev391apos!B204</f>
+      <c r="B204" s="254">
+        <f>ev391apos!B228</f>
         <v>1</v>
       </c>
-      <c r="C204" s="232"/>
-      <c r="D204" s="232"/>
-      <c r="E204" s="232"/>
-      <c r="F204" s="234"/>
-      <c r="G204" s="232"/>
-      <c r="H204" s="232"/>
+      <c r="C204" s="122"/>
+      <c r="D204" s="122"/>
+      <c r="E204" s="122"/>
+      <c r="F204" s="122"/>
+      <c r="G204" s="122"/>
+      <c r="H204" s="122"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="235" t="str">
-        <f>ev391apos!A205</f>
+      <c r="A205" s="122" t="str">
+        <f>ev391apos!A229</f>
         <v>reference product</v>
       </c>
-      <c r="B205" s="237" t="s">
+      <c r="B205" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C205" s="232"/>
-      <c r="D205" s="232"/>
-      <c r="E205" s="232"/>
-      <c r="F205" s="234"/>
-      <c r="G205" s="232"/>
-      <c r="H205" s="232"/>
+      <c r="C205" s="122"/>
+      <c r="D205" s="122"/>
+      <c r="E205" s="122"/>
+      <c r="F205" s="122"/>
+      <c r="G205" s="122"/>
+      <c r="H205" s="122"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="235" t="str">
-        <f>ev391apos!A206</f>
+      <c r="A206" s="122" t="str">
+        <f>ev391apos!A230</f>
         <v>location</v>
       </c>
-      <c r="B206" s="238" t="str">
-        <f>ev391apos!B206</f>
+      <c r="B206" s="122" t="str">
+        <f>ev391apos!B230</f>
         <v>GLO</v>
       </c>
-      <c r="C206" s="232"/>
-      <c r="D206" s="232"/>
-      <c r="E206" s="232"/>
-      <c r="F206" s="234"/>
-      <c r="G206" s="232"/>
-      <c r="H206" s="232"/>
+      <c r="C206" s="122"/>
+      <c r="D206" s="122"/>
+      <c r="E206" s="122"/>
+      <c r="F206" s="122"/>
+      <c r="G206" s="122"/>
+      <c r="H206" s="122"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="235" t="str">
-        <f>ev391apos!A207</f>
+      <c r="A207" s="122" t="str">
+        <f>ev391apos!A231</f>
         <v>unit</v>
       </c>
-      <c r="B207" s="237" t="str">
-        <f>ev391apos!B207</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="C207" s="232"/>
-      <c r="D207" s="232"/>
-      <c r="E207" s="232"/>
-      <c r="F207" s="234"/>
-      <c r="G207" s="232"/>
-      <c r="H207" s="232"/>
+      <c r="B207" s="122" t="str">
+        <f>ev391apos!B231</f>
+        <v>megajoule</v>
+      </c>
+      <c r="C207" s="122"/>
+      <c r="D207" s="122"/>
+      <c r="E207" s="122"/>
+      <c r="F207" s="122"/>
+      <c r="G207" s="122"/>
+      <c r="H207" s="122"/>
     </row>
     <row r="208" spans="1:8" ht="15.75">
-      <c r="A208" s="239" t="str">
-        <f>ev391apos!A208</f>
+      <c r="A208" s="253" t="str">
+        <f>ev391apos!A232</f>
         <v>Exchanges</v>
       </c>
-      <c r="B208" s="231"/>
-      <c r="C208" s="239"/>
-      <c r="D208" s="239"/>
-      <c r="E208" s="239"/>
-      <c r="F208" s="234"/>
-      <c r="G208" s="239"/>
-      <c r="H208" s="239"/>
-    </row>
-    <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="239" t="str">
-        <f>ev391apos!A209</f>
+      <c r="B208" s="122"/>
+      <c r="C208" s="122"/>
+      <c r="D208" s="122"/>
+      <c r="E208" s="122"/>
+      <c r="F208" s="122"/>
+      <c r="G208" s="122"/>
+      <c r="H208" s="122"/>
+    </row>
+    <row r="209" spans="1:9" ht="15.75">
+      <c r="A209" s="127" t="str">
+        <f>ev391apos!A233</f>
         <v>name</v>
       </c>
-      <c r="B209" s="239" t="str">
-        <f>ev391apos!B209</f>
+      <c r="B209" s="127" t="str">
+        <f>ev391apos!B233</f>
         <v>amount</v>
       </c>
-      <c r="C209" s="239" t="str">
-        <f>ev391apos!C209</f>
+      <c r="C209" s="127" t="str">
+        <f>ev391apos!C233</f>
         <v>reference product</v>
       </c>
-      <c r="D209" s="239" t="str">
-        <f>ev391apos!D209</f>
+      <c r="D209" s="127" t="str">
+        <f>ev391apos!D233</f>
         <v>location</v>
       </c>
-      <c r="E209" s="239" t="str">
-        <f>ev391apos!E209</f>
+      <c r="E209" s="127" t="str">
+        <f>ev391apos!E233</f>
         <v>unit</v>
       </c>
-      <c r="F209" s="240" t="str">
-        <f>ev391apos!F209</f>
+      <c r="F209" s="128" t="str">
+        <f>ev391apos!F233</f>
         <v>categories</v>
       </c>
-      <c r="G209" s="239" t="str">
-        <f>ev391apos!G209</f>
+      <c r="G209" s="127" t="str">
+        <f>ev391apos!G233</f>
         <v>type</v>
       </c>
-      <c r="H209" s="239" t="str">
-        <f>ev391apos!H209</f>
+      <c r="H209" s="127" t="str">
+        <f>ev391apos!H233</f>
         <v>database</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="237" t="str">
+    <row r="210" spans="1:9">
+      <c r="A210" s="122" t="str">
         <f>B203</f>
-        <v>marginal electricity mix</v>
-      </c>
-      <c r="B210" s="241">
+        <v>marginal heating grid</v>
+      </c>
+      <c r="B210" s="122">
         <f>B204</f>
         <v>1</v>
       </c>
-      <c r="C210" s="237" t="str">
+      <c r="C210" s="122" t="str">
         <f>B205</f>
-        <v>marginal electricity mix</v>
-      </c>
-      <c r="D210" s="237" t="str">
+        <v>marginal heating grid</v>
+      </c>
+      <c r="D210" s="122" t="str">
         <f>B206</f>
         <v>GLO</v>
       </c>
-      <c r="E210" s="237" t="str">
+      <c r="E210" s="122" t="str">
         <f>B207</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="F210" s="234"/>
-      <c r="G210" s="232" t="str">
-        <f>ev391apos!G210</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F210" s="122"/>
+      <c r="G210" s="122" t="str">
+        <f>ev391apos!G220</f>
         <v>production</v>
       </c>
-      <c r="H210" s="237" t="str">
+      <c r="H210" s="130" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="242" t="str">
-        <f>ev391apos!A211</f>
-        <v>market for electricity, high voltage</v>
-      </c>
-      <c r="B211" s="242">
-        <f>ev391apos!B211</f>
+    <row r="211" spans="1:9">
+      <c r="A211" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B211" s="122">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C211" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="D211" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="E211" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="122"/>
+      <c r="G211" s="122" t="str">
+        <f>ev391apos!G235</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H211" s="122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B212" s="122">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C212" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D212" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" s="122"/>
+      <c r="G212" s="122" t="str">
+        <f>ev391apos!G236</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H212" s="122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B213" s="122">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C213" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="D213" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="E213" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" s="122"/>
+      <c r="G213" s="122" t="str">
+        <f>ev391apos!G237</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H213" s="122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="B214" s="122">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C214" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="D214" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="E214" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214" s="122"/>
+      <c r="G214" s="122" t="str">
+        <f>ev391apos!G238</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H214" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="I214"/>
+    </row>
+    <row r="216" spans="1:9" ht="15.75">
+      <c r="A216" s="262" t="str">
+        <f>ev391apos!A242</f>
+        <v>Activity</v>
+      </c>
+      <c r="B216" s="262" t="str">
+        <f>ev391apos!B242</f>
+        <v>eol SUD</v>
+      </c>
+      <c r="C216" s="263"/>
+      <c r="D216" s="263"/>
+      <c r="E216" s="263"/>
+      <c r="F216" s="263"/>
+      <c r="G216" s="263"/>
+      <c r="H216" s="263"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="263" t="str">
+        <f>ev391apos!A243</f>
+        <v>production amount</v>
+      </c>
+      <c r="B217" s="264">
+        <f>ev391apos!B243</f>
         <v>1</v>
       </c>
-      <c r="C211" s="242" t="str">
-        <f>ev391apos!C211</f>
-        <v>electricity, high voltage</v>
-      </c>
-      <c r="D211" s="242" t="str">
-        <f>ev391apos!D211</f>
-        <v>DK</v>
-      </c>
-      <c r="E211" s="242" t="str">
-        <f>ev391apos!E211</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="F211" s="242"/>
-      <c r="G211" s="232" t="str">
-        <f>ev391apos!G211</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H211" s="232" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="253" t="str">
-        <f>ev391apos!A227</f>
-        <v>Activity</v>
-      </c>
-      <c r="B213" s="253" t="s">
-        <v>33</v>
-      </c>
-      <c r="C213" s="122"/>
-      <c r="D213" s="122"/>
-      <c r="E213" s="122"/>
-      <c r="F213" s="122"/>
-      <c r="G213" s="122"/>
-      <c r="H213" s="122"/>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="122" t="str">
-        <f>ev391apos!A228</f>
-        <v>production amount</v>
-      </c>
-      <c r="B214" s="254">
-        <f>ev391apos!B228</f>
+      <c r="C217" s="263"/>
+      <c r="D217" s="263"/>
+      <c r="E217" s="263"/>
+      <c r="F217" s="263"/>
+      <c r="G217" s="263"/>
+      <c r="H217" s="263"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="263" t="str">
+        <f>ev391apos!A244</f>
+        <v>reference product</v>
+      </c>
+      <c r="B218" s="263" t="str">
+        <f>ev391apos!B244</f>
+        <v>eol</v>
+      </c>
+      <c r="C218" s="263"/>
+      <c r="D218" s="263"/>
+      <c r="E218" s="263"/>
+      <c r="F218" s="263"/>
+      <c r="G218" s="263"/>
+      <c r="H218" s="263"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="263" t="str">
+        <f>ev391apos!A245</f>
+        <v>location</v>
+      </c>
+      <c r="B219" s="263" t="str">
+        <f>ev391apos!B245</f>
+        <v>GLO</v>
+      </c>
+      <c r="C219" s="263"/>
+      <c r="D219" s="263"/>
+      <c r="E219" s="263"/>
+      <c r="F219" s="263"/>
+      <c r="G219" s="263"/>
+      <c r="H219" s="263"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="263" t="str">
+        <f>ev391apos!A246</f>
+        <v>unit</v>
+      </c>
+      <c r="B220" s="263" t="str">
+        <f>ev391apos!B246</f>
+        <v>kilogram</v>
+      </c>
+      <c r="C220" s="263"/>
+      <c r="D220" s="263"/>
+      <c r="E220" s="263"/>
+      <c r="F220" s="263"/>
+      <c r="G220" s="263"/>
+      <c r="H220" s="263"/>
+    </row>
+    <row r="221" spans="1:9" ht="15.75">
+      <c r="A221" s="262" t="str">
+        <f>ev391apos!A247</f>
+        <v>Exchanges</v>
+      </c>
+      <c r="B221" s="263"/>
+      <c r="C221" s="263"/>
+      <c r="D221" s="263"/>
+      <c r="E221" s="263"/>
+      <c r="F221" s="263"/>
+      <c r="G221" s="263"/>
+      <c r="H221" s="263"/>
+    </row>
+    <row r="222" spans="1:9" ht="15.75">
+      <c r="A222" s="265" t="str">
+        <f>ev391apos!A248</f>
+        <v>name</v>
+      </c>
+      <c r="B222" s="265" t="str">
+        <f>ev391apos!B248</f>
+        <v>amount</v>
+      </c>
+      <c r="C222" s="265" t="str">
+        <f>ev391apos!C248</f>
+        <v>reference product</v>
+      </c>
+      <c r="D222" s="265" t="str">
+        <f>ev391apos!D248</f>
+        <v>location</v>
+      </c>
+      <c r="E222" s="265" t="str">
+        <f>ev391apos!E248</f>
+        <v>unit</v>
+      </c>
+      <c r="F222" s="266" t="str">
+        <f>ev391apos!F248</f>
+        <v>categories</v>
+      </c>
+      <c r="G222" s="265" t="str">
+        <f>ev391apos!G248</f>
+        <v>type</v>
+      </c>
+      <c r="H222" s="265" t="str">
+        <f>ev391apos!H248</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="263" t="str">
+        <f>ev391apos!A249</f>
+        <v>eol SUD</v>
+      </c>
+      <c r="B223" s="267">
+        <f>ev391apos!B249</f>
         <v>1</v>
       </c>
-      <c r="C214" s="122"/>
-      <c r="D214" s="122"/>
-      <c r="E214" s="122"/>
-      <c r="F214" s="122"/>
-      <c r="G214" s="122"/>
-      <c r="H214" s="122"/>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="122" t="str">
-        <f>ev391apos!A229</f>
-        <v>reference product</v>
-      </c>
-      <c r="B215" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="C215" s="122"/>
-      <c r="D215" s="122"/>
-      <c r="E215" s="122"/>
-      <c r="F215" s="122"/>
-      <c r="G215" s="122"/>
-      <c r="H215" s="122"/>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="122" t="str">
-        <f>ev391apos!A230</f>
-        <v>location</v>
-      </c>
-      <c r="B216" s="122" t="str">
-        <f>ev391apos!B230</f>
+      <c r="C223" s="263" t="str">
+        <f>ev391apos!C249</f>
+        <v>eol</v>
+      </c>
+      <c r="D223" s="263" t="str">
+        <f>ev391apos!D249</f>
         <v>GLO</v>
       </c>
-      <c r="C216" s="122"/>
-      <c r="D216" s="122"/>
-      <c r="E216" s="122"/>
-      <c r="F216" s="122"/>
-      <c r="G216" s="122"/>
-      <c r="H216" s="122"/>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="122" t="str">
-        <f>ev391apos!A231</f>
-        <v>unit</v>
-      </c>
-      <c r="B217" s="122" t="str">
-        <f>ev391apos!B231</f>
-        <v>megajoule</v>
-      </c>
-      <c r="C217" s="122"/>
-      <c r="D217" s="122"/>
-      <c r="E217" s="122"/>
-      <c r="F217" s="122"/>
-      <c r="G217" s="122"/>
-      <c r="H217" s="122"/>
-    </row>
-    <row r="218" spans="1:8" ht="15.75">
-      <c r="A218" s="253" t="str">
-        <f>ev391apos!A232</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B218" s="122"/>
-      <c r="C218" s="122"/>
-      <c r="D218" s="122"/>
-      <c r="E218" s="122"/>
-      <c r="F218" s="122"/>
-      <c r="G218" s="122"/>
-      <c r="H218" s="122"/>
-    </row>
-    <row r="219" spans="1:8" ht="15.75">
-      <c r="A219" s="127" t="str">
-        <f>ev391apos!A233</f>
-        <v>name</v>
-      </c>
-      <c r="B219" s="127" t="str">
-        <f>ev391apos!B233</f>
-        <v>amount</v>
-      </c>
-      <c r="C219" s="127" t="str">
-        <f>ev391apos!C233</f>
-        <v>reference product</v>
-      </c>
-      <c r="D219" s="127" t="str">
-        <f>ev391apos!D233</f>
-        <v>location</v>
-      </c>
-      <c r="E219" s="127" t="str">
-        <f>ev391apos!E233</f>
-        <v>unit</v>
-      </c>
-      <c r="F219" s="128" t="str">
-        <f>ev391apos!F233</f>
-        <v>categories</v>
-      </c>
-      <c r="G219" s="127" t="str">
-        <f>ev391apos!G233</f>
-        <v>type</v>
-      </c>
-      <c r="H219" s="127" t="str">
-        <f>ev391apos!H233</f>
-        <v>database</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="122" t="str">
-        <f>B213</f>
-        <v>marginal heating grid</v>
-      </c>
-      <c r="B220" s="122">
-        <f>B214</f>
-        <v>1</v>
-      </c>
-      <c r="C220" s="122" t="str">
-        <f>B215</f>
-        <v>marginal heating grid</v>
-      </c>
-      <c r="D220" s="122" t="str">
-        <f>B216</f>
-        <v>GLO</v>
-      </c>
-      <c r="E220" s="122" t="str">
-        <f>B217</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F220" s="122"/>
-      <c r="G220" s="122" t="str">
-        <f>ev391apos!G220</f>
+      <c r="E223" s="263" t="str">
+        <f>ev391apos!E249</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F223" s="263"/>
+      <c r="G223" s="263" t="str">
+        <f>ev391apos!G249</f>
         <v>production</v>
       </c>
-      <c r="H220" s="130" t="str">
+      <c r="H223" s="285" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B221" s="122">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C221" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="D221" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="E221" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F221" s="122"/>
-      <c r="G221" s="122" t="str">
-        <f>ev391apos!G235</f>
+    <row r="224" spans="1:9">
+      <c r="A224" s="263" t="str">
+        <f>ev391apos!A250</f>
+        <v>treatment of hazardous waste, hazardous waste incineration</v>
+      </c>
+      <c r="B224" s="263">
+        <f>ev391apos!B250</f>
+        <v>4.1554130910640599E-2</v>
+      </c>
+      <c r="C224" s="263" t="str">
+        <f>ev391apos!C250</f>
+        <v>hazardous waste, for incineration</v>
+      </c>
+      <c r="D224" s="263" t="str">
+        <f>ev391apos!D250</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="E224" s="263" t="str">
+        <f>ev391apos!E250</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F224" s="263"/>
+      <c r="G224" s="263" t="str">
+        <f>ev391apos!G250</f>
         <v>technosphere</v>
       </c>
-      <c r="H221" s="122" t="s">
+      <c r="H224" s="263" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="B222" s="122">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C222" s="122" t="s">
-        <v>124</v>
-      </c>
-      <c r="D222" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="E222" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F222" s="122"/>
-      <c r="G222" s="122" t="str">
-        <f>ev391apos!G236</f>
+    <row r="225" spans="1:8">
+      <c r="A225" s="263" t="str">
+        <f>ev391apos!A251</f>
+        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B225" s="263">
+        <f>ev391apos!B251</f>
+        <v>0.271672758270046</v>
+      </c>
+      <c r="C225" s="263" t="str">
+        <f>ev391apos!C251</f>
+        <v>municipal solid waste</v>
+      </c>
+      <c r="D225" s="263" t="str">
+        <f>ev391apos!D251</f>
+        <v>CH</v>
+      </c>
+      <c r="E225" s="263" t="str">
+        <f>ev391apos!E251</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F225" s="263"/>
+      <c r="G225" s="263" t="str">
+        <f>ev391apos!G251</f>
         <v>technosphere</v>
       </c>
-      <c r="H222" s="122" t="s">
+      <c r="H225" s="263" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="B223" s="122">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C223" s="122" t="s">
-        <v>159</v>
-      </c>
-      <c r="D223" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="E223" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F223" s="122"/>
-      <c r="G223" s="122" t="str">
-        <f>ev391apos!G237</f>
+    <row r="226" spans="1:8">
+      <c r="A226" s="263" t="str">
+        <f>ev391apos!A252</f>
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B226" s="263">
+        <f>ev391apos!B252</f>
+        <v>0.52743927745681096</v>
+      </c>
+      <c r="C226" s="263" t="str">
+        <f>ev391apos!C252</f>
+        <v>waste polyethylene</v>
+      </c>
+      <c r="D226" s="263" t="str">
+        <f>ev391apos!D252</f>
+        <v>CH</v>
+      </c>
+      <c r="E226" s="263" t="str">
+        <f>ev391apos!E252</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F226" s="263"/>
+      <c r="G226" s="263" t="str">
+        <f>ev391apos!G252</f>
         <v>technosphere</v>
       </c>
-      <c r="H223" s="122" t="s">
+      <c r="H226" s="263" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="122" t="s">
-        <v>162</v>
-      </c>
-      <c r="B224" s="122">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C224" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="D224" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="E224" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F224" s="122"/>
-      <c r="G224" s="122" t="str">
-        <f>ev391apos!G238</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H224" s="122" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="15.75">
-      <c r="A226" s="262" t="str">
-        <f>ev391apos!A242</f>
-        <v>Activity</v>
-      </c>
-      <c r="B226" s="262" t="str">
-        <f>ev391apos!B242</f>
-        <v>eol SUD</v>
-      </c>
-      <c r="C226" s="263"/>
-      <c r="D226" s="263"/>
-      <c r="E226" s="263"/>
-      <c r="F226" s="263"/>
-      <c r="G226" s="263"/>
-      <c r="H226" s="263"/>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="263" t="str">
-        <f>ev391apos!A243</f>
+        <f>ev391apos!A253</f>
+        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B227" s="263">
+        <f>ev391apos!B253</f>
+        <v>0.15933383336250301</v>
+      </c>
+      <c r="C227" s="263" t="str">
+        <f>ev391apos!C253</f>
+        <v>waste plastic, mixture</v>
+      </c>
+      <c r="D227" s="263" t="str">
+        <f>ev391apos!D253</f>
+        <v>CH</v>
+      </c>
+      <c r="E227" s="263" t="str">
+        <f>ev391apos!E253</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F227" s="263"/>
+      <c r="G227" s="263" t="str">
+        <f>ev391apos!G253</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H227" s="263" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="263" t="s">
+        <v>154</v>
+      </c>
+      <c r="B228" s="263">
+        <f>-0.38711*B225+(-1.5428*B226)+(-1.0929*B227)</f>
+        <v>-1.093036505196165</v>
+      </c>
+      <c r="C228" s="263" t="s">
+        <v>153</v>
+      </c>
+      <c r="D228" s="263" t="s">
+        <v>119</v>
+      </c>
+      <c r="E228" s="263" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="263"/>
+      <c r="G228" s="263" t="s">
+        <v>23</v>
+      </c>
+      <c r="H228" s="263" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="263" t="s">
+        <v>156</v>
+      </c>
+      <c r="B229" s="263">
+        <f>-2.8505*B225+(-10.694*B226)+(-7.6601*B227)</f>
+        <v>-7.6353519275120121</v>
+      </c>
+      <c r="C229" s="263" t="s">
+        <v>155</v>
+      </c>
+      <c r="D229" s="263" t="s">
+        <v>119</v>
+      </c>
+      <c r="E229" s="263" t="s">
+        <v>18</v>
+      </c>
+      <c r="F229" s="263"/>
+      <c r="G229" s="263" t="s">
+        <v>23</v>
+      </c>
+      <c r="H229" s="263" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="15.75">
+      <c r="A231" s="256" t="str">
+        <f>ev391apos!A255</f>
+        <v>Activity</v>
+      </c>
+      <c r="B231" s="256" t="str">
+        <f>ev391apos!B255</f>
+        <v>eol MUD</v>
+      </c>
+      <c r="C231" s="257"/>
+      <c r="D231" s="257"/>
+      <c r="E231" s="257"/>
+      <c r="F231" s="257"/>
+      <c r="G231" s="257"/>
+      <c r="H231" s="257"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="257" t="str">
+        <f>ev391apos!A256</f>
         <v>production amount</v>
       </c>
-      <c r="B227" s="264">
-        <f>ev391apos!B243</f>
+      <c r="B232" s="258">
+        <f>ev391apos!B256</f>
         <v>1</v>
       </c>
-      <c r="C227" s="263"/>
-      <c r="D227" s="263"/>
-      <c r="E227" s="263"/>
-      <c r="F227" s="263"/>
-      <c r="G227" s="263"/>
-      <c r="H227" s="263"/>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="263" t="str">
-        <f>ev391apos!A244</f>
+      <c r="C232" s="257"/>
+      <c r="D232" s="257"/>
+      <c r="E232" s="257"/>
+      <c r="F232" s="257"/>
+      <c r="G232" s="257"/>
+      <c r="H232" s="257"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="257" t="str">
+        <f>ev391apos!A257</f>
         <v>reference product</v>
       </c>
-      <c r="B228" s="263" t="str">
-        <f>ev391apos!B244</f>
+      <c r="B233" s="257" t="str">
+        <f>ev391apos!B257</f>
         <v>eol</v>
       </c>
-      <c r="C228" s="263"/>
-      <c r="D228" s="263"/>
-      <c r="E228" s="263"/>
-      <c r="F228" s="263"/>
-      <c r="G228" s="263"/>
-      <c r="H228" s="263"/>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="263" t="str">
-        <f>ev391apos!A245</f>
+      <c r="C233" s="257"/>
+      <c r="D233" s="257"/>
+      <c r="E233" s="257"/>
+      <c r="F233" s="257"/>
+      <c r="G233" s="257"/>
+      <c r="H233" s="257"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="257" t="str">
+        <f>ev391apos!A258</f>
         <v>location</v>
       </c>
-      <c r="B229" s="263" t="str">
-        <f>ev391apos!B245</f>
+      <c r="B234" s="257" t="str">
+        <f>ev391apos!B258</f>
         <v>GLO</v>
       </c>
-      <c r="C229" s="263"/>
-      <c r="D229" s="263"/>
-      <c r="E229" s="263"/>
-      <c r="F229" s="263"/>
-      <c r="G229" s="263"/>
-      <c r="H229" s="263"/>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="263" t="str">
-        <f>ev391apos!A246</f>
+      <c r="C234" s="257"/>
+      <c r="D234" s="257"/>
+      <c r="E234" s="257"/>
+      <c r="F234" s="257"/>
+      <c r="G234" s="257"/>
+      <c r="H234" s="257"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="257" t="str">
+        <f>ev391apos!A259</f>
         <v>unit</v>
       </c>
-      <c r="B230" s="263" t="str">
-        <f>ev391apos!B246</f>
+      <c r="B235" s="257" t="str">
+        <f>ev391apos!B259</f>
         <v>kilogram</v>
       </c>
-      <c r="C230" s="263"/>
-      <c r="D230" s="263"/>
-      <c r="E230" s="263"/>
-      <c r="F230" s="263"/>
-      <c r="G230" s="263"/>
-      <c r="H230" s="263"/>
-    </row>
-    <row r="231" spans="1:8" ht="15.75">
-      <c r="A231" s="262" t="str">
-        <f>ev391apos!A247</f>
+      <c r="C235" s="257"/>
+      <c r="D235" s="257"/>
+      <c r="E235" s="257"/>
+      <c r="F235" s="257"/>
+      <c r="G235" s="257"/>
+      <c r="H235" s="257"/>
+    </row>
+    <row r="236" spans="1:8" ht="15.75">
+      <c r="A236" s="256" t="str">
+        <f>ev391apos!A260</f>
         <v>Exchanges</v>
       </c>
-      <c r="B231" s="263"/>
-      <c r="C231" s="263"/>
-      <c r="D231" s="263"/>
-      <c r="E231" s="263"/>
-      <c r="F231" s="263"/>
-      <c r="G231" s="263"/>
-      <c r="H231" s="263"/>
-    </row>
-    <row r="232" spans="1:8" ht="15.75">
-      <c r="A232" s="265" t="str">
-        <f>ev391apos!A248</f>
+      <c r="B236" s="257"/>
+      <c r="C236" s="257"/>
+      <c r="D236" s="257"/>
+      <c r="E236" s="257"/>
+      <c r="F236" s="257"/>
+      <c r="G236" s="257"/>
+      <c r="H236" s="257"/>
+    </row>
+    <row r="237" spans="1:8" ht="15.75">
+      <c r="A237" s="259" t="str">
+        <f>ev391apos!A261</f>
         <v>name</v>
       </c>
-      <c r="B232" s="265" t="str">
-        <f>ev391apos!B248</f>
+      <c r="B237" s="259" t="str">
+        <f>ev391apos!B261</f>
         <v>amount</v>
       </c>
-      <c r="C232" s="265" t="str">
-        <f>ev391apos!C248</f>
+      <c r="C237" s="259" t="str">
+        <f>ev391apos!C261</f>
         <v>reference product</v>
       </c>
-      <c r="D232" s="265" t="str">
-        <f>ev391apos!D248</f>
+      <c r="D237" s="259" t="str">
+        <f>ev391apos!D261</f>
         <v>location</v>
       </c>
-      <c r="E232" s="265" t="str">
-        <f>ev391apos!E248</f>
+      <c r="E237" s="259" t="str">
+        <f>ev391apos!E261</f>
         <v>unit</v>
       </c>
-      <c r="F232" s="266" t="str">
-        <f>ev391apos!F248</f>
+      <c r="F237" s="260" t="str">
+        <f>ev391apos!F261</f>
         <v>categories</v>
       </c>
-      <c r="G232" s="265" t="str">
-        <f>ev391apos!G248</f>
+      <c r="G237" s="259" t="str">
+        <f>ev391apos!G261</f>
         <v>type</v>
       </c>
-      <c r="H232" s="265" t="str">
-        <f>ev391apos!H248</f>
+      <c r="H237" s="259" t="str">
+        <f>ev391apos!H261</f>
         <v>database</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="263" t="str">
-        <f>ev391apos!A249</f>
-        <v>eol SUD</v>
-      </c>
-      <c r="B233" s="267">
-        <f>ev391apos!B249</f>
+    <row r="238" spans="1:8">
+      <c r="A238" s="257" t="str">
+        <f>ev391apos!A262</f>
+        <v>eol MUD</v>
+      </c>
+      <c r="B238" s="261">
+        <f>ev391apos!B262</f>
         <v>1</v>
       </c>
-      <c r="C233" s="263" t="str">
-        <f>ev391apos!C249</f>
+      <c r="C238" s="257" t="str">
+        <f>ev391apos!C262</f>
         <v>eol</v>
       </c>
-      <c r="D233" s="263" t="str">
-        <f>ev391apos!D249</f>
+      <c r="D238" s="257" t="str">
+        <f>ev391apos!D262</f>
         <v>GLO</v>
       </c>
-      <c r="E233" s="263" t="str">
-        <f>ev391apos!E249</f>
+      <c r="E238" s="257" t="str">
+        <f>ev391apos!E262</f>
         <v>kilogram</v>
       </c>
-      <c r="F233" s="263"/>
-      <c r="G233" s="263" t="str">
-        <f>ev391apos!G249</f>
+      <c r="F238" s="257"/>
+      <c r="G238" s="257" t="str">
+        <f>ev391apos!G262</f>
         <v>production</v>
       </c>
-      <c r="H233" s="285" t="str">
+      <c r="H238" s="286" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="263" t="str">
-        <f>ev391apos!A250</f>
+    <row r="239" spans="1:8">
+      <c r="A239" s="257" t="str">
+        <f>ev391apos!A263</f>
         <v>treatment of hazardous waste, hazardous waste incineration</v>
       </c>
-      <c r="B234" s="263">
-        <f>ev391apos!B250</f>
+      <c r="B239" s="257">
+        <f>ev391apos!B263</f>
         <v>4.1554130910640599E-2</v>
       </c>
-      <c r="C234" s="263" t="str">
-        <f>ev391apos!C250</f>
+      <c r="C239" s="257" t="str">
+        <f>ev391apos!C263</f>
         <v>hazardous waste, for incineration</v>
       </c>
-      <c r="D234" s="263" t="str">
-        <f>ev391apos!D250</f>
+      <c r="D239" s="257" t="str">
+        <f>ev391apos!D263</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="E234" s="263" t="str">
-        <f>ev391apos!E250</f>
+      <c r="E239" s="257" t="str">
+        <f>ev391apos!E263</f>
         <v>kilogram</v>
       </c>
-      <c r="F234" s="263"/>
-      <c r="G234" s="263" t="str">
-        <f>ev391apos!G250</f>
+      <c r="F239" s="257"/>
+      <c r="G239" s="257" t="str">
+        <f>ev391apos!G263</f>
         <v>technosphere</v>
       </c>
-      <c r="H234" s="263" t="s">
+      <c r="H239" s="257" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="263" t="str">
-        <f>ev391apos!A251</f>
-        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B235" s="263">
-        <f>ev391apos!B251</f>
-        <v>0.271672758270046</v>
-      </c>
-      <c r="C235" s="263" t="str">
-        <f>ev391apos!C251</f>
-        <v>municipal solid waste</v>
-      </c>
-      <c r="D235" s="263" t="str">
-        <f>ev391apos!D251</f>
+    <row r="240" spans="1:8">
+      <c r="A240" s="257" t="str">
+        <f>ev391apos!A264</f>
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B240" s="257">
+        <f>ev391apos!B264</f>
+        <v>0.52743927745681096</v>
+      </c>
+      <c r="C240" s="257" t="str">
+        <f>ev391apos!C264</f>
+        <v>waste polyethylene</v>
+      </c>
+      <c r="D240" s="257" t="str">
+        <f>ev391apos!D264</f>
         <v>CH</v>
       </c>
-      <c r="E235" s="263" t="str">
-        <f>ev391apos!E251</f>
+      <c r="E240" s="257" t="str">
+        <f>ev391apos!E264</f>
         <v>kilogram</v>
       </c>
-      <c r="F235" s="263"/>
-      <c r="G235" s="263" t="str">
-        <f>ev391apos!G251</f>
+      <c r="F240" s="257"/>
+      <c r="G240" s="257" t="str">
+        <f>ev391apos!G264</f>
         <v>technosphere</v>
       </c>
-      <c r="H235" s="263" t="s">
+      <c r="H240" s="257" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="263" t="str">
-        <f>ev391apos!A252</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B236" s="263">
-        <f>ev391apos!B252</f>
-        <v>0.52743927745681096</v>
-      </c>
-      <c r="C236" s="263" t="str">
-        <f>ev391apos!C252</f>
-        <v>waste polyethylene</v>
-      </c>
-      <c r="D236" s="263" t="str">
-        <f>ev391apos!D252</f>
+    <row r="241" spans="1:8">
+      <c r="A241" s="257" t="str">
+        <f>ev391apos!A265</f>
+        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B241" s="257">
+        <f>ev391apos!B265</f>
+        <v>0.15933383336250301</v>
+      </c>
+      <c r="C241" s="257" t="str">
+        <f>ev391apos!C265</f>
+        <v>waste plastic, mixture</v>
+      </c>
+      <c r="D241" s="257" t="str">
+        <f>ev391apos!D265</f>
         <v>CH</v>
       </c>
-      <c r="E236" s="263" t="str">
-        <f>ev391apos!E252</f>
+      <c r="E241" s="257" t="str">
+        <f>ev391apos!E265</f>
         <v>kilogram</v>
       </c>
-      <c r="F236" s="263"/>
-      <c r="G236" s="263" t="str">
-        <f>ev391apos!G252</f>
+      <c r="F241" s="257"/>
+      <c r="G241" s="257" t="str">
+        <f>ev391apos!G265</f>
         <v>technosphere</v>
       </c>
-      <c r="H236" s="263" t="s">
+      <c r="H241" s="257" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="263" t="str">
-        <f>ev391apos!A253</f>
-        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B237" s="263">
-        <f>ev391apos!B253</f>
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C237" s="263" t="str">
-        <f>ev391apos!C253</f>
-        <v>waste plastic, mixture</v>
-      </c>
-      <c r="D237" s="263" t="str">
-        <f>ev391apos!D253</f>
-        <v>CH</v>
-      </c>
-      <c r="E237" s="263" t="str">
-        <f>ev391apos!E253</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F237" s="263"/>
-      <c r="G237" s="263" t="str">
-        <f>ev391apos!G253</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H237" s="263" t="s">
+    <row r="242" spans="1:8">
+      <c r="A242" s="257" t="s">
+        <v>154</v>
+      </c>
+      <c r="B242" s="257">
+        <f>(-1.5428*B240)+(-1.0929*B241)</f>
+        <v>-0.98786926374224748</v>
+      </c>
+      <c r="C242" s="257" t="s">
+        <v>153</v>
+      </c>
+      <c r="D242" s="257" t="s">
+        <v>119</v>
+      </c>
+      <c r="E242" s="257" t="s">
+        <v>17</v>
+      </c>
+      <c r="F242" s="257"/>
+      <c r="G242" s="257" t="s">
+        <v>23</v>
+      </c>
+      <c r="H242" s="257" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="263" t="s">
+    <row r="243" spans="1:8">
+      <c r="A243" s="257" t="s">
+        <v>156</v>
+      </c>
+      <c r="B243" s="257">
+        <f>(-10.694*B240)+(-7.6601*B241)</f>
+        <v>-6.8609487300632459</v>
+      </c>
+      <c r="C243" s="257" t="s">
         <v>155</v>
       </c>
-      <c r="B238" s="263">
-        <f>-0.38711*B235+(-1.5428*B236)+(-1.0929*B237)</f>
-        <v>-1.093036505196165</v>
-      </c>
-      <c r="C238" s="263" t="s">
-        <v>154</v>
-      </c>
-      <c r="D238" s="263" t="s">
-        <v>120</v>
-      </c>
-      <c r="E238" s="263" t="s">
-        <v>17</v>
-      </c>
-      <c r="F238" s="263"/>
-      <c r="G238" s="263" t="s">
+      <c r="D243" s="257" t="s">
+        <v>119</v>
+      </c>
+      <c r="E243" s="257" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243" s="257"/>
+      <c r="G243" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="H238" s="263" t="s">
+      <c r="H243" s="257" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="263" t="s">
-        <v>157</v>
-      </c>
-      <c r="B239" s="263">
-        <f>-2.8505*B235+(-10.694*B236)+(-7.6601*B237)</f>
-        <v>-7.6353519275120121</v>
-      </c>
-      <c r="C239" s="263" t="s">
-        <v>156</v>
-      </c>
-      <c r="D239" s="263" t="s">
-        <v>120</v>
-      </c>
-      <c r="E239" s="263" t="s">
-        <v>18</v>
-      </c>
-      <c r="F239" s="263"/>
-      <c r="G239" s="263" t="s">
-        <v>23</v>
-      </c>
-      <c r="H239" s="263" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="15.75">
-      <c r="A241" s="256" t="str">
-        <f>ev391apos!A255</f>
-        <v>Activity</v>
-      </c>
-      <c r="B241" s="256" t="str">
-        <f>ev391apos!B255</f>
-        <v>eol MUD</v>
-      </c>
-      <c r="C241" s="257"/>
-      <c r="D241" s="257"/>
-      <c r="E241" s="257"/>
-      <c r="F241" s="257"/>
-      <c r="G241" s="257"/>
-      <c r="H241" s="257"/>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="257" t="str">
-        <f>ev391apos!A256</f>
-        <v>production amount</v>
-      </c>
-      <c r="B242" s="258">
-        <f>ev391apos!B256</f>
+    <row r="245" spans="1:8" ht="15.75">
+      <c r="A245" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="C242" s="257"/>
-      <c r="D242" s="257"/>
-      <c r="E242" s="257"/>
-      <c r="F242" s="257"/>
-      <c r="G242" s="257"/>
-      <c r="H242" s="257"/>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="257" t="str">
-        <f>ev391apos!A257</f>
-        <v>reference product</v>
-      </c>
-      <c r="B243" s="257" t="str">
-        <f>ev391apos!B257</f>
-        <v>eol</v>
-      </c>
-      <c r="C243" s="257"/>
-      <c r="D243" s="257"/>
-      <c r="E243" s="257"/>
-      <c r="F243" s="257"/>
-      <c r="G243" s="257"/>
-      <c r="H243" s="257"/>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="257" t="str">
-        <f>ev391apos!A258</f>
-        <v>location</v>
-      </c>
-      <c r="B244" s="257" t="str">
-        <f>ev391apos!B258</f>
-        <v>GLO</v>
-      </c>
-      <c r="C244" s="257"/>
-      <c r="D244" s="257"/>
-      <c r="E244" s="257"/>
-      <c r="F244" s="257"/>
-      <c r="G244" s="257"/>
-      <c r="H244" s="257"/>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="257" t="str">
-        <f>ev391apos!A259</f>
-        <v>unit</v>
-      </c>
-      <c r="B245" s="257" t="str">
-        <f>ev391apos!B259</f>
-        <v>kilogram</v>
-      </c>
-      <c r="C245" s="257"/>
-      <c r="D245" s="257"/>
-      <c r="E245" s="257"/>
-      <c r="F245" s="257"/>
-      <c r="G245" s="257"/>
-      <c r="H245" s="257"/>
-    </row>
-    <row r="246" spans="1:8" ht="15.75">
-      <c r="A246" s="256" t="str">
-        <f>ev391apos!A260</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B246" s="257"/>
-      <c r="C246" s="257"/>
-      <c r="D246" s="257"/>
-      <c r="E246" s="257"/>
-      <c r="F246" s="257"/>
-      <c r="G246" s="257"/>
-      <c r="H246" s="257"/>
-    </row>
-    <row r="247" spans="1:8" ht="15.75">
-      <c r="A247" s="259" t="str">
-        <f>ev391apos!A261</f>
-        <v>name</v>
-      </c>
-      <c r="B247" s="259" t="str">
-        <f>ev391apos!B261</f>
-        <v>amount</v>
-      </c>
-      <c r="C247" s="259" t="str">
-        <f>ev391apos!C261</f>
-        <v>reference product</v>
-      </c>
-      <c r="D247" s="259" t="str">
-        <f>ev391apos!D261</f>
-        <v>location</v>
-      </c>
-      <c r="E247" s="259" t="str">
-        <f>ev391apos!E261</f>
-        <v>unit</v>
-      </c>
-      <c r="F247" s="260" t="str">
-        <f>ev391apos!F261</f>
-        <v>categories</v>
-      </c>
-      <c r="G247" s="259" t="str">
-        <f>ev391apos!G261</f>
-        <v>type</v>
-      </c>
-      <c r="H247" s="259" t="str">
-        <f>ev391apos!H261</f>
-        <v>database</v>
-      </c>
+      <c r="B245" s="290" t="s">
+        <v>141</v>
+      </c>
+      <c r="C245" s="280"/>
+      <c r="D245" s="291"/>
+      <c r="E245" s="280"/>
+      <c r="F245" s="279"/>
+      <c r="G245" s="280"/>
+      <c r="H245" s="280"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="293">
+        <v>1</v>
+      </c>
+      <c r="C246" s="280"/>
+      <c r="D246" s="280"/>
+      <c r="E246" s="280"/>
+      <c r="F246" s="279"/>
+      <c r="G246" s="280"/>
+      <c r="H246" s="280"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="292" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" s="294" t="s">
+        <v>165</v>
+      </c>
+      <c r="C247" s="280"/>
+      <c r="D247" s="280"/>
+      <c r="E247" s="280"/>
+      <c r="F247" s="279"/>
+      <c r="G247" s="280"/>
+      <c r="H247" s="280"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="257" t="str">
-        <f>ev391apos!A262</f>
-        <v>eol MUD</v>
-      </c>
-      <c r="B248" s="261">
-        <f>ev391apos!B262</f>
+      <c r="A248" s="292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" s="295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="280"/>
+      <c r="D248" s="280"/>
+      <c r="E248" s="280"/>
+      <c r="F248" s="279"/>
+      <c r="G248" s="280"/>
+      <c r="H248" s="280"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" s="280"/>
+      <c r="D249" s="280"/>
+      <c r="E249" s="280"/>
+      <c r="F249" s="279"/>
+      <c r="G249" s="280"/>
+      <c r="H249" s="280"/>
+    </row>
+    <row r="250" spans="1:8" ht="15.75">
+      <c r="A250" s="296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="290"/>
+      <c r="C250" s="296"/>
+      <c r="D250" s="296"/>
+      <c r="E250" s="296"/>
+      <c r="F250" s="279"/>
+      <c r="G250" s="296"/>
+      <c r="H250" s="296"/>
+    </row>
+    <row r="251" spans="1:8" ht="15.75">
+      <c r="A251" s="296" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" s="296" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="296" t="s">
+        <v>4</v>
+      </c>
+      <c r="E251" s="296" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" s="297" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="296" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" s="296" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="281" t="s">
+        <v>141</v>
+      </c>
+      <c r="B252" s="278">
         <v>1</v>
       </c>
-      <c r="C248" s="257" t="str">
-        <f>ev391apos!C262</f>
-        <v>eol</v>
-      </c>
-      <c r="D248" s="257" t="str">
-        <f>ev391apos!D262</f>
-        <v>GLO</v>
-      </c>
-      <c r="E248" s="257" t="str">
-        <f>ev391apos!E262</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F248" s="257"/>
-      <c r="G248" s="257" t="str">
-        <f>ev391apos!G262</f>
-        <v>production</v>
-      </c>
-      <c r="H248" s="286" t="str">
+      <c r="C252" s="281" t="s">
+        <v>165</v>
+      </c>
+      <c r="D252" s="281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" s="281" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" s="279"/>
+      <c r="G252" s="280" t="s">
+        <v>22</v>
+      </c>
+      <c r="H252" s="281" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="257" t="str">
-        <f>ev391apos!A263</f>
-        <v>treatment of hazardous waste, hazardous waste incineration</v>
-      </c>
-      <c r="B249" s="257">
-        <f>ev391apos!B263</f>
-        <v>4.1554130910640599E-2</v>
-      </c>
-      <c r="C249" s="257" t="str">
-        <f>ev391apos!C263</f>
-        <v>hazardous waste, for incineration</v>
-      </c>
-      <c r="D249" s="257" t="str">
-        <f>ev391apos!D263</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="E249" s="257" t="str">
-        <f>ev391apos!E263</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F249" s="257"/>
-      <c r="G249" s="257" t="str">
-        <f>ev391apos!G263</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H249" s="257" t="s">
+    <row r="253" spans="1:8">
+      <c r="A253" s="281" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" s="282">
+        <v>1</v>
+      </c>
+      <c r="C253" s="281" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="281" t="s">
+        <v>6</v>
+      </c>
+      <c r="F253" s="279"/>
+      <c r="G253" s="280" t="s">
+        <v>23</v>
+      </c>
+      <c r="H253" s="281" t="str">
+        <f t="shared" si="2"/>
+        <v>case2_consq</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="288" t="s">
+        <v>143</v>
+      </c>
+      <c r="B254" s="282">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="C254" s="288" t="s">
+        <v>143</v>
+      </c>
+      <c r="D254" s="279" t="s">
+        <v>119</v>
+      </c>
+      <c r="E254" s="279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="279"/>
+      <c r="G254" s="280" t="s">
+        <v>23</v>
+      </c>
+      <c r="H254" s="281" t="str">
+        <f t="shared" si="2"/>
+        <v>case2_consq</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="281" t="s">
+        <v>134</v>
+      </c>
+      <c r="B255" s="282">
+        <v>-7.2700000000000004E-3</v>
+      </c>
+      <c r="C255" s="281" t="s">
+        <v>134</v>
+      </c>
+      <c r="D255" s="279" t="s">
+        <v>119</v>
+      </c>
+      <c r="E255" s="279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="279"/>
+      <c r="G255" s="280" t="s">
+        <v>23</v>
+      </c>
+      <c r="H255" s="281" t="str">
+        <f t="shared" si="2"/>
+        <v>case2_consq</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="281" t="s">
+        <v>110</v>
+      </c>
+      <c r="B256" s="282">
+        <v>-0.14709144573749999</v>
+      </c>
+      <c r="C256" s="280" t="s">
+        <v>111</v>
+      </c>
+      <c r="D256" s="279" t="s">
+        <v>95</v>
+      </c>
+      <c r="E256" s="279" t="s">
+        <v>17</v>
+      </c>
+      <c r="F256" s="279"/>
+      <c r="G256" s="280" t="s">
+        <v>23</v>
+      </c>
+      <c r="H256" s="280" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="257" t="str">
-        <f>ev391apos!A264</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B250" s="257">
-        <f>ev391apos!B264</f>
-        <v>0.52743927745681096</v>
-      </c>
-      <c r="C250" s="257" t="str">
-        <f>ev391apos!C264</f>
-        <v>waste polyethylene</v>
-      </c>
-      <c r="D250" s="257" t="str">
-        <f>ev391apos!D264</f>
-        <v>CH</v>
-      </c>
-      <c r="E250" s="257" t="str">
-        <f>ev391apos!E264</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F250" s="257"/>
-      <c r="G250" s="257" t="str">
-        <f>ev391apos!G264</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H250" s="257" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="257" t="str">
-        <f>ev391apos!A265</f>
-        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B251" s="257">
-        <f>ev391apos!B265</f>
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C251" s="257" t="str">
-        <f>ev391apos!C265</f>
-        <v>waste plastic, mixture</v>
-      </c>
-      <c r="D251" s="257" t="str">
-        <f>ev391apos!D265</f>
-        <v>CH</v>
-      </c>
-      <c r="E251" s="257" t="str">
-        <f>ev391apos!E265</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F251" s="257"/>
-      <c r="G251" s="257" t="str">
-        <f>ev391apos!G265</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H251" s="257" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="257" t="s">
-        <v>155</v>
-      </c>
-      <c r="B252" s="257">
-        <f>(-1.5428*B250)+(-1.0929*B251)</f>
-        <v>-0.98786926374224748</v>
-      </c>
-      <c r="C252" s="257" t="s">
-        <v>154</v>
-      </c>
-      <c r="D252" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="E252" s="257" t="s">
-        <v>17</v>
-      </c>
-      <c r="F252" s="257"/>
-      <c r="G252" s="257" t="s">
+    <row r="257" spans="1:8">
+      <c r="A257" s="281" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" s="282">
+        <v>-2.6476460232750001</v>
+      </c>
+      <c r="C257" s="280" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257" s="279" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="279" t="s">
+        <v>18</v>
+      </c>
+      <c r="F257" s="279"/>
+      <c r="G257" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="H252" s="257" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="257" t="s">
-        <v>157</v>
-      </c>
-      <c r="B253" s="257">
-        <f>(-10.694*B250)+(-7.6601*B251)</f>
-        <v>-6.8609487300632459</v>
-      </c>
-      <c r="C253" s="257" t="s">
-        <v>156</v>
-      </c>
-      <c r="D253" s="257" t="s">
-        <v>120</v>
-      </c>
-      <c r="E253" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="F253" s="257"/>
-      <c r="G253" s="257" t="s">
-        <v>23</v>
-      </c>
-      <c r="H253" s="257" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.75">
-      <c r="A255" s="289" t="s">
-        <v>1</v>
-      </c>
-      <c r="B255" s="290" t="s">
-        <v>142</v>
-      </c>
-      <c r="C255" s="280"/>
-      <c r="D255" s="291"/>
-      <c r="E255" s="280"/>
-      <c r="F255" s="279"/>
-      <c r="G255" s="280"/>
-      <c r="H255" s="280"/>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="292" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" s="293">
-        <v>1</v>
-      </c>
-      <c r="C256" s="280"/>
-      <c r="D256" s="280"/>
-      <c r="E256" s="280"/>
-      <c r="F256" s="279"/>
-      <c r="G256" s="280"/>
-      <c r="H256" s="280"/>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="B257" s="294" t="s">
-        <v>168</v>
-      </c>
-      <c r="C257" s="280"/>
-      <c r="D257" s="280"/>
-      <c r="E257" s="280"/>
-      <c r="F257" s="279"/>
-      <c r="G257" s="280"/>
-      <c r="H257" s="280"/>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="292" t="s">
-        <v>4</v>
-      </c>
-      <c r="B258" s="295" t="s">
-        <v>5</v>
-      </c>
-      <c r="C258" s="280"/>
-      <c r="D258" s="280"/>
-      <c r="E258" s="280"/>
-      <c r="F258" s="279"/>
-      <c r="G258" s="280"/>
-      <c r="H258" s="280"/>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="292" t="s">
-        <v>6</v>
-      </c>
-      <c r="B259" s="281" t="s">
-        <v>6</v>
-      </c>
-      <c r="C259" s="280"/>
-      <c r="D259" s="280"/>
-      <c r="E259" s="280"/>
-      <c r="F259" s="279"/>
-      <c r="G259" s="280"/>
-      <c r="H259" s="280"/>
-    </row>
-    <row r="260" spans="1:8" ht="15.75">
-      <c r="A260" s="296" t="s">
-        <v>7</v>
-      </c>
-      <c r="B260" s="290"/>
-      <c r="C260" s="296"/>
-      <c r="D260" s="296"/>
-      <c r="E260" s="296"/>
-      <c r="F260" s="279"/>
-      <c r="G260" s="296"/>
-      <c r="H260" s="296"/>
-    </row>
-    <row r="261" spans="1:8" ht="15.75">
-      <c r="A261" s="296" t="s">
-        <v>8</v>
-      </c>
-      <c r="B261" s="296" t="s">
-        <v>9</v>
-      </c>
-      <c r="C261" s="296" t="s">
-        <v>3</v>
-      </c>
-      <c r="D261" s="296" t="s">
-        <v>4</v>
-      </c>
-      <c r="E261" s="296" t="s">
-        <v>6</v>
-      </c>
-      <c r="F261" s="297" t="s">
-        <v>10</v>
-      </c>
-      <c r="G261" s="296" t="s">
-        <v>11</v>
-      </c>
-      <c r="H261" s="296" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="281" t="s">
-        <v>142</v>
-      </c>
-      <c r="B262" s="278">
-        <v>1</v>
-      </c>
-      <c r="C262" s="281" t="s">
-        <v>168</v>
-      </c>
-      <c r="D262" s="281" t="s">
-        <v>5</v>
-      </c>
-      <c r="E262" s="281" t="s">
-        <v>6</v>
-      </c>
-      <c r="F262" s="279"/>
-      <c r="G262" s="280" t="s">
-        <v>22</v>
-      </c>
-      <c r="H262" s="281" t="str">
+      <c r="H257" s="281" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="281" t="s">
+        <v>144</v>
+      </c>
+      <c r="B258" s="282">
+        <v>-3.16E-3</v>
+      </c>
+      <c r="C258" s="280" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="279" t="s">
+        <v>166</v>
+      </c>
+      <c r="E258" s="279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" s="279"/>
+      <c r="G258" s="280" t="s">
+        <v>23</v>
+      </c>
+      <c r="H258" s="280" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="15.75">
+      <c r="A260" s="298" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" s="299" t="s">
+        <v>34</v>
+      </c>
+      <c r="C260" s="300"/>
+      <c r="D260" s="301"/>
+      <c r="E260" s="300"/>
+      <c r="F260" s="300"/>
+      <c r="G260" s="300"/>
+      <c r="H260" s="300"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="302" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="303">
+        <v>1</v>
+      </c>
+      <c r="C261" s="300"/>
+      <c r="D261" s="300"/>
+      <c r="E261" s="300"/>
+      <c r="F261" s="300"/>
+      <c r="G261" s="300"/>
+      <c r="H261" s="300"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="302" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262" s="304" t="s">
+        <v>34</v>
+      </c>
+      <c r="C262" s="300"/>
+      <c r="D262" s="300"/>
+      <c r="E262" s="300"/>
+      <c r="F262" s="300"/>
+      <c r="G262" s="300"/>
+      <c r="H262" s="300"/>
+    </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="281" t="s">
-        <v>35</v>
-      </c>
-      <c r="B263" s="282">
+      <c r="A263" s="302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" s="300"/>
+      <c r="D263" s="300"/>
+      <c r="E263" s="300"/>
+      <c r="F263" s="300"/>
+      <c r="G263" s="300"/>
+      <c r="H263" s="300"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="302" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" s="306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="300"/>
+      <c r="D264" s="300"/>
+      <c r="E264" s="300"/>
+      <c r="F264" s="300"/>
+      <c r="G264" s="300"/>
+      <c r="H264" s="300"/>
+    </row>
+    <row r="265" spans="1:8" ht="15.75">
+      <c r="A265" s="307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="299"/>
+      <c r="C265" s="307"/>
+      <c r="D265" s="307"/>
+      <c r="E265" s="307"/>
+      <c r="F265" s="307"/>
+      <c r="G265" s="307"/>
+      <c r="H265" s="307"/>
+    </row>
+    <row r="266" spans="1:8" ht="15.75">
+      <c r="A266" s="307" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" s="307" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266" s="307" t="s">
+        <v>4</v>
+      </c>
+      <c r="E266" s="307" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" s="307" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="307" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" s="307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="306" t="s">
+        <v>34</v>
+      </c>
+      <c r="B267" s="308">
         <v>1</v>
       </c>
-      <c r="C263" s="281" t="s">
-        <v>35</v>
-      </c>
-      <c r="D263" s="281" t="s">
+      <c r="C267" s="306" t="s">
+        <v>34</v>
+      </c>
+      <c r="D267" s="306" t="s">
         <v>5</v>
       </c>
-      <c r="E263" s="281" t="s">
+      <c r="E267" s="306" t="s">
         <v>6</v>
       </c>
-      <c r="F263" s="279"/>
-      <c r="G263" s="280" t="s">
-        <v>23</v>
-      </c>
-      <c r="H263" s="281" t="str">
-        <f t="shared" si="2"/>
-        <v>case2_consq</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="288" t="s">
-        <v>144</v>
-      </c>
-      <c r="B264" s="282">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="C264" s="288" t="s">
-        <v>144</v>
-      </c>
-      <c r="D264" s="279" t="s">
-        <v>120</v>
-      </c>
-      <c r="E264" s="279" t="s">
-        <v>19</v>
-      </c>
-      <c r="F264" s="279"/>
-      <c r="G264" s="280" t="s">
-        <v>23</v>
-      </c>
-      <c r="H264" s="281" t="str">
-        <f t="shared" si="2"/>
-        <v>case2_consq</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="281" t="s">
-        <v>135</v>
-      </c>
-      <c r="B265" s="282">
-        <v>-7.2700000000000004E-3</v>
-      </c>
-      <c r="C265" s="281" t="s">
-        <v>135</v>
-      </c>
-      <c r="D265" s="279" t="s">
-        <v>120</v>
-      </c>
-      <c r="E265" s="279" t="s">
-        <v>19</v>
-      </c>
-      <c r="F265" s="279"/>
-      <c r="G265" s="280" t="s">
-        <v>23</v>
-      </c>
-      <c r="H265" s="281" t="str">
-        <f t="shared" si="2"/>
-        <v>case2_consq</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="281" t="s">
-        <v>111</v>
-      </c>
-      <c r="B266" s="282">
-        <v>-0.14709144573749999</v>
-      </c>
-      <c r="C266" s="280" t="s">
-        <v>112</v>
-      </c>
-      <c r="D266" s="279" t="s">
-        <v>96</v>
-      </c>
-      <c r="E266" s="279" t="s">
-        <v>17</v>
-      </c>
-      <c r="F266" s="279"/>
-      <c r="G266" s="280" t="s">
-        <v>23</v>
-      </c>
-      <c r="H266" s="280" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="281" t="s">
-        <v>33</v>
-      </c>
-      <c r="B267" s="282">
-        <v>-2.6476460232750001</v>
-      </c>
-      <c r="C267" s="280" t="s">
-        <v>33</v>
-      </c>
-      <c r="D267" s="279" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" s="279" t="s">
-        <v>18</v>
-      </c>
-      <c r="F267" s="279"/>
-      <c r="G267" s="280" t="s">
-        <v>23</v>
-      </c>
-      <c r="H267" s="281" t="str">
+      <c r="F267" s="306"/>
+      <c r="G267" s="300" t="s">
+        <v>22</v>
+      </c>
+      <c r="H267" s="306" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="281" t="s">
+      <c r="A268" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B268" s="282">
-        <v>-3.16E-3</v>
-      </c>
-      <c r="C268" s="280" t="s">
-        <v>15</v>
-      </c>
-      <c r="D268" s="279" t="s">
-        <v>169</v>
-      </c>
-      <c r="E268" s="279" t="s">
+      <c r="B268" s="300">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C268" s="300" t="s">
+        <v>146</v>
+      </c>
+      <c r="D268" s="300" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="F268" s="279"/>
-      <c r="G268" s="280" t="s">
+      <c r="F268" s="300"/>
+      <c r="G268" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="H268" s="280" t="s">
+      <c r="H268" s="300" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.75">
-      <c r="A270" s="298" t="s">
+    <row r="269" spans="1:8">
+      <c r="A269" s="300" t="s">
+        <v>145</v>
+      </c>
+      <c r="B269" s="300">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C269" s="300" t="s">
+        <v>146</v>
+      </c>
+      <c r="D269" s="300" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269" s="300"/>
+      <c r="G269" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H269" s="300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="300" t="s">
+        <v>147</v>
+      </c>
+      <c r="B270" s="300">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="C270" s="300" t="s">
+        <v>61</v>
+      </c>
+      <c r="D270" s="300" t="s">
+        <v>44</v>
+      </c>
+      <c r="E270" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270" s="300"/>
+      <c r="G270" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H270" s="300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="300" t="s">
+        <v>63</v>
+      </c>
+      <c r="B271" s="300">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C271" s="300" t="s">
+        <v>60</v>
+      </c>
+      <c r="D271" s="300" t="s">
+        <v>44</v>
+      </c>
+      <c r="E271" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271" s="300"/>
+      <c r="G271" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H271" s="300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="300" t="s">
+        <v>109</v>
+      </c>
+      <c r="B272" s="300">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C272" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D272" s="300" t="s">
+        <v>44</v>
+      </c>
+      <c r="E272" s="300" t="s">
+        <v>16</v>
+      </c>
+      <c r="F272" s="300"/>
+      <c r="G272" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H272" s="300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="300" t="s">
+        <v>148</v>
+      </c>
+      <c r="B273" s="300">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="C273" s="300" t="s">
+        <v>149</v>
+      </c>
+      <c r="D273" s="300" t="s">
+        <v>150</v>
+      </c>
+      <c r="E273" s="300" t="s">
+        <v>16</v>
+      </c>
+      <c r="F273" s="300"/>
+      <c r="G273" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H273" s="300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="300" t="s">
+        <v>151</v>
+      </c>
+      <c r="B274" s="300">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="C274" s="300" t="s">
+        <v>152</v>
+      </c>
+      <c r="D274" s="300" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="300" t="s">
+        <v>16</v>
+      </c>
+      <c r="F274" s="300"/>
+      <c r="G274" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H274" s="300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="300" t="s">
+        <v>109</v>
+      </c>
+      <c r="B275" s="300">
+        <v>4.1300000000000001E-5</v>
+      </c>
+      <c r="C275" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="D275" s="300" t="s">
+        <v>44</v>
+      </c>
+      <c r="E275" s="300" t="s">
+        <v>16</v>
+      </c>
+      <c r="F275" s="300"/>
+      <c r="G275" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="H275" s="300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="15.75">
+      <c r="A277" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="B270" s="299" t="s">
-        <v>35</v>
-      </c>
-      <c r="C270" s="300"/>
-      <c r="D270" s="301"/>
-      <c r="E270" s="300"/>
-      <c r="F270" s="300"/>
-      <c r="G270" s="300"/>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="302" t="s">
+      <c r="B277" s="310" t="s">
+        <v>134</v>
+      </c>
+      <c r="C277" s="311"/>
+      <c r="D277" s="312"/>
+      <c r="E277" s="311"/>
+      <c r="F277" s="313"/>
+      <c r="G277" s="311"/>
+      <c r="H277" s="311"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="B271" s="303">
+      <c r="B278" s="315">
         <v>1</v>
       </c>
-      <c r="C271" s="300"/>
-      <c r="D271" s="300"/>
-      <c r="E271" s="300"/>
-      <c r="F271" s="300"/>
-      <c r="G271" s="300"/>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="302" t="s">
+      <c r="C278" s="311"/>
+      <c r="D278" s="311"/>
+      <c r="E278" s="311"/>
+      <c r="F278" s="313"/>
+      <c r="G278" s="311"/>
+      <c r="H278" s="311"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="304" t="s">
-        <v>35</v>
-      </c>
-      <c r="C272" s="300"/>
-      <c r="D272" s="300"/>
-      <c r="E272" s="300"/>
-      <c r="F272" s="300"/>
-      <c r="G272" s="300"/>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="302" t="s">
+      <c r="B279" s="316" t="s">
+        <v>134</v>
+      </c>
+      <c r="C279" s="311"/>
+      <c r="D279" s="311"/>
+      <c r="E279" s="311"/>
+      <c r="F279" s="313"/>
+      <c r="G279" s="311"/>
+      <c r="H279" s="311"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="B273" s="305" t="s">
-        <v>5</v>
-      </c>
-      <c r="C273" s="300"/>
-      <c r="D273" s="300"/>
-      <c r="E273" s="300"/>
-      <c r="F273" s="300"/>
-      <c r="G273" s="300"/>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="302" t="s">
+      <c r="B280" s="317" t="s">
+        <v>119</v>
+      </c>
+      <c r="C280" s="311"/>
+      <c r="D280" s="311"/>
+      <c r="E280" s="311"/>
+      <c r="F280" s="313"/>
+      <c r="G280" s="311"/>
+      <c r="H280" s="311"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="B274" s="306" t="s">
+      <c r="B281" s="318" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" s="311"/>
+      <c r="D281" s="311"/>
+      <c r="E281" s="311"/>
+      <c r="F281" s="313"/>
+      <c r="G281" s="311"/>
+      <c r="H281" s="311"/>
+    </row>
+    <row r="282" spans="1:8" ht="15.75">
+      <c r="A282" s="319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282" s="320"/>
+      <c r="C282" s="319"/>
+      <c r="D282" s="319"/>
+      <c r="E282" s="319"/>
+      <c r="F282" s="313"/>
+      <c r="G282" s="319"/>
+      <c r="H282" s="319"/>
+    </row>
+    <row r="283" spans="1:8" ht="15.75">
+      <c r="A283" s="319" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="319" t="s">
+        <v>3</v>
+      </c>
+      <c r="D283" s="319" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="C274" s="300"/>
-      <c r="D274" s="300"/>
-      <c r="E274" s="300"/>
-      <c r="F274" s="300"/>
-      <c r="G274" s="300"/>
-    </row>
-    <row r="275" spans="1:8" ht="15.75">
-      <c r="A275" s="307" t="s">
-        <v>7</v>
-      </c>
-      <c r="B275" s="299"/>
-      <c r="C275" s="307"/>
-      <c r="D275" s="307"/>
-      <c r="E275" s="307"/>
-      <c r="F275" s="307"/>
-      <c r="G275" s="307"/>
-    </row>
-    <row r="276" spans="1:8" ht="15.75">
-      <c r="A276" s="307" t="s">
-        <v>8</v>
-      </c>
-      <c r="B276" s="307" t="s">
-        <v>9</v>
-      </c>
-      <c r="C276" s="307" t="s">
-        <v>3</v>
-      </c>
-      <c r="D276" s="307" t="s">
-        <v>4</v>
-      </c>
-      <c r="E276" s="307" t="s">
-        <v>6</v>
-      </c>
-      <c r="F276" s="307" t="s">
+      <c r="F283" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="319" t="s">
         <v>11</v>
       </c>
-      <c r="G276" s="307" t="s">
+      <c r="H283" s="319" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="306" t="s">
-        <v>35</v>
-      </c>
-      <c r="B277" s="308">
+    <row r="284" spans="1:8">
+      <c r="A284" s="318" t="str">
+        <f>B277</f>
+        <v>waste polyethylene</v>
+      </c>
+      <c r="B284" s="322">
+        <f>B278</f>
         <v>1</v>
       </c>
-      <c r="C277" s="306" t="s">
-        <v>35</v>
-      </c>
-      <c r="D277" s="306" t="s">
-        <v>5</v>
-      </c>
-      <c r="E277" s="306" t="s">
-        <v>6</v>
-      </c>
-      <c r="F277" s="300" t="s">
+      <c r="C284" s="318" t="str">
+        <f>B279</f>
+        <v>waste polyethylene</v>
+      </c>
+      <c r="D284" s="318" t="str">
+        <f>B280</f>
+        <v>CH</v>
+      </c>
+      <c r="E284" s="318" t="str">
+        <f>B281</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F284" s="313"/>
+      <c r="G284" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="G277" s="306" t="str">
+      <c r="H284" s="318" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="300" t="s">
-        <v>146</v>
-      </c>
-      <c r="B278" s="300">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C278" s="300" t="s">
-        <v>147</v>
-      </c>
-      <c r="D278" s="300" t="s">
-        <v>5</v>
-      </c>
-      <c r="E278" s="300" t="s">
+    <row r="285" spans="1:8">
+      <c r="A285" s="323" t="s">
+        <v>138</v>
+      </c>
+      <c r="B285" s="324">
+        <v>1</v>
+      </c>
+      <c r="C285" s="325" t="s">
+        <v>134</v>
+      </c>
+      <c r="D285" s="326" t="s">
+        <v>119</v>
+      </c>
+      <c r="E285" s="326" t="s">
         <v>19</v>
       </c>
-      <c r="F278" s="300" t="s">
+      <c r="F285" s="326"/>
+      <c r="G285" s="325" t="s">
         <v>23</v>
       </c>
-      <c r="G278" s="300" t="s">
+      <c r="H285" s="325" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="300" t="s">
-        <v>146</v>
-      </c>
-      <c r="B279" s="300">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C279" s="300" t="s">
-        <v>147</v>
-      </c>
-      <c r="D279" s="300" t="s">
-        <v>5</v>
-      </c>
-      <c r="E279" s="300" t="s">
+    <row r="286" spans="1:8">
+      <c r="A286" s="313" t="s">
+        <v>154</v>
+      </c>
+      <c r="B286" s="313">
+        <v>-1.5427999999999999</v>
+      </c>
+      <c r="C286" s="313" t="s">
+        <v>153</v>
+      </c>
+      <c r="D286" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="E286" s="313" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286" s="313"/>
+      <c r="G286" s="313" t="s">
+        <v>23</v>
+      </c>
+      <c r="H286" s="313" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="313" t="s">
+        <v>156</v>
+      </c>
+      <c r="B287" s="313">
+        <v>-10.694000000000001</v>
+      </c>
+      <c r="C287" s="313" t="s">
+        <v>155</v>
+      </c>
+      <c r="D287" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="E287" s="313" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" s="313"/>
+      <c r="G287" s="313" t="s">
+        <v>23</v>
+      </c>
+      <c r="H287" s="313" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288"/>
+      <c r="B288"/>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288"/>
+      <c r="G288"/>
+      <c r="H288"/>
+    </row>
+    <row r="289" spans="1:8" ht="15.75">
+      <c r="A289" s="327" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" s="328" t="s">
+        <v>143</v>
+      </c>
+      <c r="C289" s="329"/>
+      <c r="D289" s="330"/>
+      <c r="E289" s="329"/>
+      <c r="F289" s="331"/>
+      <c r="G289" s="329"/>
+      <c r="H289" s="329"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="332" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290" s="333">
+        <v>1</v>
+      </c>
+      <c r="C290" s="329"/>
+      <c r="D290" s="329"/>
+      <c r="E290" s="329"/>
+      <c r="F290" s="331"/>
+      <c r="G290" s="329"/>
+      <c r="H290" s="329"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="332" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291" s="334" t="s">
+        <v>143</v>
+      </c>
+      <c r="C291" s="329"/>
+      <c r="D291" s="329"/>
+      <c r="E291" s="329"/>
+      <c r="F291" s="331"/>
+      <c r="G291" s="329"/>
+      <c r="H291" s="329"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292" s="335" t="s">
+        <v>119</v>
+      </c>
+      <c r="C292" s="329"/>
+      <c r="D292" s="329"/>
+      <c r="E292" s="329"/>
+      <c r="F292" s="331"/>
+      <c r="G292" s="329"/>
+      <c r="H292" s="329"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="332" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="F279" s="300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279" s="300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="300" t="s">
-        <v>148</v>
-      </c>
-      <c r="B280" s="300">
-        <v>7.2700000000000004E-3</v>
-      </c>
-      <c r="C280" s="300" t="s">
-        <v>62</v>
-      </c>
-      <c r="D280" s="300" t="s">
-        <v>45</v>
-      </c>
-      <c r="E280" s="300" t="s">
-        <v>19</v>
-      </c>
-      <c r="F280" s="300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G280" s="300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="300" t="s">
-        <v>64</v>
-      </c>
-      <c r="B281" s="300">
-        <v>2.8E-3</v>
-      </c>
-      <c r="C281" s="300" t="s">
-        <v>61</v>
-      </c>
-      <c r="D281" s="300" t="s">
-        <v>45</v>
-      </c>
-      <c r="E281" s="300" t="s">
-        <v>19</v>
-      </c>
-      <c r="F281" s="300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G281" s="300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="300" t="s">
-        <v>110</v>
-      </c>
-      <c r="B282" s="300">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="C282" s="300" t="s">
-        <v>109</v>
-      </c>
-      <c r="D282" s="300" t="s">
-        <v>45</v>
-      </c>
-      <c r="E282" s="300" t="s">
-        <v>16</v>
-      </c>
-      <c r="F282" s="300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G282" s="300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="300" t="s">
-        <v>149</v>
-      </c>
-      <c r="B283" s="300">
-        <v>1.8100000000000001E-4</v>
-      </c>
-      <c r="C283" s="300" t="s">
-        <v>150</v>
-      </c>
-      <c r="D283" s="300" t="s">
-        <v>151</v>
-      </c>
-      <c r="E283" s="300" t="s">
-        <v>16</v>
-      </c>
-      <c r="F283" s="300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G283" s="300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="300" t="s">
-        <v>152</v>
-      </c>
-      <c r="B284" s="300">
-        <v>3.3300000000000001E-3</v>
-      </c>
-      <c r="C284" s="300" t="s">
-        <v>153</v>
-      </c>
-      <c r="D284" s="300" t="s">
-        <v>5</v>
-      </c>
-      <c r="E284" s="300" t="s">
-        <v>16</v>
-      </c>
-      <c r="F284" s="300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G284" s="300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="300" t="s">
-        <v>110</v>
-      </c>
-      <c r="B285" s="300">
-        <v>4.1300000000000001E-5</v>
-      </c>
-      <c r="C285" s="300" t="s">
-        <v>109</v>
-      </c>
-      <c r="D285" s="300" t="s">
-        <v>45</v>
-      </c>
-      <c r="E285" s="300" t="s">
-        <v>16</v>
-      </c>
-      <c r="F285" s="300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G285" s="300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="15.75">
-      <c r="A287" s="309" t="s">
+      <c r="C293" s="329"/>
+      <c r="D293" s="329"/>
+      <c r="E293" s="329"/>
+      <c r="F293" s="331"/>
+      <c r="G293" s="329"/>
+      <c r="H293" s="329"/>
+    </row>
+    <row r="294" spans="1:8" ht="15.75">
+      <c r="A294" s="337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="338"/>
+      <c r="C294" s="337"/>
+      <c r="D294" s="337"/>
+      <c r="E294" s="337"/>
+      <c r="F294" s="331"/>
+      <c r="G294" s="337"/>
+      <c r="H294" s="337"/>
+    </row>
+    <row r="295" spans="1:8" ht="15.75">
+      <c r="A295" s="337" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="337" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="337" t="s">
+        <v>3</v>
+      </c>
+      <c r="D295" s="337" t="s">
+        <v>4</v>
+      </c>
+      <c r="E295" s="337" t="s">
+        <v>6</v>
+      </c>
+      <c r="F295" s="339" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="337" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" s="337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="336" t="str">
+        <f>B289</f>
+        <v>waste polypropylene</v>
+      </c>
+      <c r="B296" s="340">
+        <f>B290</f>
         <v>1</v>
       </c>
-      <c r="B287" s="310" t="s">
-        <v>135</v>
-      </c>
-      <c r="C287" s="311"/>
-      <c r="D287" s="312"/>
-      <c r="E287" s="311"/>
-      <c r="F287" s="313"/>
-      <c r="G287" s="311"/>
-      <c r="H287" s="311"/>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="314" t="s">
-        <v>2</v>
-      </c>
-      <c r="B288" s="315">
-        <v>1</v>
-      </c>
-      <c r="C288" s="311"/>
-      <c r="D288" s="311"/>
-      <c r="E288" s="311"/>
-      <c r="F288" s="313"/>
-      <c r="G288" s="311"/>
-      <c r="H288" s="311"/>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" s="314" t="s">
-        <v>3</v>
-      </c>
-      <c r="B289" s="316" t="s">
-        <v>135</v>
-      </c>
-      <c r="C289" s="311"/>
-      <c r="D289" s="311"/>
-      <c r="E289" s="311"/>
-      <c r="F289" s="313"/>
-      <c r="G289" s="311"/>
-      <c r="H289" s="311"/>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="314" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" s="317" t="s">
-        <v>120</v>
-      </c>
-      <c r="C290" s="311"/>
-      <c r="D290" s="311"/>
-      <c r="E290" s="311"/>
-      <c r="F290" s="313"/>
-      <c r="G290" s="311"/>
-      <c r="H290" s="311"/>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="314" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" s="318" t="s">
-        <v>19</v>
-      </c>
-      <c r="C291" s="311"/>
-      <c r="D291" s="311"/>
-      <c r="E291" s="311"/>
-      <c r="F291" s="313"/>
-      <c r="G291" s="311"/>
-      <c r="H291" s="311"/>
-    </row>
-    <row r="292" spans="1:8" ht="15.75">
-      <c r="A292" s="319" t="s">
-        <v>7</v>
-      </c>
-      <c r="B292" s="320"/>
-      <c r="C292" s="319"/>
-      <c r="D292" s="319"/>
-      <c r="E292" s="319"/>
-      <c r="F292" s="313"/>
-      <c r="G292" s="319"/>
-      <c r="H292" s="319"/>
-    </row>
-    <row r="293" spans="1:8" ht="15.75">
-      <c r="A293" s="319" t="s">
-        <v>8</v>
-      </c>
-      <c r="B293" s="319" t="s">
-        <v>9</v>
-      </c>
-      <c r="C293" s="319" t="s">
-        <v>3</v>
-      </c>
-      <c r="D293" s="319" t="s">
-        <v>4</v>
-      </c>
-      <c r="E293" s="319" t="s">
-        <v>6</v>
-      </c>
-      <c r="F293" s="321" t="s">
-        <v>10</v>
-      </c>
-      <c r="G293" s="319" t="s">
-        <v>11</v>
-      </c>
-      <c r="H293" s="319" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" s="318" t="str">
-        <f>B287</f>
-        <v>waste polyethylene</v>
-      </c>
-      <c r="B294" s="322">
-        <f>B288</f>
-        <v>1</v>
-      </c>
-      <c r="C294" s="318" t="str">
-        <f>B289</f>
-        <v>waste polyethylene</v>
-      </c>
-      <c r="D294" s="318" t="str">
-        <f>B290</f>
+      <c r="C296" s="336" t="str">
+        <f>B291</f>
+        <v>waste polypropylene</v>
+      </c>
+      <c r="D296" s="336" t="str">
+        <f>B292</f>
         <v>CH</v>
       </c>
-      <c r="E294" s="318" t="str">
-        <f>B291</f>
+      <c r="E296" s="336" t="str">
+        <f>B293</f>
         <v>kilogram</v>
       </c>
-      <c r="F294" s="313"/>
-      <c r="G294" s="311" t="s">
+      <c r="F296" s="331"/>
+      <c r="G296" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="H294" s="318" t="str">
+      <c r="H296" s="336" t="str">
         <f>$B$1</f>
         <v>case2_consq</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
-      <c r="A295" s="323" t="s">
-        <v>139</v>
-      </c>
-      <c r="B295" s="324">
+    <row r="297" spans="1:8">
+      <c r="A297" s="341" t="s">
+        <v>142</v>
+      </c>
+      <c r="B297" s="342">
         <v>1</v>
       </c>
-      <c r="C295" s="325" t="s">
-        <v>135</v>
-      </c>
-      <c r="D295" s="326" t="s">
-        <v>120</v>
-      </c>
-      <c r="E295" s="326" t="s">
+      <c r="C297" s="343" t="s">
+        <v>143</v>
+      </c>
+      <c r="D297" s="344" t="s">
+        <v>119</v>
+      </c>
+      <c r="E297" s="344" t="s">
         <v>19</v>
       </c>
-      <c r="F295" s="326"/>
-      <c r="G295" s="325" t="s">
+      <c r="F297" s="344"/>
+      <c r="G297" s="343" t="s">
         <v>23</v>
       </c>
-      <c r="H295" s="325" t="s">
+      <c r="H297" s="343" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
-      <c r="A296" s="313" t="s">
+    <row r="298" spans="1:8">
+      <c r="A298" s="331" t="s">
+        <v>154</v>
+      </c>
+      <c r="B298" s="331">
+        <v>-1.1687000000000001</v>
+      </c>
+      <c r="C298" s="331" t="s">
+        <v>153</v>
+      </c>
+      <c r="D298" s="331" t="s">
+        <v>119</v>
+      </c>
+      <c r="E298" s="331" t="s">
+        <v>17</v>
+      </c>
+      <c r="F298" s="331"/>
+      <c r="G298" s="331" t="s">
+        <v>23</v>
+      </c>
+      <c r="H298" s="331" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="331" t="s">
+        <v>156</v>
+      </c>
+      <c r="B299" s="331">
+        <v>-8.1515000000000004</v>
+      </c>
+      <c r="C299" s="331" t="s">
         <v>155</v>
       </c>
-      <c r="B296" s="313">
-        <v>-1.5427999999999999</v>
-      </c>
-      <c r="C296" s="313" t="s">
-        <v>154</v>
-      </c>
-      <c r="D296" s="313" t="s">
-        <v>120</v>
-      </c>
-      <c r="E296" s="313" t="s">
-        <v>17</v>
-      </c>
-      <c r="F296" s="313"/>
-      <c r="G296" s="313" t="s">
+      <c r="D299" s="331" t="s">
+        <v>119</v>
+      </c>
+      <c r="E299" s="331" t="s">
+        <v>18</v>
+      </c>
+      <c r="F299" s="331"/>
+      <c r="G299" s="331" t="s">
         <v>23</v>
       </c>
-      <c r="H296" s="313" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" s="313" t="s">
-        <v>157</v>
-      </c>
-      <c r="B297" s="313">
-        <v>-10.694000000000001</v>
-      </c>
-      <c r="C297" s="313" t="s">
-        <v>156</v>
-      </c>
-      <c r="D297" s="313" t="s">
-        <v>120</v>
-      </c>
-      <c r="E297" s="313" t="s">
-        <v>18</v>
-      </c>
-      <c r="F297" s="313"/>
-      <c r="G297" s="313" t="s">
-        <v>23</v>
-      </c>
-      <c r="H297" s="313" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298"/>
-      <c r="B298"/>
-      <c r="C298"/>
-      <c r="D298"/>
-      <c r="E298"/>
-      <c r="F298"/>
-      <c r="G298"/>
-      <c r="H298"/>
-    </row>
-    <row r="299" spans="1:8" ht="15.75">
-      <c r="A299" s="327" t="s">
-        <v>1</v>
-      </c>
-      <c r="B299" s="328" t="s">
-        <v>144</v>
-      </c>
-      <c r="C299" s="329"/>
-      <c r="D299" s="330"/>
-      <c r="E299" s="329"/>
-      <c r="F299" s="331"/>
-      <c r="G299" s="329"/>
-      <c r="H299" s="329"/>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" s="332" t="s">
-        <v>2</v>
-      </c>
-      <c r="B300" s="333">
-        <v>1</v>
-      </c>
-      <c r="C300" s="329"/>
-      <c r="D300" s="329"/>
-      <c r="E300" s="329"/>
-      <c r="F300" s="331"/>
-      <c r="G300" s="329"/>
-      <c r="H300" s="329"/>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" s="332" t="s">
-        <v>3</v>
-      </c>
-      <c r="B301" s="334" t="s">
-        <v>144</v>
-      </c>
-      <c r="C301" s="329"/>
-      <c r="D301" s="329"/>
-      <c r="E301" s="329"/>
-      <c r="F301" s="331"/>
-      <c r="G301" s="329"/>
-      <c r="H301" s="329"/>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" s="332" t="s">
-        <v>4</v>
-      </c>
-      <c r="B302" s="335" t="s">
-        <v>120</v>
-      </c>
-      <c r="C302" s="329"/>
-      <c r="D302" s="329"/>
-      <c r="E302" s="329"/>
-      <c r="F302" s="331"/>
-      <c r="G302" s="329"/>
-      <c r="H302" s="329"/>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" s="332" t="s">
-        <v>6</v>
-      </c>
-      <c r="B303" s="336" t="s">
-        <v>19</v>
-      </c>
-      <c r="C303" s="329"/>
-      <c r="D303" s="329"/>
-      <c r="E303" s="329"/>
-      <c r="F303" s="331"/>
-      <c r="G303" s="329"/>
-      <c r="H303" s="329"/>
-    </row>
-    <row r="304" spans="1:8" ht="15.75">
-      <c r="A304" s="337" t="s">
-        <v>7</v>
-      </c>
-      <c r="B304" s="338"/>
-      <c r="C304" s="337"/>
-      <c r="D304" s="337"/>
-      <c r="E304" s="337"/>
-      <c r="F304" s="331"/>
-      <c r="G304" s="337"/>
-      <c r="H304" s="337"/>
-    </row>
-    <row r="305" spans="1:8" ht="15.75">
-      <c r="A305" s="337" t="s">
-        <v>8</v>
-      </c>
-      <c r="B305" s="337" t="s">
-        <v>9</v>
-      </c>
-      <c r="C305" s="337" t="s">
-        <v>3</v>
-      </c>
-      <c r="D305" s="337" t="s">
-        <v>4</v>
-      </c>
-      <c r="E305" s="337" t="s">
-        <v>6</v>
-      </c>
-      <c r="F305" s="339" t="s">
-        <v>10</v>
-      </c>
-      <c r="G305" s="337" t="s">
-        <v>11</v>
-      </c>
-      <c r="H305" s="337" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" s="336" t="str">
-        <f>B299</f>
-        <v>waste polypropylene</v>
-      </c>
-      <c r="B306" s="340">
-        <f>B300</f>
-        <v>1</v>
-      </c>
-      <c r="C306" s="336" t="str">
-        <f>B301</f>
-        <v>waste polypropylene</v>
-      </c>
-      <c r="D306" s="336" t="str">
-        <f>B302</f>
-        <v>CH</v>
-      </c>
-      <c r="E306" s="336" t="str">
-        <f>B303</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F306" s="331"/>
-      <c r="G306" s="329" t="s">
-        <v>22</v>
-      </c>
-      <c r="H306" s="336" t="str">
-        <f>$B$1</f>
-        <v>case2_consq</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" s="341" t="s">
-        <v>143</v>
-      </c>
-      <c r="B307" s="342">
-        <v>1</v>
-      </c>
-      <c r="C307" s="343" t="s">
-        <v>144</v>
-      </c>
-      <c r="D307" s="344" t="s">
-        <v>120</v>
-      </c>
-      <c r="E307" s="344" t="s">
-        <v>19</v>
-      </c>
-      <c r="F307" s="344"/>
-      <c r="G307" s="343" t="s">
-        <v>23</v>
-      </c>
-      <c r="H307" s="343" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" s="331" t="s">
-        <v>155</v>
-      </c>
-      <c r="B308" s="331">
-        <v>-1.1687000000000001</v>
-      </c>
-      <c r="C308" s="331" t="s">
-        <v>154</v>
-      </c>
-      <c r="D308" s="331" t="s">
-        <v>120</v>
-      </c>
-      <c r="E308" s="331" t="s">
-        <v>17</v>
-      </c>
-      <c r="F308" s="331"/>
-      <c r="G308" s="331" t="s">
-        <v>23</v>
-      </c>
-      <c r="H308" s="331" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" s="331" t="s">
-        <v>157</v>
-      </c>
-      <c r="B309" s="331">
-        <v>-8.1515000000000004</v>
-      </c>
-      <c r="C309" s="331" t="s">
-        <v>156</v>
-      </c>
-      <c r="D309" s="331" t="s">
-        <v>120</v>
-      </c>
-      <c r="E309" s="331" t="s">
-        <v>18</v>
-      </c>
-      <c r="F309" s="331"/>
-      <c r="G309" s="331" t="s">
-        <v>23</v>
-      </c>
-      <c r="H309" s="331" t="s">
+      <c r="H299" s="331" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13362,10 +13175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCB1CF9-8C18-44A9-91B3-2C5BFD88192B}">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13386,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -13623,32 +13436,31 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="str">
         <f>ev391apos!A14</f>
-        <v>mixed electricity mix</v>
+        <v>market for electricity, high voltage</v>
       </c>
       <c r="B14" s="7">
         <f>ev391apos!B14</f>
         <v>-0.84100660000000005</v>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C14" s="37" t="str">
         <f>ev391apos!C14</f>
-        <v>mixed electricity mix</v>
-      </c>
-      <c r="D14" s="7" t="str">
+        <v>electricity, high voltage</v>
+      </c>
+      <c r="D14" s="37" t="str">
         <f>ev391apos!D14</f>
-        <v>GLO</v>
-      </c>
-      <c r="E14" s="7" t="str">
+        <v>DK</v>
+      </c>
+      <c r="E14" s="37" t="str">
         <f>ev391apos!E14</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="str">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="str">
         <f>ev391apos!G14</f>
         <v>technosphere</v>
       </c>
-      <c r="H14" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>case2_cut_off</v>
+      <c r="H14" s="37" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -13785,7 +13597,7 @@
         <v>-1.4740219797333401E-3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>ev391apos!D19</f>
@@ -14124,9 +13936,8 @@
         <f>ev391apos!G34</f>
         <v>technosphere</v>
       </c>
-      <c r="H34" s="28" t="str">
-        <f>ev391apos!H34</f>
-        <v>case2_apos</v>
+      <c r="H34" s="28" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -14194,7 +14005,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="38" t="str">
         <f>ev391apos!A37</f>
-        <v>mixed electricity mix</v>
+        <v>market for electricity, high voltage</v>
       </c>
       <c r="B37" s="23">
         <f>ev391apos!B37</f>
@@ -14202,11 +14013,11 @@
       </c>
       <c r="C37" s="23" t="str">
         <f>ev391apos!C37</f>
-        <v>mixed electricity mix</v>
+        <v>electricity, high voltage</v>
       </c>
       <c r="D37" s="23" t="str">
         <f>ev391apos!D37</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E37" s="23" t="str">
         <f>ev391apos!E37</f>
@@ -14500,7 +14311,7 @@
         <v>technosphere</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -14530,7 +14341,7 @@
         <v>technosphere</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -14560,7 +14371,7 @@
         <v>technosphere</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
@@ -14748,7 +14559,7 @@
         <v>technosphere</v>
       </c>
       <c r="H62" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -14778,7 +14589,7 @@
         <v>technosphere</v>
       </c>
       <c r="H63" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -14808,7 +14619,7 @@
         <v>technosphere</v>
       </c>
       <c r="H64" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -14838,7 +14649,7 @@
         <v>technosphere</v>
       </c>
       <c r="H65" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -14868,7 +14679,7 @@
         <v>technosphere</v>
       </c>
       <c r="H66" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -14898,7 +14709,7 @@
         <v>technosphere</v>
       </c>
       <c r="H67" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
@@ -15086,7 +14897,7 @@
         <v>technosphere</v>
       </c>
       <c r="H77" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -15116,7 +14927,7 @@
         <v>technosphere</v>
       </c>
       <c r="H78" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -15146,7 +14957,7 @@
         <v>technosphere</v>
       </c>
       <c r="H79" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
@@ -15334,7 +15145,7 @@
         <v>technosphere</v>
       </c>
       <c r="H89" s="83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -15364,7 +15175,7 @@
         <v>technosphere</v>
       </c>
       <c r="H90" s="83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -15394,7 +15205,7 @@
         <v>technosphere</v>
       </c>
       <c r="H91" s="83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -15424,7 +15235,7 @@
         <v>technosphere</v>
       </c>
       <c r="H92" s="83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -15454,7 +15265,7 @@
         <v>technosphere</v>
       </c>
       <c r="H93" s="83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
@@ -15642,7 +15453,7 @@
         <v>technosphere</v>
       </c>
       <c r="H103" s="96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -15672,7 +15483,7 @@
         <v>technosphere</v>
       </c>
       <c r="H104" s="96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
@@ -15860,7 +15671,7 @@
         <v>technosphere</v>
       </c>
       <c r="H114" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -15890,7 +15701,7 @@
         <v>technosphere</v>
       </c>
       <c r="H115" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -15920,7 +15731,7 @@
         <v>technosphere</v>
       </c>
       <c r="H116" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -15950,7 +15761,7 @@
         <v>technosphere</v>
       </c>
       <c r="H117" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -15980,7 +15791,7 @@
         <v>technosphere</v>
       </c>
       <c r="H118" s="109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -16199,7 +16010,7 @@
         <v>technosphere</v>
       </c>
       <c r="H129" s="122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75">
@@ -16387,7 +16198,7 @@
         <v>technosphere</v>
       </c>
       <c r="H139" s="135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -16417,7 +16228,7 @@
         <v>technosphere</v>
       </c>
       <c r="H140" s="135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -16447,7 +16258,7 @@
         <v>technosphere</v>
       </c>
       <c r="H141" s="135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -16734,7 +16545,7 @@
         <v>technosphere</v>
       </c>
       <c r="H154" s="148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -16767,7 +16578,7 @@
         <v>technosphere</v>
       </c>
       <c r="H155" s="148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
@@ -16943,7 +16754,7 @@
         <v>technosphere</v>
       </c>
       <c r="G165" s="171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -16972,7 +16783,7 @@
         <v>technosphere</v>
       </c>
       <c r="G166" s="171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -17001,7 +16812,7 @@
         <v>technosphere</v>
       </c>
       <c r="G167" s="171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -17030,7 +16841,7 @@
         <v>technosphere</v>
       </c>
       <c r="G168" s="171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -17059,7 +16870,7 @@
         <v>technosphere</v>
       </c>
       <c r="G169" s="171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75">
@@ -17247,7 +17058,7 @@
         <v>technosphere</v>
       </c>
       <c r="H179" s="187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -17277,7 +17088,7 @@
         <v>technosphere</v>
       </c>
       <c r="H180" s="187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -17307,7 +17118,7 @@
         <v>technosphere</v>
       </c>
       <c r="H181" s="187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75">
@@ -17495,7 +17306,7 @@
         <v>technosphere</v>
       </c>
       <c r="H191" s="204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
@@ -17683,2083 +17494,1895 @@
         <v>technosphere</v>
       </c>
       <c r="H201" s="218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
-      <c r="A203" s="230" t="str">
-        <f>ev391apos!A203</f>
-        <v>Activity</v>
-      </c>
-      <c r="B203" s="231" t="str">
-        <f>ev391apos!B203</f>
-        <v>mixed electricity mix</v>
-      </c>
-      <c r="C203" s="232"/>
-      <c r="D203" s="233"/>
-      <c r="E203" s="232"/>
-      <c r="F203" s="234"/>
-      <c r="G203" s="232"/>
-      <c r="H203" s="232"/>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="235" t="str">
-        <f>ev391apos!A204</f>
-        <v>production amount</v>
-      </c>
-      <c r="B204" s="236">
-        <f>ev391apos!B204</f>
-        <v>1</v>
-      </c>
-      <c r="C204" s="232"/>
-      <c r="D204" s="232"/>
-      <c r="E204" s="232"/>
-      <c r="F204" s="234"/>
-      <c r="G204" s="232"/>
-      <c r="H204" s="232"/>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="235" t="str">
-        <f>ev391apos!A205</f>
-        <v>reference product</v>
-      </c>
-      <c r="B205" s="237" t="str">
-        <f>ev391apos!B205</f>
-        <v>mixed electricity mix</v>
-      </c>
-      <c r="C205" s="232"/>
-      <c r="D205" s="232"/>
-      <c r="E205" s="232"/>
-      <c r="F205" s="234"/>
-      <c r="G205" s="232"/>
-      <c r="H205" s="232"/>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="235" t="str">
-        <f>ev391apos!A206</f>
-        <v>location</v>
-      </c>
-      <c r="B206" s="238" t="str">
-        <f>ev391apos!B206</f>
-        <v>GLO</v>
-      </c>
-      <c r="C206" s="232"/>
-      <c r="D206" s="232"/>
-      <c r="E206" s="232"/>
-      <c r="F206" s="234"/>
-      <c r="G206" s="232"/>
-      <c r="H206" s="232"/>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="235" t="str">
-        <f>ev391apos!A207</f>
-        <v>unit</v>
-      </c>
-      <c r="B207" s="237" t="str">
-        <f>ev391apos!B207</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="C207" s="232"/>
-      <c r="D207" s="232"/>
-      <c r="E207" s="232"/>
-      <c r="F207" s="234"/>
-      <c r="G207" s="232"/>
-      <c r="H207" s="232"/>
-    </row>
-    <row r="208" spans="1:8" ht="15.75">
-      <c r="A208" s="239" t="str">
-        <f>ev391apos!A208</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B208" s="231"/>
-      <c r="C208" s="239"/>
-      <c r="D208" s="239"/>
-      <c r="E208" s="239"/>
-      <c r="F208" s="234"/>
-      <c r="G208" s="239"/>
-      <c r="H208" s="239"/>
-    </row>
-    <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="239" t="str">
-        <f>ev391apos!A209</f>
-        <v>name</v>
-      </c>
-      <c r="B209" s="239" t="str">
-        <f>ev391apos!B209</f>
-        <v>amount</v>
-      </c>
-      <c r="C209" s="239" t="str">
-        <f>ev391apos!C209</f>
-        <v>reference product</v>
-      </c>
-      <c r="D209" s="239" t="str">
-        <f>ev391apos!D209</f>
-        <v>location</v>
-      </c>
-      <c r="E209" s="239" t="str">
-        <f>ev391apos!E209</f>
-        <v>unit</v>
-      </c>
-      <c r="F209" s="240" t="str">
-        <f>ev391apos!F209</f>
-        <v>categories</v>
-      </c>
-      <c r="G209" s="239" t="str">
-        <f>ev391apos!G209</f>
-        <v>type</v>
-      </c>
-      <c r="H209" s="239" t="str">
-        <f>ev391apos!H209</f>
-        <v>database</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="237" t="str">
-        <f>ev391apos!A210</f>
-        <v>mixed electricity mix</v>
-      </c>
-      <c r="B210" s="241">
-        <f>ev391apos!B210</f>
-        <v>1</v>
-      </c>
-      <c r="C210" s="237" t="str">
-        <f>ev391apos!C210</f>
-        <v>mixed electricity mix</v>
-      </c>
-      <c r="D210" s="237" t="str">
-        <f>ev391apos!D210</f>
-        <v>GLO</v>
-      </c>
-      <c r="E210" s="237" t="str">
-        <f>ev391apos!E210</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="F210" s="234"/>
-      <c r="G210" s="232" t="str">
-        <f>ev391apos!G210</f>
-        <v>production</v>
-      </c>
-      <c r="H210" s="237" t="str">
-        <f>ev391apos!H210</f>
-        <v>case2_apos</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="242" t="str">
-        <f>ev391apos!A211</f>
-        <v>market for electricity, high voltage</v>
-      </c>
-      <c r="B211" s="242">
-        <f>ev391apos!B211</f>
-        <v>1</v>
-      </c>
-      <c r="C211" s="242" t="str">
-        <f>ev391apos!C211</f>
-        <v>electricity, high voltage</v>
-      </c>
-      <c r="D211" s="242" t="str">
-        <f>ev391apos!D211</f>
-        <v>DK</v>
-      </c>
-      <c r="E211" s="242" t="str">
-        <f>ev391apos!E211</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="F211" s="242"/>
-      <c r="G211" s="232" t="str">
-        <f>ev391apos!G211</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H211" s="232" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="243" t="str">
+      <c r="A203" s="243" t="str">
         <f>ev391apos!A213</f>
         <v>Activity</v>
       </c>
-      <c r="B213" s="243" t="str">
+      <c r="B203" s="243" t="str">
         <f>ev391apos!B213</f>
         <v>heat production from hot water</v>
       </c>
-      <c r="C213" s="244"/>
-      <c r="D213" s="244"/>
-      <c r="E213" s="244"/>
-      <c r="F213" s="244"/>
-      <c r="G213" s="244"/>
-      <c r="H213" s="244"/>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="245" t="str">
+      <c r="C203" s="244"/>
+      <c r="D203" s="244"/>
+      <c r="E203" s="244"/>
+      <c r="F203" s="244"/>
+      <c r="G203" s="244"/>
+      <c r="H203" s="244"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="245" t="str">
         <f>ev391apos!A214</f>
         <v>production amount</v>
       </c>
-      <c r="B214" s="246">
+      <c r="B204" s="246">
         <f>ev391apos!B214</f>
         <v>1</v>
       </c>
-      <c r="C214" s="244"/>
-      <c r="D214" s="244"/>
-      <c r="E214" s="244"/>
-      <c r="F214" s="244"/>
-      <c r="G214" s="244"/>
-      <c r="H214" s="244"/>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="245" t="str">
+      <c r="C204" s="244"/>
+      <c r="D204" s="244"/>
+      <c r="E204" s="244"/>
+      <c r="F204" s="244"/>
+      <c r="G204" s="244"/>
+      <c r="H204" s="244"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="245" t="str">
         <f>ev391apos!A215</f>
         <v>reference product</v>
       </c>
-      <c r="B215" s="244" t="str">
+      <c r="B205" s="244" t="str">
         <f>ev391apos!B215</f>
         <v>heat production from hot water</v>
       </c>
-      <c r="C215" s="244"/>
-      <c r="D215" s="244"/>
-      <c r="E215" s="244"/>
-      <c r="F215" s="244"/>
-      <c r="G215" s="244"/>
-      <c r="H215" s="244"/>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="245" t="str">
+      <c r="C205" s="244"/>
+      <c r="D205" s="244"/>
+      <c r="E205" s="244"/>
+      <c r="F205" s="244"/>
+      <c r="G205" s="244"/>
+      <c r="H205" s="244"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="245" t="str">
         <f>ev391apos!A216</f>
         <v>location</v>
       </c>
-      <c r="B216" s="244" t="str">
+      <c r="B206" s="244" t="str">
         <f>ev391apos!B216</f>
         <v>GLO</v>
       </c>
-      <c r="C216" s="244"/>
-      <c r="D216" s="244"/>
-      <c r="E216" s="244"/>
-      <c r="F216" s="244"/>
-      <c r="G216" s="244"/>
-      <c r="H216" s="244"/>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="245" t="str">
+      <c r="C206" s="244"/>
+      <c r="D206" s="244"/>
+      <c r="E206" s="244"/>
+      <c r="F206" s="244"/>
+      <c r="G206" s="244"/>
+      <c r="H206" s="244"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="245" t="str">
         <f>ev391apos!A217</f>
         <v>unit</v>
       </c>
-      <c r="B217" s="244" t="str">
+      <c r="B207" s="244" t="str">
         <f>ev391apos!B217</f>
         <v>megajoule</v>
       </c>
-      <c r="C217" s="244"/>
-      <c r="D217" s="244"/>
-      <c r="E217" s="244"/>
-      <c r="F217" s="244"/>
-      <c r="G217" s="244"/>
-      <c r="H217" s="244"/>
-    </row>
-    <row r="218" spans="1:8" ht="15.75">
-      <c r="A218" s="243" t="str">
+      <c r="C207" s="244"/>
+      <c r="D207" s="244"/>
+      <c r="E207" s="244"/>
+      <c r="F207" s="244"/>
+      <c r="G207" s="244"/>
+      <c r="H207" s="244"/>
+    </row>
+    <row r="208" spans="1:8" ht="15.75">
+      <c r="A208" s="243" t="str">
         <f>ev391apos!A218</f>
         <v>Exchanges</v>
       </c>
-      <c r="B218" s="244"/>
-      <c r="C218" s="244"/>
-      <c r="D218" s="244"/>
-      <c r="E218" s="244"/>
-      <c r="F218" s="244"/>
-      <c r="G218" s="244"/>
-      <c r="H218" s="244"/>
-    </row>
-    <row r="219" spans="1:8" ht="15.75">
-      <c r="A219" s="247" t="str">
+      <c r="B208" s="244"/>
+      <c r="C208" s="244"/>
+      <c r="D208" s="244"/>
+      <c r="E208" s="244"/>
+      <c r="F208" s="244"/>
+      <c r="G208" s="244"/>
+      <c r="H208" s="244"/>
+    </row>
+    <row r="209" spans="1:8" ht="15.75">
+      <c r="A209" s="247" t="str">
         <f>ev391apos!A219</f>
         <v>name</v>
       </c>
-      <c r="B219" s="247" t="str">
+      <c r="B209" s="247" t="str">
         <f>ev391apos!B219</f>
         <v>amount</v>
       </c>
-      <c r="C219" s="247" t="str">
+      <c r="C209" s="247" t="str">
         <f>ev391apos!C219</f>
         <v>reference product</v>
       </c>
-      <c r="D219" s="247" t="str">
+      <c r="D209" s="247" t="str">
         <f>ev391apos!D219</f>
         <v>location</v>
       </c>
-      <c r="E219" s="247" t="str">
+      <c r="E209" s="247" t="str">
         <f>ev391apos!E219</f>
         <v>unit</v>
       </c>
-      <c r="F219" s="248" t="str">
+      <c r="F209" s="248" t="str">
         <f>ev391apos!F219</f>
         <v>categories</v>
       </c>
-      <c r="G219" s="247" t="str">
+      <c r="G209" s="247" t="str">
         <f>ev391apos!G219</f>
         <v>type</v>
       </c>
-      <c r="H219" s="247" t="str">
+      <c r="H209" s="247" t="str">
         <f>ev391apos!H219</f>
         <v>database</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="249" t="str">
+    <row r="210" spans="1:8">
+      <c r="A210" s="249" t="str">
         <f>ev391apos!A220</f>
         <v>heat production from hot water</v>
       </c>
-      <c r="B220" s="250">
+      <c r="B210" s="250">
         <f>ev391apos!B220</f>
         <v>1</v>
       </c>
-      <c r="C220" s="249" t="str">
+      <c r="C210" s="249" t="str">
         <f>ev391apos!C220</f>
         <v>heat production from hot water</v>
       </c>
-      <c r="D220" s="249" t="str">
+      <c r="D210" s="249" t="str">
         <f>ev391apos!D220</f>
         <v>GLO</v>
       </c>
-      <c r="E220" s="249" t="str">
+      <c r="E210" s="249" t="str">
         <f>ev391apos!E220</f>
         <v>megajoule</v>
       </c>
-      <c r="F220" s="244"/>
-      <c r="G220" s="251" t="str">
+      <c r="F210" s="244"/>
+      <c r="G210" s="251" t="str">
         <f>ev391apos!G220</f>
         <v>production</v>
       </c>
-      <c r="H220" s="249" t="str">
+      <c r="H210" s="249" t="str">
         <f>ev391apos!H220</f>
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="244" t="str">
+    <row r="211" spans="1:8">
+      <c r="A211" s="244" t="str">
         <f>ev391apos!A221</f>
         <v>Energy, solar, converted</v>
       </c>
-      <c r="B221" s="244">
+      <c r="B211" s="244">
         <f>ev391apos!B221</f>
         <v>0.28850999999999999</v>
       </c>
-      <c r="C221" s="244"/>
-      <c r="D221" s="244"/>
-      <c r="E221" s="244" t="str">
+      <c r="C211" s="244"/>
+      <c r="D211" s="244"/>
+      <c r="E211" s="244" t="str">
         <f>ev391apos!E221</f>
         <v>megajoule</v>
       </c>
-      <c r="F221" s="244" t="str">
+      <c r="F211" s="244" t="str">
         <f>ev391apos!F221</f>
         <v>natural resource::in air</v>
       </c>
-      <c r="G221" s="252" t="str">
+      <c r="G211" s="252" t="str">
         <f>ev391apos!G221</f>
         <v>biosphere</v>
       </c>
-      <c r="H221" s="252" t="str">
+      <c r="H211" s="252" t="str">
         <f>ev391apos!H221</f>
         <v>biosphere3</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="244" t="str">
+    <row r="212" spans="1:8">
+      <c r="A212" s="244" t="str">
         <f>ev391apos!A222</f>
         <v>heat production from hot water</v>
       </c>
-      <c r="B222" s="244">
+      <c r="B212" s="244">
         <f>ev391apos!B222</f>
         <v>1</v>
       </c>
-      <c r="C222" s="244" t="str">
+      <c r="C212" s="244" t="str">
         <f>ev391apos!C222</f>
         <v>heat production from hot water</v>
       </c>
-      <c r="D222" s="244" t="str">
+      <c r="D212" s="244" t="str">
         <f>ev391apos!D222</f>
         <v>GLO</v>
       </c>
-      <c r="E222" s="244" t="str">
+      <c r="E212" s="244" t="str">
         <f>ev391apos!E222</f>
         <v>megajoule</v>
       </c>
-      <c r="F222" s="244"/>
-      <c r="G222" s="244" t="str">
+      <c r="F212" s="244"/>
+      <c r="G212" s="244" t="str">
         <f>ev391apos!G222</f>
         <v>production</v>
       </c>
-      <c r="H222" s="251" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="244" t="str">
+      <c r="H212" s="251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="244" t="str">
         <f>ev391apos!A223</f>
         <v>auxiliary heating unit production, electric, 5kW</v>
       </c>
-      <c r="B223" s="244">
+      <c r="B213" s="244">
         <f>ev391apos!B223</f>
         <v>6.5544999999999996E-8</v>
       </c>
-      <c r="C223" s="244" t="str">
+      <c r="C213" s="244" t="str">
         <f>ev391apos!C223</f>
         <v>auxiliary heating unit, electric, 5kW</v>
       </c>
-      <c r="D223" s="244" t="str">
+      <c r="D213" s="244" t="str">
         <f>ev391apos!D223</f>
         <v>CH</v>
       </c>
-      <c r="E223" s="244" t="str">
+      <c r="E213" s="244" t="str">
         <f>ev391apos!E223</f>
         <v>unit</v>
       </c>
-      <c r="F223" s="244"/>
-      <c r="G223" s="244" t="str">
+      <c r="F213" s="244"/>
+      <c r="G213" s="244" t="str">
         <f>ev391apos!G223</f>
         <v>technosphere</v>
       </c>
-      <c r="H223" s="251" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="244" t="str">
+      <c r="H213" s="251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="244" t="str">
         <f>ev391apos!A224</f>
         <v>market for electricity, low voltage</v>
       </c>
-      <c r="B224" s="244">
+      <c r="B214" s="244">
         <f>ev391apos!B224</f>
         <v>0.23457</v>
       </c>
-      <c r="C224" s="244" t="str">
+      <c r="C214" s="244" t="str">
         <f>ev391apos!C224</f>
         <v>electricity, low voltage</v>
       </c>
-      <c r="D224" s="244" t="str">
+      <c r="D214" s="244" t="str">
         <f>ev391apos!D224</f>
         <v>DK</v>
       </c>
-      <c r="E224" s="244" t="str">
+      <c r="E214" s="244" t="str">
         <f>ev391apos!E224</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="F224" s="244"/>
-      <c r="G224" s="244" t="str">
+      <c r="F214" s="244"/>
+      <c r="G214" s="244" t="str">
         <f>ev391apos!G224</f>
         <v>technosphere</v>
       </c>
-      <c r="H224" s="251" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="244" t="str">
+      <c r="H214" s="251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="244" t="str">
         <f>ev391apos!A225</f>
         <v>solar collector system installation, Cu flat plate collector, multiple dwelling, hot water</v>
       </c>
-      <c r="B225" s="244">
+      <c r="B215" s="244">
         <f>ev391apos!B225</f>
         <v>6.5544999999999996E-8</v>
       </c>
-      <c r="C225" s="244" t="str">
+      <c r="C215" s="244" t="str">
         <f>ev391apos!C225</f>
         <v>solar collector system, Cu flat plate collector, multiple dwelling, hot water</v>
       </c>
-      <c r="D225" s="244" t="str">
+      <c r="D215" s="244" t="str">
         <f>ev391apos!D225</f>
         <v>CH</v>
       </c>
-      <c r="E225" s="244" t="str">
+      <c r="E215" s="244" t="str">
         <f>ev391apos!E225</f>
         <v>unit</v>
       </c>
-      <c r="F225" s="244"/>
-      <c r="G225" s="244" t="str">
+      <c r="F215" s="244"/>
+      <c r="G215" s="244" t="str">
         <f>ev391apos!G225</f>
         <v>technosphere</v>
       </c>
-      <c r="H225" s="251" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="15.75">
-      <c r="A227" s="253" t="str">
+      <c r="H215" s="251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15.75">
+      <c r="A217" s="253" t="str">
         <f>ev391apos!A227</f>
         <v>Activity</v>
       </c>
-      <c r="B227" s="253" t="str">
+      <c r="B217" s="253" t="str">
         <f>ev391apos!B227</f>
         <v>mixed heating grid</v>
       </c>
-      <c r="C227" s="122"/>
-      <c r="D227" s="122"/>
-      <c r="E227" s="122"/>
+      <c r="C217" s="122"/>
+      <c r="D217" s="122"/>
+      <c r="E217" s="122"/>
+      <c r="F217" s="122"/>
+      <c r="G217" s="122"/>
+      <c r="H217" s="122"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="122" t="str">
+        <f>ev391apos!A228</f>
+        <v>production amount</v>
+      </c>
+      <c r="B218" s="254">
+        <f>ev391apos!B228</f>
+        <v>1</v>
+      </c>
+      <c r="C218" s="122"/>
+      <c r="D218" s="122"/>
+      <c r="E218" s="122"/>
+      <c r="F218" s="122"/>
+      <c r="G218" s="122"/>
+      <c r="H218" s="122"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="122" t="str">
+        <f>ev391apos!A229</f>
+        <v>reference product</v>
+      </c>
+      <c r="B219" s="122" t="str">
+        <f>ev391apos!B229</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="C219" s="122"/>
+      <c r="D219" s="122"/>
+      <c r="E219" s="122"/>
+      <c r="F219" s="122"/>
+      <c r="G219" s="122"/>
+      <c r="H219" s="122"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="122" t="str">
+        <f>ev391apos!A230</f>
+        <v>location</v>
+      </c>
+      <c r="B220" s="122" t="str">
+        <f>ev391apos!B230</f>
+        <v>GLO</v>
+      </c>
+      <c r="C220" s="122"/>
+      <c r="D220" s="122"/>
+      <c r="E220" s="122"/>
+      <c r="F220" s="122"/>
+      <c r="G220" s="122"/>
+      <c r="H220" s="122"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="122" t="str">
+        <f>ev391apos!A231</f>
+        <v>unit</v>
+      </c>
+      <c r="B221" s="122" t="str">
+        <f>ev391apos!B231</f>
+        <v>megajoule</v>
+      </c>
+      <c r="C221" s="122"/>
+      <c r="D221" s="122"/>
+      <c r="E221" s="122"/>
+      <c r="F221" s="122"/>
+      <c r="G221" s="122"/>
+      <c r="H221" s="122"/>
+    </row>
+    <row r="222" spans="1:8" ht="15.75">
+      <c r="A222" s="253" t="str">
+        <f>ev391apos!A232</f>
+        <v>Exchanges</v>
+      </c>
+      <c r="B222" s="122"/>
+      <c r="C222" s="122"/>
+      <c r="D222" s="122"/>
+      <c r="E222" s="122"/>
+      <c r="F222" s="122"/>
+      <c r="G222" s="122"/>
+      <c r="H222" s="122"/>
+    </row>
+    <row r="223" spans="1:8" ht="15.75">
+      <c r="A223" s="127" t="str">
+        <f>ev391apos!A233</f>
+        <v>name</v>
+      </c>
+      <c r="B223" s="127" t="str">
+        <f>ev391apos!B233</f>
+        <v>amount</v>
+      </c>
+      <c r="C223" s="127" t="str">
+        <f>ev391apos!C233</f>
+        <v>reference product</v>
+      </c>
+      <c r="D223" s="127" t="str">
+        <f>ev391apos!D233</f>
+        <v>location</v>
+      </c>
+      <c r="E223" s="127" t="str">
+        <f>ev391apos!E233</f>
+        <v>unit</v>
+      </c>
+      <c r="F223" s="128" t="str">
+        <f>ev391apos!F233</f>
+        <v>categories</v>
+      </c>
+      <c r="G223" s="127" t="str">
+        <f>ev391apos!G233</f>
+        <v>type</v>
+      </c>
+      <c r="H223" s="127" t="str">
+        <f>ev391apos!H233</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="122" t="str">
+        <f>ev391apos!A234</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="B224" s="255">
+        <f>ev391apos!B234</f>
+        <v>1</v>
+      </c>
+      <c r="C224" s="122" t="str">
+        <f>ev391apos!C234</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="D224" s="122" t="str">
+        <f>ev391apos!D234</f>
+        <v>GLO</v>
+      </c>
+      <c r="E224" s="122" t="str">
+        <f>ev391apos!E234</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F224" s="122"/>
+      <c r="G224" s="122" t="str">
+        <f>ev391apos!G234</f>
+        <v>production</v>
+      </c>
+      <c r="H224" s="122" t="str">
+        <f>ev391apos!H234</f>
+        <v>case2_apos</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="122" t="str">
+        <f>ev391apos!A235</f>
+        <v>heat production from hot water</v>
+      </c>
+      <c r="B225" s="122">
+        <f>ev391apos!B235</f>
+        <v>0.1026</v>
+      </c>
+      <c r="C225" s="122" t="str">
+        <f>ev391apos!C235</f>
+        <v>heat production from hot water</v>
+      </c>
+      <c r="D225" s="122" t="str">
+        <f>ev391apos!D235</f>
+        <v>GLO</v>
+      </c>
+      <c r="E225" s="122" t="str">
+        <f>ev391apos!E235</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F225" s="122"/>
+      <c r="G225" s="122" t="str">
+        <f>ev391apos!G235</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H225" s="122" t="str">
+        <f>ev391apos!H235</f>
+        <v>case2_apos</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="122" t="str">
+        <f>ev391apos!A236</f>
+        <v>heat production, at hard coal industrial furnace 1-10MW</v>
+      </c>
+      <c r="B226" s="122">
+        <f>ev391apos!B236</f>
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="C226" s="122" t="str">
+        <f>ev391apos!C236</f>
+        <v>heat, district or industrial, other than natural gas</v>
+      </c>
+      <c r="D226" s="122" t="str">
+        <f>ev391apos!D236</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="E226" s="122" t="str">
+        <f>ev391apos!E236</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F226" s="122"/>
+      <c r="G226" s="122" t="str">
+        <f>ev391apos!G236</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H226" s="122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="122" t="str">
+        <f>ev391apos!A237</f>
+        <v>heat production, hardwood chips from forest, at furnace 5000kW, state-of-the-art 2014</v>
+      </c>
+      <c r="B227" s="122">
+        <f>ev391apos!B237</f>
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="C227" s="122" t="str">
+        <f>ev391apos!C237</f>
+        <v>heat, district or industrial, other than natural gas</v>
+      </c>
+      <c r="D227" s="122" t="str">
+        <f>ev391apos!D237</f>
+        <v>CH</v>
+      </c>
+      <c r="E227" s="122" t="str">
+        <f>ev391apos!E237</f>
+        <v>megajoule</v>
+      </c>
       <c r="F227" s="122"/>
-      <c r="G227" s="122"/>
-      <c r="H227" s="122"/>
+      <c r="G227" s="122" t="str">
+        <f>ev391apos!G237</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H227" s="122" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="122" t="str">
-        <f>ev391apos!A228</f>
-        <v>production amount</v>
-      </c>
-      <c r="B228" s="254">
-        <f>ev391apos!B228</f>
-        <v>1</v>
-      </c>
-      <c r="C228" s="122"/>
-      <c r="D228" s="122"/>
-      <c r="E228" s="122"/>
+        <f>ev391apos!A238</f>
+        <v>heat production, natural gas, at industrial furnace low-NOx &gt;100kW</v>
+      </c>
+      <c r="B228" s="122">
+        <f>ev391apos!B238</f>
+        <v>0.20513000000000001</v>
+      </c>
+      <c r="C228" s="122" t="str">
+        <f>ev391apos!C238</f>
+        <v>heat, district or industrial, natural gas</v>
+      </c>
+      <c r="D228" s="122" t="str">
+        <f>ev391apos!D238</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="E228" s="122" t="str">
+        <f>ev391apos!E238</f>
+        <v>megajoule</v>
+      </c>
       <c r="F228" s="122"/>
-      <c r="G228" s="122"/>
-      <c r="H228" s="122"/>
+      <c r="G228" s="122" t="str">
+        <f>ev391apos!G238</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H228" s="122" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="122" t="str">
-        <f>ev391apos!A229</f>
-        <v>reference product</v>
-      </c>
-      <c r="B229" s="122" t="str">
-        <f>ev391apos!B229</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="C229" s="122"/>
-      <c r="D229" s="122"/>
-      <c r="E229" s="122"/>
+        <f>ev391apos!A239</f>
+        <v>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</v>
+      </c>
+      <c r="B229" s="122">
+        <f>ev391apos!B239</f>
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="C229" s="122" t="str">
+        <f>ev391apos!C239</f>
+        <v>heat, central or small-scale, other than natural gas</v>
+      </c>
+      <c r="D229" s="122" t="str">
+        <f>ev391apos!D239</f>
+        <v>CH</v>
+      </c>
+      <c r="E229" s="122" t="str">
+        <f>ev391apos!E239</f>
+        <v>megajoule</v>
+      </c>
       <c r="F229" s="122"/>
-      <c r="G229" s="122"/>
-      <c r="H229" s="122"/>
+      <c r="G229" s="122" t="str">
+        <f>ev391apos!G239</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H229" s="122" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="122" t="str">
-        <f>ev391apos!A230</f>
-        <v>location</v>
-      </c>
-      <c r="B230" s="122" t="str">
-        <f>ev391apos!B230</f>
-        <v>GLO</v>
-      </c>
-      <c r="C230" s="122"/>
-      <c r="D230" s="122"/>
-      <c r="E230" s="122"/>
-      <c r="F230" s="122"/>
-      <c r="G230" s="122"/>
-      <c r="H230" s="122"/>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="122" t="str">
-        <f>ev391apos!A231</f>
-        <v>unit</v>
-      </c>
-      <c r="B231" s="122" t="str">
-        <f>ev391apos!B231</f>
-        <v>megajoule</v>
-      </c>
-      <c r="C231" s="122"/>
-      <c r="D231" s="122"/>
-      <c r="E231" s="122"/>
-      <c r="F231" s="122"/>
-      <c r="G231" s="122"/>
-      <c r="H231" s="122"/>
-    </row>
-    <row r="232" spans="1:8" ht="15.75">
-      <c r="A232" s="253" t="str">
-        <f>ev391apos!A232</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B232" s="122"/>
-      <c r="C232" s="122"/>
-      <c r="D232" s="122"/>
-      <c r="E232" s="122"/>
-      <c r="F232" s="122"/>
-      <c r="G232" s="122"/>
-      <c r="H232" s="122"/>
-    </row>
-    <row r="233" spans="1:8" ht="15.75">
-      <c r="A233" s="127" t="str">
-        <f>ev391apos!A233</f>
-        <v>name</v>
-      </c>
-      <c r="B233" s="127" t="str">
-        <f>ev391apos!B233</f>
-        <v>amount</v>
-      </c>
-      <c r="C233" s="127" t="str">
-        <f>ev391apos!C233</f>
-        <v>reference product</v>
-      </c>
-      <c r="D233" s="127" t="str">
-        <f>ev391apos!D233</f>
-        <v>location</v>
-      </c>
-      <c r="E233" s="127" t="str">
-        <f>ev391apos!E233</f>
-        <v>unit</v>
-      </c>
-      <c r="F233" s="128" t="str">
-        <f>ev391apos!F233</f>
-        <v>categories</v>
-      </c>
-      <c r="G233" s="127" t="str">
-        <f>ev391apos!G233</f>
-        <v>type</v>
-      </c>
-      <c r="H233" s="127" t="str">
-        <f>ev391apos!H233</f>
-        <v>database</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="122" t="str">
-        <f>ev391apos!A234</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="B234" s="255">
-        <f>ev391apos!B234</f>
-        <v>1</v>
-      </c>
-      <c r="C234" s="122" t="str">
-        <f>ev391apos!C234</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="D234" s="122" t="str">
-        <f>ev391apos!D234</f>
-        <v>GLO</v>
-      </c>
-      <c r="E234" s="122" t="str">
-        <f>ev391apos!E234</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F234" s="122"/>
-      <c r="G234" s="122" t="str">
-        <f>ev391apos!G234</f>
-        <v>production</v>
-      </c>
-      <c r="H234" s="122" t="str">
-        <f>ev391apos!H234</f>
-        <v>case2_apos</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="122" t="str">
-        <f>ev391apos!A235</f>
-        <v>heat production from hot water</v>
-      </c>
-      <c r="B235" s="122">
-        <f>ev391apos!B235</f>
-        <v>0.1026</v>
-      </c>
-      <c r="C235" s="122" t="str">
-        <f>ev391apos!C235</f>
-        <v>heat production from hot water</v>
-      </c>
-      <c r="D235" s="122" t="str">
-        <f>ev391apos!D235</f>
-        <v>GLO</v>
-      </c>
-      <c r="E235" s="122" t="str">
-        <f>ev391apos!E235</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F235" s="122"/>
-      <c r="G235" s="122" t="str">
-        <f>ev391apos!G235</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H235" s="122" t="str">
-        <f>ev391apos!H235</f>
-        <v>case2_apos</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="122" t="str">
-        <f>ev391apos!A236</f>
-        <v>heat production, at hard coal industrial furnace 1-10MW</v>
-      </c>
-      <c r="B236" s="122">
-        <f>ev391apos!B236</f>
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="C236" s="122" t="str">
-        <f>ev391apos!C236</f>
-        <v>heat, district or industrial, other than natural gas</v>
-      </c>
-      <c r="D236" s="122" t="str">
-        <f>ev391apos!D236</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="E236" s="122" t="str">
-        <f>ev391apos!E236</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F236" s="122"/>
-      <c r="G236" s="122" t="str">
-        <f>ev391apos!G236</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H236" s="122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="122" t="str">
-        <f>ev391apos!A237</f>
-        <v>heat production, hardwood chips from forest, at furnace 5000kW, state-of-the-art 2014</v>
-      </c>
-      <c r="B237" s="122">
-        <f>ev391apos!B237</f>
-        <v>0.44869999999999999</v>
-      </c>
-      <c r="C237" s="122" t="str">
-        <f>ev391apos!C237</f>
-        <v>heat, district or industrial, other than natural gas</v>
-      </c>
-      <c r="D237" s="122" t="str">
-        <f>ev391apos!D237</f>
-        <v>CH</v>
-      </c>
-      <c r="E237" s="122" t="str">
-        <f>ev391apos!E237</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F237" s="122"/>
-      <c r="G237" s="122" t="str">
-        <f>ev391apos!G237</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H237" s="122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="122" t="str">
-        <f>ev391apos!A238</f>
-        <v>heat production, natural gas, at industrial furnace low-NOx &gt;100kW</v>
-      </c>
-      <c r="B238" s="122">
-        <f>ev391apos!B238</f>
-        <v>0.20513000000000001</v>
-      </c>
-      <c r="C238" s="122" t="str">
-        <f>ev391apos!C238</f>
-        <v>heat, district or industrial, natural gas</v>
-      </c>
-      <c r="D238" s="122" t="str">
-        <f>ev391apos!D238</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="E238" s="122" t="str">
-        <f>ev391apos!E238</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F238" s="122"/>
-      <c r="G238" s="122" t="str">
-        <f>ev391apos!G238</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H238" s="122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="122" t="str">
-        <f>ev391apos!A239</f>
-        <v>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</v>
-      </c>
-      <c r="B239" s="122">
-        <f>ev391apos!B239</f>
-        <v>0.17949999999999999</v>
-      </c>
-      <c r="C239" s="122" t="str">
-        <f>ev391apos!C239</f>
-        <v>heat, central or small-scale, other than natural gas</v>
-      </c>
-      <c r="D239" s="122" t="str">
-        <f>ev391apos!D239</f>
-        <v>CH</v>
-      </c>
-      <c r="E239" s="122" t="str">
-        <f>ev391apos!E239</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F239" s="122"/>
-      <c r="G239" s="122" t="str">
-        <f>ev391apos!G239</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H239" s="122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="122" t="str">
         <f>ev391apos!A240</f>
         <v>heavy fuel oil, burned in refinery furnace</v>
       </c>
-      <c r="B240" s="122">
+      <c r="B230" s="122">
         <f>ev391apos!B240</f>
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C240" s="122" t="str">
+      <c r="C230" s="122" t="str">
         <f>ev391apos!C240</f>
         <v>heavy fuel oil, burned in refinery furnace</v>
       </c>
-      <c r="D240" s="122" t="str">
+      <c r="D230" s="122" t="str">
         <f>ev391apos!D240</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="E240" s="122" t="str">
+      <c r="E230" s="122" t="str">
         <f>ev391apos!E240</f>
         <v>megajoule</v>
       </c>
-      <c r="F240" s="122"/>
-      <c r="G240" s="122" t="str">
+      <c r="F230" s="122"/>
+      <c r="G230" s="122" t="str">
         <f>ev391apos!G240</f>
         <v>technosphere</v>
       </c>
-      <c r="H240" s="122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="15.75">
-      <c r="A242" s="262" t="str">
+      <c r="H230" s="122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="15.75">
+      <c r="A232" s="262" t="str">
         <f>ev391apos!A242</f>
         <v>Activity</v>
       </c>
-      <c r="B242" s="262" t="str">
+      <c r="B232" s="262" t="str">
         <f>ev391apos!B242</f>
         <v>eol SUD</v>
       </c>
-      <c r="C242" s="263"/>
-      <c r="D242" s="263"/>
-      <c r="E242" s="263"/>
+      <c r="C232" s="263"/>
+      <c r="D232" s="263"/>
+      <c r="E232" s="263"/>
+      <c r="F232" s="263"/>
+      <c r="G232" s="263"/>
+      <c r="H232" s="263"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="263" t="str">
+        <f>ev391apos!A243</f>
+        <v>production amount</v>
+      </c>
+      <c r="B233" s="264">
+        <f>ev391apos!B243</f>
+        <v>1</v>
+      </c>
+      <c r="C233" s="263"/>
+      <c r="D233" s="263"/>
+      <c r="E233" s="263"/>
+      <c r="F233" s="263"/>
+      <c r="G233" s="263"/>
+      <c r="H233" s="263"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="263" t="str">
+        <f>ev391apos!A244</f>
+        <v>reference product</v>
+      </c>
+      <c r="B234" s="263" t="str">
+        <f>ev391apos!B244</f>
+        <v>eol</v>
+      </c>
+      <c r="C234" s="263"/>
+      <c r="D234" s="263"/>
+      <c r="E234" s="263"/>
+      <c r="F234" s="263"/>
+      <c r="G234" s="263"/>
+      <c r="H234" s="263"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="263" t="str">
+        <f>ev391apos!A245</f>
+        <v>location</v>
+      </c>
+      <c r="B235" s="263" t="str">
+        <f>ev391apos!B245</f>
+        <v>GLO</v>
+      </c>
+      <c r="C235" s="263"/>
+      <c r="D235" s="263"/>
+      <c r="E235" s="263"/>
+      <c r="F235" s="263"/>
+      <c r="G235" s="263"/>
+      <c r="H235" s="263"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="263" t="str">
+        <f>ev391apos!A246</f>
+        <v>unit</v>
+      </c>
+      <c r="B236" s="263" t="str">
+        <f>ev391apos!B246</f>
+        <v>kilogram</v>
+      </c>
+      <c r="C236" s="263"/>
+      <c r="D236" s="263"/>
+      <c r="E236" s="263"/>
+      <c r="F236" s="263"/>
+      <c r="G236" s="263"/>
+      <c r="H236" s="263"/>
+    </row>
+    <row r="237" spans="1:8" ht="15.75">
+      <c r="A237" s="262" t="str">
+        <f>ev391apos!A247</f>
+        <v>Exchanges</v>
+      </c>
+      <c r="B237" s="263"/>
+      <c r="C237" s="263"/>
+      <c r="D237" s="263"/>
+      <c r="E237" s="263"/>
+      <c r="F237" s="263"/>
+      <c r="G237" s="263"/>
+      <c r="H237" s="263"/>
+    </row>
+    <row r="238" spans="1:8" ht="15.75">
+      <c r="A238" s="265" t="str">
+        <f>ev391apos!A248</f>
+        <v>name</v>
+      </c>
+      <c r="B238" s="265" t="str">
+        <f>ev391apos!B248</f>
+        <v>amount</v>
+      </c>
+      <c r="C238" s="265" t="str">
+        <f>ev391apos!C248</f>
+        <v>reference product</v>
+      </c>
+      <c r="D238" s="265" t="str">
+        <f>ev391apos!D248</f>
+        <v>location</v>
+      </c>
+      <c r="E238" s="265" t="str">
+        <f>ev391apos!E248</f>
+        <v>unit</v>
+      </c>
+      <c r="F238" s="266" t="str">
+        <f>ev391apos!F248</f>
+        <v>categories</v>
+      </c>
+      <c r="G238" s="265" t="str">
+        <f>ev391apos!G248</f>
+        <v>type</v>
+      </c>
+      <c r="H238" s="265" t="str">
+        <f>ev391apos!H248</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="263" t="str">
+        <f>ev391apos!A249</f>
+        <v>eol SUD</v>
+      </c>
+      <c r="B239" s="267">
+        <f>ev391apos!B249</f>
+        <v>1</v>
+      </c>
+      <c r="C239" s="263" t="str">
+        <f>ev391apos!C249</f>
+        <v>eol</v>
+      </c>
+      <c r="D239" s="263" t="str">
+        <f>ev391apos!D249</f>
+        <v>GLO</v>
+      </c>
+      <c r="E239" s="263" t="str">
+        <f>ev391apos!E249</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F239" s="263"/>
+      <c r="G239" s="263" t="str">
+        <f>ev391apos!G249</f>
+        <v>production</v>
+      </c>
+      <c r="H239" s="263" t="str">
+        <f>ev391apos!H249</f>
+        <v>case2_apos</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="263" t="str">
+        <f>ev391apos!A250</f>
+        <v>treatment of hazardous waste, hazardous waste incineration</v>
+      </c>
+      <c r="B240" s="263">
+        <f>ev391apos!B250</f>
+        <v>4.1554130910640599E-2</v>
+      </c>
+      <c r="C240" s="263" t="str">
+        <f>ev391apos!C250</f>
+        <v>hazardous waste, for incineration</v>
+      </c>
+      <c r="D240" s="263" t="str">
+        <f>ev391apos!D250</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="E240" s="263" t="str">
+        <f>ev391apos!E250</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F240" s="263"/>
+      <c r="G240" s="263" t="str">
+        <f>ev391apos!G250</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H240" s="263" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="263" t="str">
+        <f>ev391apos!A251</f>
+        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B241" s="263">
+        <f>ev391apos!B251</f>
+        <v>0.271672758270046</v>
+      </c>
+      <c r="C241" s="263" t="str">
+        <f>ev391apos!C251</f>
+        <v>municipal solid waste</v>
+      </c>
+      <c r="D241" s="263" t="str">
+        <f>ev391apos!D251</f>
+        <v>CH</v>
+      </c>
+      <c r="E241" s="263" t="str">
+        <f>ev391apos!E251</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F241" s="263"/>
+      <c r="G241" s="263" t="str">
+        <f>ev391apos!G251</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H241" s="263" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="263" t="str">
+        <f>ev391apos!A252</f>
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B242" s="263">
+        <f>ev391apos!B252</f>
+        <v>0.52743927745681096</v>
+      </c>
+      <c r="C242" s="263" t="str">
+        <f>ev391apos!C252</f>
+        <v>waste polyethylene</v>
+      </c>
+      <c r="D242" s="263" t="str">
+        <f>ev391apos!D252</f>
+        <v>CH</v>
+      </c>
+      <c r="E242" s="263" t="str">
+        <f>ev391apos!E252</f>
+        <v>kilogram</v>
+      </c>
       <c r="F242" s="263"/>
-      <c r="G242" s="263"/>
-      <c r="H242" s="263"/>
+      <c r="G242" s="263" t="str">
+        <f>ev391apos!G252</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H242" s="263" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="263" t="str">
-        <f>ev391apos!A243</f>
-        <v>production amount</v>
-      </c>
-      <c r="B243" s="264">
-        <f>ev391apos!B243</f>
-        <v>1</v>
-      </c>
-      <c r="C243" s="263"/>
-      <c r="D243" s="263"/>
-      <c r="E243" s="263"/>
-      <c r="F243" s="263"/>
-      <c r="G243" s="263"/>
-      <c r="H243" s="263"/>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="263" t="str">
-        <f>ev391apos!A244</f>
-        <v>reference product</v>
-      </c>
-      <c r="B244" s="263" t="str">
-        <f>ev391apos!B244</f>
-        <v>eol</v>
-      </c>
-      <c r="C244" s="263"/>
-      <c r="D244" s="263"/>
-      <c r="E244" s="263"/>
-      <c r="F244" s="263"/>
-      <c r="G244" s="263"/>
-      <c r="H244" s="263"/>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="263" t="str">
-        <f>ev391apos!A245</f>
-        <v>location</v>
-      </c>
-      <c r="B245" s="263" t="str">
-        <f>ev391apos!B245</f>
-        <v>GLO</v>
-      </c>
-      <c r="C245" s="263"/>
-      <c r="D245" s="263"/>
-      <c r="E245" s="263"/>
-      <c r="F245" s="263"/>
-      <c r="G245" s="263"/>
-      <c r="H245" s="263"/>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="263" t="str">
-        <f>ev391apos!A246</f>
-        <v>unit</v>
-      </c>
-      <c r="B246" s="263" t="str">
-        <f>ev391apos!B246</f>
-        <v>kilogram</v>
-      </c>
-      <c r="C246" s="263"/>
-      <c r="D246" s="263"/>
-      <c r="E246" s="263"/>
-      <c r="F246" s="263"/>
-      <c r="G246" s="263"/>
-      <c r="H246" s="263"/>
-    </row>
-    <row r="247" spans="1:8" ht="15.75">
-      <c r="A247" s="262" t="str">
-        <f>ev391apos!A247</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B247" s="263"/>
-      <c r="C247" s="263"/>
-      <c r="D247" s="263"/>
-      <c r="E247" s="263"/>
-      <c r="F247" s="263"/>
-      <c r="G247" s="263"/>
-      <c r="H247" s="263"/>
-    </row>
-    <row r="248" spans="1:8" ht="15.75">
-      <c r="A248" s="265" t="str">
-        <f>ev391apos!A248</f>
-        <v>name</v>
-      </c>
-      <c r="B248" s="265" t="str">
-        <f>ev391apos!B248</f>
-        <v>amount</v>
-      </c>
-      <c r="C248" s="265" t="str">
-        <f>ev391apos!C248</f>
-        <v>reference product</v>
-      </c>
-      <c r="D248" s="265" t="str">
-        <f>ev391apos!D248</f>
-        <v>location</v>
-      </c>
-      <c r="E248" s="265" t="str">
-        <f>ev391apos!E248</f>
-        <v>unit</v>
-      </c>
-      <c r="F248" s="266" t="str">
-        <f>ev391apos!F248</f>
-        <v>categories</v>
-      </c>
-      <c r="G248" s="265" t="str">
-        <f>ev391apos!G248</f>
-        <v>type</v>
-      </c>
-      <c r="H248" s="265" t="str">
-        <f>ev391apos!H248</f>
-        <v>database</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="263" t="str">
-        <f>ev391apos!A249</f>
-        <v>eol SUD</v>
-      </c>
-      <c r="B249" s="267">
-        <f>ev391apos!B249</f>
-        <v>1</v>
-      </c>
-      <c r="C249" s="263" t="str">
-        <f>ev391apos!C249</f>
-        <v>eol</v>
-      </c>
-      <c r="D249" s="263" t="str">
-        <f>ev391apos!D249</f>
-        <v>GLO</v>
-      </c>
-      <c r="E249" s="263" t="str">
-        <f>ev391apos!E249</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F249" s="263"/>
-      <c r="G249" s="263" t="str">
-        <f>ev391apos!G249</f>
-        <v>production</v>
-      </c>
-      <c r="H249" s="263" t="str">
-        <f>ev391apos!H249</f>
-        <v>case2_apos</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="263" t="str">
-        <f>ev391apos!A250</f>
-        <v>treatment of hazardous waste, hazardous waste incineration</v>
-      </c>
-      <c r="B250" s="263">
-        <f>ev391apos!B250</f>
-        <v>4.1554130910640599E-2</v>
-      </c>
-      <c r="C250" s="263" t="str">
-        <f>ev391apos!C250</f>
-        <v>hazardous waste, for incineration</v>
-      </c>
-      <c r="D250" s="263" t="str">
-        <f>ev391apos!D250</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="E250" s="263" t="str">
-        <f>ev391apos!E250</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F250" s="263"/>
-      <c r="G250" s="263" t="str">
-        <f>ev391apos!G250</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H250" s="263" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="263" t="str">
-        <f>ev391apos!A251</f>
-        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B251" s="263">
-        <f>ev391apos!B251</f>
-        <v>0.271672758270046</v>
-      </c>
-      <c r="C251" s="263" t="str">
-        <f>ev391apos!C251</f>
-        <v>municipal solid waste</v>
-      </c>
-      <c r="D251" s="263" t="str">
-        <f>ev391apos!D251</f>
-        <v>CH</v>
-      </c>
-      <c r="E251" s="263" t="str">
-        <f>ev391apos!E251</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F251" s="263"/>
-      <c r="G251" s="263" t="str">
-        <f>ev391apos!G251</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H251" s="263" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="263" t="str">
-        <f>ev391apos!A252</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B252" s="263">
-        <f>ev391apos!B252</f>
-        <v>0.52743927745681096</v>
-      </c>
-      <c r="C252" s="263" t="str">
-        <f>ev391apos!C252</f>
-        <v>waste polyethylene</v>
-      </c>
-      <c r="D252" s="263" t="str">
-        <f>ev391apos!D252</f>
-        <v>CH</v>
-      </c>
-      <c r="E252" s="263" t="str">
-        <f>ev391apos!E252</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F252" s="263"/>
-      <c r="G252" s="263" t="str">
-        <f>ev391apos!G252</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H252" s="263" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="263" t="str">
         <f>ev391apos!A253</f>
         <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
       </c>
-      <c r="B253" s="263">
+      <c r="B243" s="263">
         <f>ev391apos!B253</f>
         <v>0.15933383336250301</v>
       </c>
-      <c r="C253" s="263" t="str">
+      <c r="C243" s="263" t="str">
         <f>ev391apos!C253</f>
         <v>waste plastic, mixture</v>
       </c>
-      <c r="D253" s="263" t="str">
+      <c r="D243" s="263" t="str">
         <f>ev391apos!D253</f>
         <v>CH</v>
       </c>
-      <c r="E253" s="263" t="str">
+      <c r="E243" s="263" t="str">
         <f>ev391apos!E253</f>
         <v>kilogram</v>
       </c>
-      <c r="F253" s="263"/>
-      <c r="G253" s="263" t="str">
+      <c r="F243" s="263"/>
+      <c r="G243" s="263" t="str">
         <f>ev391apos!G253</f>
         <v>technosphere</v>
       </c>
-      <c r="H253" s="263" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.75">
-      <c r="A255" s="256" t="str">
+      <c r="H243" s="263" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="15.75">
+      <c r="A245" s="256" t="str">
         <f>ev391apos!A255</f>
         <v>Activity</v>
       </c>
-      <c r="B255" s="256" t="str">
+      <c r="B245" s="256" t="str">
         <f>ev391apos!B255</f>
         <v>eol MUD</v>
       </c>
-      <c r="C255" s="257"/>
-      <c r="D255" s="257"/>
-      <c r="E255" s="257"/>
-      <c r="F255" s="257"/>
-      <c r="G255" s="257"/>
-      <c r="H255" s="257"/>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="257" t="str">
+      <c r="C245" s="257"/>
+      <c r="D245" s="257"/>
+      <c r="E245" s="257"/>
+      <c r="F245" s="257"/>
+      <c r="G245" s="257"/>
+      <c r="H245" s="257"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="257" t="str">
         <f>ev391apos!A256</f>
         <v>production amount</v>
       </c>
-      <c r="B256" s="258">
+      <c r="B246" s="258">
         <f>ev391apos!B256</f>
         <v>1</v>
       </c>
-      <c r="C256" s="257"/>
-      <c r="D256" s="257"/>
-      <c r="E256" s="257"/>
-      <c r="F256" s="257"/>
-      <c r="G256" s="257"/>
-      <c r="H256" s="257"/>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="257" t="str">
+      <c r="C246" s="257"/>
+      <c r="D246" s="257"/>
+      <c r="E246" s="257"/>
+      <c r="F246" s="257"/>
+      <c r="G246" s="257"/>
+      <c r="H246" s="257"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="257" t="str">
         <f>ev391apos!A257</f>
         <v>reference product</v>
       </c>
-      <c r="B257" s="257" t="str">
+      <c r="B247" s="257" t="str">
         <f>ev391apos!B257</f>
         <v>eol</v>
       </c>
-      <c r="C257" s="257"/>
-      <c r="D257" s="257"/>
-      <c r="E257" s="257"/>
-      <c r="F257" s="257"/>
-      <c r="G257" s="257"/>
-      <c r="H257" s="257"/>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="257" t="str">
+      <c r="C247" s="257"/>
+      <c r="D247" s="257"/>
+      <c r="E247" s="257"/>
+      <c r="F247" s="257"/>
+      <c r="G247" s="257"/>
+      <c r="H247" s="257"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="257" t="str">
         <f>ev391apos!A258</f>
         <v>location</v>
       </c>
-      <c r="B258" s="257" t="str">
+      <c r="B248" s="257" t="str">
         <f>ev391apos!B258</f>
         <v>GLO</v>
       </c>
-      <c r="C258" s="257"/>
-      <c r="D258" s="257"/>
-      <c r="E258" s="257"/>
-      <c r="F258" s="257"/>
-      <c r="G258" s="257"/>
-      <c r="H258" s="257"/>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="257" t="str">
+      <c r="C248" s="257"/>
+      <c r="D248" s="257"/>
+      <c r="E248" s="257"/>
+      <c r="F248" s="257"/>
+      <c r="G248" s="257"/>
+      <c r="H248" s="257"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="257" t="str">
         <f>ev391apos!A259</f>
         <v>unit</v>
       </c>
-      <c r="B259" s="257" t="str">
+      <c r="B249" s="257" t="str">
         <f>ev391apos!B259</f>
         <v>kilogram</v>
       </c>
-      <c r="C259" s="257"/>
-      <c r="D259" s="257"/>
-      <c r="E259" s="257"/>
-      <c r="F259" s="257"/>
-      <c r="G259" s="257"/>
-      <c r="H259" s="257"/>
-    </row>
-    <row r="260" spans="1:8" ht="15.75">
-      <c r="A260" s="256" t="str">
+      <c r="C249" s="257"/>
+      <c r="D249" s="257"/>
+      <c r="E249" s="257"/>
+      <c r="F249" s="257"/>
+      <c r="G249" s="257"/>
+      <c r="H249" s="257"/>
+    </row>
+    <row r="250" spans="1:8" ht="15.75">
+      <c r="A250" s="256" t="str">
         <f>ev391apos!A260</f>
         <v>Exchanges</v>
       </c>
-      <c r="B260" s="257"/>
-      <c r="C260" s="257"/>
-      <c r="D260" s="257"/>
-      <c r="E260" s="257"/>
-      <c r="F260" s="257"/>
-      <c r="G260" s="257"/>
-      <c r="H260" s="257"/>
-    </row>
-    <row r="261" spans="1:8" ht="15.75">
-      <c r="A261" s="259" t="str">
+      <c r="B250" s="257"/>
+      <c r="C250" s="257"/>
+      <c r="D250" s="257"/>
+      <c r="E250" s="257"/>
+      <c r="F250" s="257"/>
+      <c r="G250" s="257"/>
+      <c r="H250" s="257"/>
+    </row>
+    <row r="251" spans="1:8" ht="15.75">
+      <c r="A251" s="259" t="str">
         <f>ev391apos!A261</f>
         <v>name</v>
       </c>
-      <c r="B261" s="259" t="str">
+      <c r="B251" s="259" t="str">
         <f>ev391apos!B261</f>
         <v>amount</v>
       </c>
-      <c r="C261" s="259" t="str">
+      <c r="C251" s="259" t="str">
         <f>ev391apos!C261</f>
         <v>reference product</v>
       </c>
-      <c r="D261" s="259" t="str">
+      <c r="D251" s="259" t="str">
         <f>ev391apos!D261</f>
         <v>location</v>
       </c>
-      <c r="E261" s="259" t="str">
+      <c r="E251" s="259" t="str">
         <f>ev391apos!E261</f>
         <v>unit</v>
       </c>
-      <c r="F261" s="260" t="str">
+      <c r="F251" s="260" t="str">
         <f>ev391apos!F261</f>
         <v>categories</v>
       </c>
-      <c r="G261" s="259" t="str">
+      <c r="G251" s="259" t="str">
         <f>ev391apos!G261</f>
         <v>type</v>
       </c>
-      <c r="H261" s="259" t="str">
+      <c r="H251" s="259" t="str">
         <f>ev391apos!H261</f>
         <v>database</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="257" t="str">
+    <row r="252" spans="1:8">
+      <c r="A252" s="257" t="str">
         <f>ev391apos!A262</f>
         <v>eol MUD</v>
       </c>
-      <c r="B262" s="261">
+      <c r="B252" s="261">
         <f>ev391apos!B262</f>
         <v>1</v>
       </c>
-      <c r="C262" s="257" t="str">
+      <c r="C252" s="257" t="str">
         <f>ev391apos!C262</f>
         <v>eol</v>
       </c>
-      <c r="D262" s="257" t="str">
+      <c r="D252" s="257" t="str">
         <f>ev391apos!D262</f>
         <v>GLO</v>
       </c>
-      <c r="E262" s="257" t="str">
+      <c r="E252" s="257" t="str">
         <f>ev391apos!E262</f>
         <v>kilogram</v>
       </c>
-      <c r="F262" s="257"/>
-      <c r="G262" s="257" t="str">
+      <c r="F252" s="257"/>
+      <c r="G252" s="257" t="str">
         <f>ev391apos!G262</f>
         <v>production</v>
       </c>
-      <c r="H262" s="257" t="str">
+      <c r="H252" s="257" t="str">
         <f>ev391apos!H262</f>
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="257" t="str">
+    <row r="253" spans="1:8">
+      <c r="A253" s="257" t="str">
         <f>ev391apos!A263</f>
         <v>treatment of hazardous waste, hazardous waste incineration</v>
       </c>
-      <c r="B263" s="257">
+      <c r="B253" s="257">
         <f>ev391apos!B263</f>
         <v>4.1554130910640599E-2</v>
       </c>
-      <c r="C263" s="257" t="str">
+      <c r="C253" s="257" t="str">
         <f>ev391apos!C263</f>
         <v>hazardous waste, for incineration</v>
       </c>
-      <c r="D263" s="257" t="str">
+      <c r="D253" s="257" t="str">
         <f>ev391apos!D263</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="E263" s="257" t="str">
+      <c r="E253" s="257" t="str">
         <f>ev391apos!E263</f>
         <v>kilogram</v>
       </c>
-      <c r="F263" s="257"/>
-      <c r="G263" s="257" t="str">
+      <c r="F253" s="257"/>
+      <c r="G253" s="257" t="str">
         <f>ev391apos!G263</f>
         <v>technosphere</v>
       </c>
-      <c r="H263" s="257" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="257" t="str">
+      <c r="H253" s="257" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="257" t="str">
         <f>ev391apos!A264</f>
         <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
       </c>
-      <c r="B264" s="257">
+      <c r="B254" s="257">
         <f>ev391apos!B264</f>
         <v>0.52743927745681096</v>
       </c>
-      <c r="C264" s="257" t="str">
+      <c r="C254" s="257" t="str">
         <f>ev391apos!C264</f>
         <v>waste polyethylene</v>
       </c>
-      <c r="D264" s="257" t="str">
+      <c r="D254" s="257" t="str">
         <f>ev391apos!D264</f>
         <v>CH</v>
       </c>
-      <c r="E264" s="257" t="str">
+      <c r="E254" s="257" t="str">
         <f>ev391apos!E264</f>
         <v>kilogram</v>
       </c>
-      <c r="F264" s="257"/>
-      <c r="G264" s="257" t="str">
+      <c r="F254" s="257"/>
+      <c r="G254" s="257" t="str">
         <f>ev391apos!G264</f>
         <v>technosphere</v>
       </c>
-      <c r="H264" s="257" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="257" t="str">
+      <c r="H254" s="257" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="257" t="str">
         <f>ev391apos!A265</f>
         <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
       </c>
-      <c r="B265" s="257">
+      <c r="B255" s="257">
         <f>ev391apos!B265</f>
         <v>0.15933383336250301</v>
       </c>
-      <c r="C265" s="257" t="str">
+      <c r="C255" s="257" t="str">
         <f>ev391apos!C265</f>
         <v>waste plastic, mixture</v>
       </c>
-      <c r="D265" s="257" t="str">
+      <c r="D255" s="257" t="str">
         <f>ev391apos!D265</f>
         <v>CH</v>
       </c>
-      <c r="E265" s="257" t="str">
+      <c r="E255" s="257" t="str">
         <f>ev391apos!E265</f>
         <v>kilogram</v>
       </c>
-      <c r="F265" s="257"/>
-      <c r="G265" s="257" t="str">
+      <c r="F255" s="257"/>
+      <c r="G255" s="257" t="str">
         <f>ev391apos!G265</f>
         <v>technosphere</v>
       </c>
-      <c r="H265" s="257" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="15.75">
-      <c r="A267" s="268" t="str">
+      <c r="H255" s="257" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="15.75">
+      <c r="A257" s="268" t="str">
         <f>ev391apos!A267</f>
         <v>Activity</v>
       </c>
-      <c r="B267" s="269" t="str">
+      <c r="B257" s="269" t="str">
         <f>ev391apos!B267</f>
         <v>H200 SU</v>
       </c>
-      <c r="C267" s="35"/>
-      <c r="D267" s="270"/>
-      <c r="E267" s="35"/>
-      <c r="F267" s="34"/>
-      <c r="G267" s="35"/>
-      <c r="H267" s="35"/>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="271" t="str">
+      <c r="C257" s="35"/>
+      <c r="D257" s="270"/>
+      <c r="E257" s="35"/>
+      <c r="F257" s="34"/>
+      <c r="G257" s="35"/>
+      <c r="H257" s="35"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="271" t="str">
         <f>ev391apos!A268</f>
         <v>production amount</v>
       </c>
-      <c r="B268" s="272">
+      <c r="B258" s="272">
         <f>ev391apos!B268</f>
         <v>1</v>
       </c>
-      <c r="C268" s="35"/>
-      <c r="D268" s="35"/>
-      <c r="E268" s="35"/>
-      <c r="F268" s="34"/>
-      <c r="G268" s="35"/>
-      <c r="H268" s="35"/>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="271" t="str">
+      <c r="C258" s="35"/>
+      <c r="D258" s="35"/>
+      <c r="E258" s="35"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="35"/>
+      <c r="H258" s="35"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="271" t="str">
         <f>ev391apos!A269</f>
         <v>reference product</v>
       </c>
-      <c r="B269" s="273" t="str">
+      <c r="B259" s="273" t="str">
         <f>ev391apos!B269</f>
         <v>H2S</v>
       </c>
-      <c r="C269" s="35"/>
-      <c r="D269" s="35"/>
-      <c r="E269" s="35"/>
-      <c r="F269" s="34"/>
-      <c r="G269" s="35"/>
-      <c r="H269" s="35"/>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="271" t="str">
+      <c r="C259" s="35"/>
+      <c r="D259" s="35"/>
+      <c r="E259" s="35"/>
+      <c r="F259" s="34"/>
+      <c r="G259" s="35"/>
+      <c r="H259" s="35"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="271" t="str">
         <f>ev391apos!A270</f>
         <v>location</v>
       </c>
-      <c r="B270" s="274" t="str">
+      <c r="B260" s="274" t="str">
         <f>ev391apos!B270</f>
         <v>GLO</v>
       </c>
-      <c r="C270" s="35"/>
-      <c r="D270" s="35"/>
-      <c r="E270" s="35"/>
-      <c r="F270" s="34"/>
-      <c r="G270" s="35"/>
-      <c r="H270" s="35"/>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="271" t="str">
+      <c r="C260" s="35"/>
+      <c r="D260" s="35"/>
+      <c r="E260" s="35"/>
+      <c r="F260" s="34"/>
+      <c r="G260" s="35"/>
+      <c r="H260" s="35"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="271" t="str">
         <f>ev391apos!A271</f>
         <v>unit</v>
       </c>
-      <c r="B271" s="32" t="str">
+      <c r="B261" s="32" t="str">
         <f>ev391apos!B271</f>
         <v>unit</v>
       </c>
-      <c r="C271" s="35"/>
-      <c r="D271" s="35"/>
-      <c r="E271" s="35"/>
-      <c r="F271" s="34"/>
-      <c r="G271" s="35"/>
-      <c r="H271" s="35"/>
-    </row>
-    <row r="272" spans="1:8" ht="15.75">
-      <c r="A272" s="275" t="str">
+      <c r="C261" s="35"/>
+      <c r="D261" s="35"/>
+      <c r="E261" s="35"/>
+      <c r="F261" s="34"/>
+      <c r="G261" s="35"/>
+      <c r="H261" s="35"/>
+    </row>
+    <row r="262" spans="1:8" ht="15.75">
+      <c r="A262" s="275" t="str">
         <f>ev391apos!A272</f>
         <v>Exchanges</v>
       </c>
-      <c r="B272" s="269"/>
-      <c r="C272" s="275"/>
-      <c r="D272" s="275"/>
-      <c r="E272" s="275"/>
-      <c r="F272" s="34"/>
-      <c r="G272" s="275"/>
-      <c r="H272" s="275"/>
-    </row>
-    <row r="273" spans="1:8" ht="15.75">
-      <c r="A273" s="275" t="str">
+      <c r="B262" s="269"/>
+      <c r="C262" s="275"/>
+      <c r="D262" s="275"/>
+      <c r="E262" s="275"/>
+      <c r="F262" s="34"/>
+      <c r="G262" s="275"/>
+      <c r="H262" s="275"/>
+    </row>
+    <row r="263" spans="1:8" ht="15.75">
+      <c r="A263" s="275" t="str">
         <f>ev391apos!A273</f>
         <v>name</v>
       </c>
-      <c r="B273" s="275" t="str">
+      <c r="B263" s="275" t="str">
         <f>ev391apos!B273</f>
         <v>amount</v>
       </c>
-      <c r="C273" s="275" t="str">
+      <c r="C263" s="275" t="str">
         <f>ev391apos!C273</f>
         <v>reference product</v>
       </c>
-      <c r="D273" s="275" t="str">
+      <c r="D263" s="275" t="str">
         <f>ev391apos!D273</f>
         <v>location</v>
       </c>
-      <c r="E273" s="275" t="str">
+      <c r="E263" s="275" t="str">
         <f>ev391apos!E273</f>
         <v>unit</v>
       </c>
-      <c r="F273" s="276" t="str">
+      <c r="F263" s="276" t="str">
         <f>ev391apos!F273</f>
         <v>categories</v>
       </c>
-      <c r="G273" s="275" t="str">
+      <c r="G263" s="275" t="str">
         <f>ev391apos!G273</f>
         <v>type</v>
       </c>
-      <c r="H273" s="275" t="str">
+      <c r="H263" s="275" t="str">
         <f>ev391apos!H273</f>
         <v>database</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="32" t="str">
+    <row r="264" spans="1:8">
+      <c r="A264" s="32" t="str">
         <f>ev391apos!A274</f>
         <v>H200 SU</v>
       </c>
-      <c r="B274" s="33">
+      <c r="B264" s="33">
         <f>ev391apos!B274</f>
         <v>1</v>
       </c>
-      <c r="C274" s="32" t="str">
+      <c r="C264" s="32" t="str">
         <f>ev391apos!C274</f>
         <v>H2S</v>
       </c>
-      <c r="D274" s="32" t="str">
+      <c r="D264" s="32" t="str">
         <f>ev391apos!D274</f>
         <v>GLO</v>
       </c>
-      <c r="E274" s="32" t="str">
+      <c r="E264" s="32" t="str">
         <f>ev391apos!E274</f>
         <v>unit</v>
       </c>
-      <c r="F274" s="34"/>
-      <c r="G274" s="35" t="str">
+      <c r="F264" s="34"/>
+      <c r="G264" s="35" t="str">
         <f>ev391apos!G274</f>
         <v>production</v>
       </c>
-      <c r="H274" s="32" t="str">
+      <c r="H264" s="32" t="str">
         <f>ev391apos!H274</f>
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="32" t="str">
+    <row r="265" spans="1:8">
+      <c r="A265" s="32" t="str">
         <f>ev391apos!A275</f>
         <v>H200</v>
       </c>
-      <c r="B275" s="33">
+      <c r="B265" s="33">
         <f>ev391apos!B275</f>
         <v>1</v>
       </c>
-      <c r="C275" s="32" t="str">
+      <c r="C265" s="32" t="str">
         <f>ev391apos!C275</f>
         <v>H200</v>
       </c>
-      <c r="D275" s="32" t="str">
+      <c r="D265" s="32" t="str">
         <f>ev391apos!D275</f>
         <v>GLO</v>
       </c>
-      <c r="E275" s="32" t="str">
+      <c r="E265" s="32" t="str">
         <f>ev391apos!E275</f>
         <v>unit</v>
       </c>
-      <c r="F275" s="34"/>
-      <c r="G275" s="35" t="str">
+      <c r="F265" s="34"/>
+      <c r="G265" s="35" t="str">
         <f>ev391apos!G275</f>
         <v>technosphere</v>
       </c>
-      <c r="H275" s="32" t="str">
+      <c r="H265" s="32" t="str">
         <f>ev391apos!H275</f>
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="277" t="str">
+    <row r="266" spans="1:8">
+      <c r="A266" s="277" t="str">
         <f>ev391apos!A276</f>
         <v>treatment of waste polypropylene, municipal incineration with fly ash extraction</v>
       </c>
-      <c r="B276" s="278">
+      <c r="B266" s="278">
         <f>ev391apos!B276</f>
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="C276" s="277" t="str">
+      <c r="C266" s="277" t="str">
         <f>ev391apos!C276</f>
         <v>waste polypropylene</v>
       </c>
-      <c r="D276" s="279" t="str">
+      <c r="D266" s="279" t="str">
         <f>ev391apos!D276</f>
         <v>CH</v>
       </c>
-      <c r="E276" s="279" t="str">
+      <c r="E266" s="279" t="str">
         <f>ev391apos!E276</f>
         <v>kilogram</v>
       </c>
-      <c r="F276" s="279"/>
-      <c r="G276" s="280" t="str">
+      <c r="F266" s="279"/>
+      <c r="G266" s="280" t="str">
         <f>ev391apos!G276</f>
         <v>technosphere</v>
       </c>
-      <c r="H276" s="280" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="281" t="str">
+      <c r="H266" s="280" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="281" t="str">
         <f>ev391apos!A277</f>
         <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
       </c>
-      <c r="B277" s="278">
+      <c r="B267" s="278">
         <f>ev391apos!B277</f>
         <v>-7.2700000000000004E-3</v>
       </c>
-      <c r="C277" s="280" t="str">
+      <c r="C267" s="280" t="str">
         <f>ev391apos!C277</f>
         <v>waste polyethylene</v>
       </c>
-      <c r="D277" s="279" t="str">
+      <c r="D267" s="279" t="str">
         <f>ev391apos!D277</f>
         <v>CH</v>
       </c>
-      <c r="E277" s="279" t="str">
+      <c r="E267" s="279" t="str">
         <f>ev391apos!E277</f>
         <v>kilogram</v>
       </c>
-      <c r="F277" s="279"/>
-      <c r="G277" s="280" t="str">
+      <c r="F267" s="279"/>
+      <c r="G267" s="280" t="str">
         <f>ev391apos!G277</f>
         <v>technosphere</v>
       </c>
-      <c r="H277" s="280" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="281" t="str">
+      <c r="H267" s="280" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="281" t="str">
         <f>ev391apos!A278</f>
         <v>market for electricity, high voltage</v>
       </c>
-      <c r="B278" s="278">
+      <c r="B268" s="278">
         <f>ev391apos!B278</f>
         <v>-0.14709144573749999</v>
       </c>
-      <c r="C278" s="280" t="str">
+      <c r="C268" s="280" t="str">
         <f>ev391apos!C278</f>
         <v>electricity, high voltage</v>
       </c>
-      <c r="D278" s="279" t="str">
+      <c r="D268" s="279" t="str">
         <f>ev391apos!D278</f>
         <v>DK</v>
       </c>
-      <c r="E278" s="279" t="str">
+      <c r="E268" s="279" t="str">
         <f>ev391apos!E278</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="F278" s="279"/>
-      <c r="G278" s="280" t="str">
+      <c r="F268" s="279"/>
+      <c r="G268" s="280" t="str">
         <f>ev391apos!G278</f>
         <v>technosphere</v>
       </c>
-      <c r="H278" s="280" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="281" t="str">
+      <c r="H268" s="280" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="281" t="str">
         <f>ev391apos!A279</f>
         <v>mixed heating grid</v>
       </c>
-      <c r="B279" s="278">
+      <c r="B269" s="278">
         <f>ev391apos!B279</f>
         <v>-2.6476460232750001</v>
       </c>
-      <c r="C279" s="280" t="str">
+      <c r="C269" s="280" t="str">
         <f>ev391apos!C279</f>
         <v>mixed heating grid</v>
       </c>
-      <c r="D279" s="279" t="str">
+      <c r="D269" s="279" t="str">
         <f>ev391apos!D279</f>
         <v>GLO</v>
       </c>
-      <c r="E279" s="279" t="str">
+      <c r="E269" s="279" t="str">
         <f>ev391apos!E279</f>
         <v>megajoule</v>
       </c>
-      <c r="F279" s="279"/>
-      <c r="G279" s="280" t="str">
+      <c r="F269" s="279"/>
+      <c r="G269" s="280" t="str">
         <f>ev391apos!G279</f>
         <v>technosphere</v>
       </c>
-      <c r="H279" s="32" t="str">
+      <c r="H269" s="32" t="str">
         <f>ev391apos!H279</f>
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="281" t="str">
+    <row r="270" spans="1:8">
+      <c r="A270" s="281" t="str">
         <f>ev391apos!A280</f>
         <v>treatment of waste paper, unsorted, sorting</v>
       </c>
-      <c r="B280" s="282">
+      <c r="B270" s="282">
         <f>ev391apos!B280</f>
         <v>-3.16E-3</v>
       </c>
-      <c r="C280" s="280" t="s">
-        <v>164</v>
-      </c>
-      <c r="D280" s="279" t="s">
-        <v>99</v>
-      </c>
-      <c r="E280" s="279" t="str">
+      <c r="C270" s="280" t="s">
+        <v>161</v>
+      </c>
+      <c r="D270" s="279" t="s">
+        <v>98</v>
+      </c>
+      <c r="E270" s="279" t="str">
         <f>ev391apos!E280</f>
         <v>kilogram</v>
       </c>
-      <c r="F280" s="279"/>
-      <c r="G280" s="280" t="str">
+      <c r="F270" s="279"/>
+      <c r="G270" s="280" t="str">
         <f>ev391apos!G280</f>
         <v>technosphere</v>
       </c>
-      <c r="H280" s="280" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="15.75">
-      <c r="A282" s="157" t="str">
+      <c r="H270" s="280" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="15.75">
+      <c r="A272" s="157" t="str">
         <f>ev391apos!A282</f>
         <v>Activity</v>
       </c>
-      <c r="B282" s="158" t="str">
+      <c r="B272" s="158" t="str">
         <f>ev391apos!B282</f>
         <v>H200</v>
       </c>
-      <c r="C282" s="17"/>
-      <c r="D282" s="159"/>
-      <c r="E282" s="17"/>
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="160" t="str">
+      <c r="C272" s="17"/>
+      <c r="D272" s="159"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="17"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="160" t="str">
         <f>ev391apos!A283</f>
         <v>production amount</v>
       </c>
-      <c r="B283" s="161">
+      <c r="B273" s="161">
         <f>ev391apos!B283</f>
         <v>1</v>
       </c>
-      <c r="C283" s="17"/>
-      <c r="D283" s="17"/>
-      <c r="E283" s="17"/>
-      <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="160" t="str">
+      <c r="C273" s="17"/>
+      <c r="D273" s="17"/>
+      <c r="E273" s="17"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="17"/>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="160" t="str">
         <f>ev391apos!A284</f>
         <v>reference product</v>
       </c>
-      <c r="B284" s="162" t="str">
+      <c r="B274" s="162" t="str">
         <f>ev391apos!B284</f>
         <v>H200</v>
       </c>
-      <c r="C284" s="17"/>
-      <c r="D284" s="17"/>
-      <c r="E284" s="17"/>
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="160" t="str">
+      <c r="C274" s="17"/>
+      <c r="D274" s="17"/>
+      <c r="E274" s="17"/>
+      <c r="F274" s="17"/>
+      <c r="G274" s="17"/>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="160" t="str">
         <f>ev391apos!A285</f>
         <v>location</v>
       </c>
-      <c r="B285" s="163" t="str">
+      <c r="B275" s="163" t="str">
         <f>ev391apos!B285</f>
         <v>GLO</v>
       </c>
-      <c r="C285" s="17"/>
-      <c r="D285" s="17"/>
-      <c r="E285" s="17"/>
-      <c r="F285" s="17"/>
-      <c r="G285" s="17"/>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="160" t="str">
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="160" t="str">
         <f>ev391apos!A286</f>
         <v>unit</v>
       </c>
-      <c r="B286" s="16" t="str">
+      <c r="B276" s="16" t="str">
         <f>ev391apos!B286</f>
         <v>unit</v>
       </c>
-      <c r="C286" s="17"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
-    </row>
-    <row r="287" spans="1:8" ht="15.75">
-      <c r="A287" s="164" t="str">
+      <c r="C276" s="17"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="17"/>
+      <c r="F276" s="17"/>
+      <c r="G276" s="17"/>
+    </row>
+    <row r="277" spans="1:7" ht="15.75">
+      <c r="A277" s="164" t="str">
         <f>ev391apos!A287</f>
         <v>Exchanges</v>
       </c>
-      <c r="B287" s="158"/>
-      <c r="C287" s="164"/>
-      <c r="D287" s="164"/>
-      <c r="E287" s="164"/>
-      <c r="F287" s="164"/>
-      <c r="G287" s="164"/>
-    </row>
-    <row r="288" spans="1:8" ht="15.75">
-      <c r="A288" s="164" t="str">
+      <c r="B277" s="158"/>
+      <c r="C277" s="164"/>
+      <c r="D277" s="164"/>
+      <c r="E277" s="164"/>
+      <c r="F277" s="164"/>
+      <c r="G277" s="164"/>
+    </row>
+    <row r="278" spans="1:7" ht="15.75">
+      <c r="A278" s="164" t="str">
         <f>ev391apos!A288</f>
         <v>name</v>
       </c>
-      <c r="B288" s="164" t="str">
+      <c r="B278" s="164" t="str">
         <f>ev391apos!B288</f>
         <v>amount</v>
       </c>
-      <c r="C288" s="164" t="str">
+      <c r="C278" s="164" t="str">
         <f>ev391apos!C288</f>
         <v>reference product</v>
       </c>
-      <c r="D288" s="164" t="str">
+      <c r="D278" s="164" t="str">
         <f>ev391apos!D288</f>
         <v>location</v>
       </c>
-      <c r="E288" s="164" t="str">
+      <c r="E278" s="164" t="str">
         <f>ev391apos!E288</f>
         <v>unit</v>
       </c>
-      <c r="F288" s="164" t="str">
+      <c r="F278" s="164" t="str">
         <f>ev391apos!F288</f>
         <v>type</v>
       </c>
-      <c r="G288" s="164" t="str">
+      <c r="G278" s="164" t="str">
         <f>ev391apos!G288</f>
         <v>database</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="16" t="str">
+    <row r="279" spans="1:7">
+      <c r="A279" s="16" t="str">
         <f>ev391apos!A289</f>
         <v>H200</v>
       </c>
-      <c r="B289" s="15">
+      <c r="B279" s="15">
         <f>ev391apos!B289</f>
         <v>1</v>
       </c>
-      <c r="C289" s="16" t="str">
+      <c r="C279" s="16" t="str">
         <f>ev391apos!C289</f>
         <v>H200</v>
       </c>
-      <c r="D289" s="16" t="str">
+      <c r="D279" s="16" t="str">
         <f>ev391apos!D289</f>
         <v>GLO</v>
       </c>
-      <c r="E289" s="16" t="str">
+      <c r="E279" s="16" t="str">
         <f>ev391apos!E289</f>
         <v>unit</v>
       </c>
-      <c r="F289" s="17" t="str">
+      <c r="F279" s="17" t="str">
         <f>ev391apos!F289</f>
         <v>production</v>
       </c>
-      <c r="G289" s="16" t="str">
+      <c r="G279" s="16" t="str">
         <f>ev391apos!G289</f>
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="17" t="str">
+    <row r="280" spans="1:7">
+      <c r="A280" s="17" t="str">
         <f>ev391apos!A290</f>
         <v>market for textile, nonwoven polypropylene</v>
       </c>
-      <c r="B290" s="16">
+      <c r="B280" s="16">
         <f>ev391apos!B290</f>
         <v>6.3E-2</v>
       </c>
-      <c r="C290" s="165" t="str">
+      <c r="C280" s="165" t="str">
         <f>ev391apos!C290</f>
         <v>textile, nonwoven polypropylene</v>
       </c>
-      <c r="D290" s="17" t="str">
+      <c r="D280" s="17" t="str">
         <f>ev391apos!D290</f>
         <v>GLO</v>
       </c>
-      <c r="E290" s="17" t="str">
+      <c r="E280" s="17" t="str">
         <f>ev391apos!E290</f>
         <v>kilogram</v>
       </c>
-      <c r="F290" s="17" t="str">
+      <c r="F280" s="17" t="str">
         <f>ev391apos!F290</f>
         <v>technosphere</v>
       </c>
-      <c r="G290" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="17" t="str">
+      <c r="G280" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="17" t="str">
         <f>ev391apos!A291</f>
         <v>market for textile, nonwoven polypropylene</v>
       </c>
-      <c r="B291" s="16">
+      <c r="B281" s="16">
         <f>ev391apos!B291</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C291" s="165" t="str">
+      <c r="C281" s="165" t="str">
         <f>ev391apos!C291</f>
         <v>textile, nonwoven polypropylene</v>
       </c>
-      <c r="D291" s="17" t="str">
+      <c r="D281" s="17" t="str">
         <f>ev391apos!D291</f>
         <v>GLO</v>
       </c>
-      <c r="E291" s="17" t="str">
+      <c r="E281" s="17" t="str">
         <f>ev391apos!E291</f>
         <v>kilogram</v>
       </c>
-      <c r="F291" s="17" t="str">
+      <c r="F281" s="17" t="str">
         <f>ev391apos!F291</f>
         <v>technosphere</v>
       </c>
-      <c r="G291" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="166" t="str">
+      <c r="G281" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="166" t="str">
         <f>ev391apos!A292</f>
         <v>packaging film production, low density polyethylene</v>
       </c>
-      <c r="B292" s="162">
+      <c r="B282" s="162">
         <f>ev391apos!B292</f>
         <v>7.2700000000000004E-3</v>
       </c>
-      <c r="C292" s="166" t="str">
+      <c r="C282" s="166" t="str">
         <f>ev391apos!C292</f>
         <v>packaging film, low density polyethylene</v>
       </c>
-      <c r="D292" s="166" t="str">
+      <c r="D282" s="166" t="str">
         <f>ev391apos!D292</f>
         <v>RER</v>
       </c>
-      <c r="E292" s="166" t="str">
+      <c r="E282" s="166" t="str">
         <f>ev391apos!E292</f>
         <v>kilogram</v>
       </c>
-      <c r="F292" s="17" t="str">
+      <c r="F282" s="17" t="str">
         <f>ev391apos!F292</f>
         <v>technosphere</v>
       </c>
-      <c r="G292" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="167" t="str">
+      <c r="G282" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="167" t="str">
         <f>ev391apos!A293</f>
         <v>market for corrugated board box</v>
       </c>
-      <c r="B293" s="283">
+      <c r="B283" s="283">
         <f>ev391apos!B293</f>
         <v>2.8E-3</v>
       </c>
-      <c r="C293" s="17" t="str">
+      <c r="C283" s="17" t="str">
         <f>ev391apos!C293</f>
         <v>corrugated board box</v>
       </c>
-      <c r="D293" s="167" t="str">
+      <c r="D283" s="167" t="str">
         <f>ev391apos!D293</f>
         <v>RER</v>
       </c>
-      <c r="E293" s="166" t="str">
+      <c r="E283" s="166" t="str">
         <f>ev391apos!E293</f>
         <v>kilogram</v>
       </c>
-      <c r="F293" s="17" t="str">
+      <c r="F283" s="17" t="str">
         <f>ev391apos!F293</f>
         <v>technosphere</v>
       </c>
-      <c r="G293" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="167" t="str">
+      <c r="G283" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="167" t="str">
         <f>ev391apos!A294</f>
         <v>market for transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
-      <c r="B294" s="283">
+      <c r="B284" s="283">
         <f>ev391apos!B294</f>
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="C294" s="17" t="str">
+      <c r="C284" s="17" t="str">
         <f>ev391apos!C294</f>
         <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
-      <c r="D294" s="167" t="str">
+      <c r="D284" s="167" t="str">
         <f>ev391apos!D294</f>
         <v>RER</v>
       </c>
-      <c r="E294" s="167" t="str">
+      <c r="E284" s="167" t="str">
         <f>ev391apos!E294</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F294" s="17" t="str">
+      <c r="F284" s="17" t="str">
         <f>ev391apos!F294</f>
         <v>technosphere</v>
       </c>
-      <c r="G294" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="167" t="str">
+      <c r="G284" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="167" t="str">
         <f>ev391apos!A295</f>
         <v>market for transport, freight train</v>
       </c>
-      <c r="B295" s="283">
+      <c r="B285" s="283">
         <f>ev391apos!B295</f>
         <v>1.8100000000000001E-4</v>
       </c>
-      <c r="C295" s="17" t="str">
+      <c r="C285" s="17" t="str">
         <f>ev391apos!C295</f>
         <v>transport, freight train</v>
       </c>
-      <c r="D295" s="167" t="str">
+      <c r="D285" s="167" t="str">
         <f>ev391apos!D295</f>
         <v>US</v>
       </c>
-      <c r="E295" s="167" t="str">
+      <c r="E285" s="167" t="str">
         <f>ev391apos!E295</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F295" s="17" t="str">
+      <c r="F285" s="17" t="str">
         <f>ev391apos!F295</f>
         <v>technosphere</v>
       </c>
-      <c r="G295" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="167" t="str">
+      <c r="G285" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="167" t="str">
         <f>ev391apos!A296</f>
         <v>market for transport, freight, sea, container ship</v>
       </c>
-      <c r="B296" s="283">
+      <c r="B286" s="283">
         <f>ev391apos!B296</f>
         <v>3.3300000000000001E-3</v>
       </c>
-      <c r="C296" s="17" t="str">
+      <c r="C286" s="17" t="str">
         <f>ev391apos!C296</f>
         <v>transport, freight, sea, container ship</v>
       </c>
-      <c r="D296" s="167" t="str">
+      <c r="D286" s="167" t="str">
         <f>ev391apos!D296</f>
         <v>GLO</v>
       </c>
-      <c r="E296" s="167" t="str">
+      <c r="E286" s="167" t="str">
         <f>ev391apos!E296</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F296" s="17" t="str">
+      <c r="F286" s="17" t="str">
         <f>ev391apos!F296</f>
         <v>technosphere</v>
       </c>
-      <c r="G296" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="167" t="str">
+      <c r="G286" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="167" t="str">
         <f>ev391apos!A297</f>
         <v>market for transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
-      <c r="B297" s="284">
+      <c r="B287" s="284">
         <f>ev391apos!B297</f>
         <v>4.1300000000000001E-5</v>
       </c>
-      <c r="C297" s="17" t="str">
+      <c r="C287" s="17" t="str">
         <f>ev391apos!C297</f>
         <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
-      <c r="D297" s="167" t="str">
+      <c r="D287" s="167" t="str">
         <f>ev391apos!D297</f>
         <v>RER</v>
       </c>
-      <c r="E297" s="168" t="str">
+      <c r="E287" s="168" t="str">
         <f>ev391apos!E297</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F297" s="17" t="str">
+      <c r="F287" s="17" t="str">
         <f>ev391apos!F297</f>
         <v>technosphere</v>
       </c>
-      <c r="G297" s="17" t="s">
-        <v>34</v>
+      <c r="G287" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/databases/case2.xlsx
+++ b/Data/databases/case2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB45D66-B29C-4FBE-9DED-49F8A3473A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E794F9E9-4058-4D7B-9CB6-A7980EE6BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="170">
   <si>
     <t>Database</t>
   </si>
@@ -542,6 +542,12 @@
   <si>
     <t>heat production, at heat pump 30kW, allocation exergy</t>
   </si>
+  <si>
+    <t>market for heat pump, 30kW</t>
+  </si>
+  <si>
+    <t>heat pump, 30kW</t>
+  </si>
 </sst>
 </file>
 
@@ -609,7 +615,7 @@
       <name val="Calibri (body)"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +795,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -806,7 +818,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1262,6 +1274,16 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -6951,10 +6973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916DA13D-3ACD-4FB0-8444-EE0A0D72880A}">
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11491,7 +11513,7 @@
         <v>128</v>
       </c>
       <c r="D214" s="122" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E214" s="122" t="s">
         <v>18</v>
@@ -11501,8 +11523,9 @@
         <f>ev391apos!G238</f>
         <v>technosphere</v>
       </c>
-      <c r="H214" s="122" t="s">
-        <v>27</v>
+      <c r="H214" s="130" t="str">
+        <f>$B$1</f>
+        <v>case2_consq</v>
       </c>
       <c r="I214"/>
     </row>
@@ -13165,6 +13188,192 @@
         <v>23</v>
       </c>
       <c r="H299" s="331" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="15.75">
+      <c r="A301" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B301" s="351" t="s">
+        <v>167</v>
+      </c>
+      <c r="C301" s="146"/>
+      <c r="D301" s="147"/>
+      <c r="E301" s="146"/>
+      <c r="F301" s="148"/>
+      <c r="G301" s="146"/>
+      <c r="H301" s="146"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="150">
+        <v>1</v>
+      </c>
+      <c r="C302" s="146"/>
+      <c r="D302" s="146"/>
+      <c r="E302" s="146"/>
+      <c r="F302" s="148"/>
+      <c r="G302" s="146"/>
+      <c r="H302" s="146"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" s="352" t="s">
+        <v>128</v>
+      </c>
+      <c r="C303" s="146"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="146"/>
+      <c r="F303" s="148"/>
+      <c r="G303" s="146"/>
+      <c r="H303" s="146"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="C304" s="146"/>
+      <c r="D304" s="146"/>
+      <c r="E304" s="146"/>
+      <c r="F304" s="148"/>
+      <c r="G304" s="146"/>
+      <c r="H304" s="146"/>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305" s="146"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="146"/>
+      <c r="F305" s="148"/>
+      <c r="G305" s="146"/>
+      <c r="H305" s="146"/>
+    </row>
+    <row r="306" spans="1:8" ht="15.75">
+      <c r="A306" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="145"/>
+      <c r="C306" s="153"/>
+      <c r="D306" s="153"/>
+      <c r="E306" s="153"/>
+      <c r="F306" s="148"/>
+      <c r="G306" s="153"/>
+      <c r="H306" s="153"/>
+    </row>
+    <row r="307" spans="1:8" ht="15.75">
+      <c r="A307" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B307" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="D307" s="153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" s="153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F307" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H307" s="153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="151" t="str">
+        <f>B301</f>
+        <v>heat production, at heat pump 30kW, allocation exergy</v>
+      </c>
+      <c r="B308" s="155">
+        <f>B302</f>
+        <v>1</v>
+      </c>
+      <c r="C308" s="151" t="str">
+        <f>B303</f>
+        <v>heat, central or small-scale, other than natural gas</v>
+      </c>
+      <c r="D308" s="151" t="str">
+        <f>B304</f>
+        <v>DK</v>
+      </c>
+      <c r="E308" s="151" t="str">
+        <f>B305</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F308" s="148"/>
+      <c r="G308" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="H308" s="151" t="str">
+        <f>$B$1</f>
+        <v>case2_consq</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="353" t="s">
+        <v>93</v>
+      </c>
+      <c r="B309" s="354">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="C309" s="355" t="s">
+        <v>94</v>
+      </c>
+      <c r="D309" s="356" t="s">
+        <v>95</v>
+      </c>
+      <c r="E309" s="356" t="s">
+        <v>17</v>
+      </c>
+      <c r="F309" s="356"/>
+      <c r="G309" s="355" t="s">
+        <v>23</v>
+      </c>
+      <c r="H309" s="355" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="B310" s="156">
+        <v>3.47E-8</v>
+      </c>
+      <c r="C310" s="148" t="s">
+        <v>169</v>
+      </c>
+      <c r="D310" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E310" s="356" t="s">
+        <v>6</v>
+      </c>
+      <c r="F310" s="148"/>
+      <c r="G310" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="H310" s="148" t="s">
         <v>27</v>
       </c>
     </row>
@@ -19391,21 +19600,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Data/databases/case2.xlsx
+++ b/Data/databases/case2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E794F9E9-4058-4D7B-9CB6-A7980EE6BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CEB220-164D-4671-B2F9-7B904DADE7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="20190" windowHeight="20445" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="169">
   <si>
     <t>Database</t>
   </si>
@@ -537,9 +537,6 @@
     <t>H2S</t>
   </si>
   <si>
-    <t>ROW</t>
-  </si>
-  <si>
     <t>heat production, at heat pump 30kW, allocation exergy</t>
   </si>
   <si>
@@ -818,7 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1269,7 +1266,6 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="5" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1284,6 +1280,14 @@
     <xf numFmtId="2" fontId="5" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1520,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,7 +1694,7 @@
         <f>A76</f>
         <v>SUD packgaging materials</v>
       </c>
-      <c r="B11" s="350">
+      <c r="B11" s="349">
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="C11" s="37" t="str">
@@ -1770,7 +1774,7 @@
       <c r="A14" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="350">
+      <c r="B14" s="349">
         <v>-0.84100660000000005</v>
       </c>
       <c r="C14" s="37" t="s">
@@ -1794,14 +1798,14 @@
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="350">
+      <c r="B15" s="349">
         <v>-4.2050332499999996</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -1820,7 +1824,7 @@
         <f>A200</f>
         <v>transport</v>
       </c>
-      <c r="B16" s="350">
+      <c r="B16" s="349">
         <v>4.76221188185003E-2</v>
       </c>
       <c r="C16" s="37" t="str">
@@ -1844,14 +1848,14 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="str">
-        <f>A249</f>
+        <f>A248</f>
         <v>eol SUD</v>
       </c>
-      <c r="B17" s="350">
+      <c r="B17" s="349">
         <v>-0.19031802197973299</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f>C249</f>
+        <f>C248</f>
         <v>eol</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1882,7 +1886,7 @@
         <v>electricity consumption</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>6</v>
@@ -2152,7 +2156,7 @@
         <v>dishwaser cycle</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>6</v>
@@ -2168,7 +2172,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="28" t="str">
-        <f>A274</f>
+        <f>A273</f>
         <v>H200 SU</v>
       </c>
       <c r="B33" s="31">
@@ -2176,7 +2180,7 @@
         <v>0.25</v>
       </c>
       <c r="C33" s="28" t="str">
-        <f>C274</f>
+        <f>C273</f>
         <v>H2S</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -2198,7 +2202,7 @@
       <c r="A34" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="349">
+      <c r="B34" s="348">
         <f>1/(12*4)</f>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>104</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>6</v>
@@ -2258,7 +2262,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>18</v>
@@ -2298,14 +2302,14 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="23" t="str">
-        <f>A262</f>
+        <f>A261</f>
         <v>eol MUD</v>
       </c>
       <c r="B38" s="287">
         <v>-6.9577838072522298E-3</v>
       </c>
       <c r="C38" s="23" t="str">
-        <f>C262</f>
+        <f>C261</f>
         <v>eol</v>
       </c>
       <c r="D38" s="23" t="s">
@@ -2365,7 +2369,7 @@
       </c>
       <c r="D40" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E40" s="38" t="str">
         <f t="shared" si="2"/>
@@ -2522,14 +2526,14 @@
       <c r="A50" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="362">
         <v>0.51761638185036896</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E50" s="43" t="s">
         <v>17</v>
@@ -2546,7 +2550,7 @@
       <c r="A51" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="362">
         <v>503.11306089734097</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -2570,7 +2574,7 @@
       <c r="A52" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="362">
         <v>-0.47242316418260299</v>
       </c>
       <c r="C52" s="43" t="s">
@@ -2732,7 +2736,7 @@
       <c r="A62" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="57">
+      <c r="B62" s="65">
         <v>8.1936987704917998E-3</v>
       </c>
       <c r="C62" s="57" t="s">
@@ -2756,7 +2760,7 @@
       <c r="A63" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="57">
+      <c r="B63" s="65">
         <v>3.849E-3</v>
       </c>
       <c r="C63" s="57" t="s">
@@ -2780,7 +2784,7 @@
       <c r="A64" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="57">
+      <c r="B64" s="65">
         <v>3.0635245901639301E-4</v>
       </c>
       <c r="C64" s="57" t="s">
@@ -2804,7 +2808,7 @@
       <c r="A65" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="57">
+      <c r="B65" s="65">
         <v>8.1936987704917998E-3</v>
       </c>
       <c r="C65" s="57" t="s">
@@ -2828,7 +2832,7 @@
       <c r="A66" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="57">
+      <c r="B66" s="65">
         <v>4.86127049180327E-3</v>
       </c>
       <c r="C66" s="57" t="s">
@@ -2852,7 +2856,7 @@
       <c r="A67" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="57">
+      <c r="B67" s="65">
         <v>9.3611680327868804E-3</v>
       </c>
       <c r="C67" s="57" t="s">
@@ -3014,7 +3018,7 @@
       <c r="A77" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="70">
+      <c r="B77" s="363">
         <v>4.8857658705755397E-2</v>
       </c>
       <c r="C77" s="70" t="s">
@@ -3038,7 +3042,7 @@
       <c r="A78" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="70">
+      <c r="B78" s="363">
         <v>0.65943265945123697</v>
       </c>
       <c r="C78" s="70" t="s">
@@ -3062,7 +3066,7 @@
       <c r="A79" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="70">
+      <c r="B79" s="363">
         <v>0.291709681843007</v>
       </c>
       <c r="C79" s="70" t="s">
@@ -3327,7 +3331,7 @@
         <v>39</v>
       </c>
       <c r="D93" s="83" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E93" s="83" t="s">
         <v>17</v>
@@ -3482,7 +3486,7 @@
       <c r="A103" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="96">
+      <c r="B103" s="360">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C103" s="96" t="s">
@@ -3506,7 +3510,7 @@
       <c r="A104" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="96">
+      <c r="B104" s="360">
         <v>0.92500000000000004</v>
       </c>
       <c r="C104" s="96" t="s">
@@ -4219,7 +4223,7 @@
         <v>dishwaser cycle</v>
       </c>
       <c r="D143" s="135" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E143" s="135" t="s">
         <v>6</v>
@@ -4244,7 +4248,7 @@
         <v>30</v>
       </c>
       <c r="D144" s="135" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E144" s="135" t="s">
         <v>6</v>
@@ -4488,7 +4492,7 @@
         <v>4</v>
       </c>
       <c r="B160" s="176" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C160" s="171"/>
       <c r="D160" s="171"/>
@@ -4558,7 +4562,7 @@
       </c>
       <c r="D164" s="177" t="str">
         <f>B160</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E164" s="177" t="str">
         <f>B161</f>
@@ -4734,7 +4738,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="193" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C174" s="187"/>
       <c r="D174" s="187"/>
@@ -4810,7 +4814,7 @@
       </c>
       <c r="D178" s="194" t="str">
         <f>B174</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E178" s="194" t="str">
         <f>B175</f>
@@ -4944,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="B186" s="210" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C186" s="204"/>
       <c r="D186" s="204"/>
@@ -5020,7 +5024,7 @@
       </c>
       <c r="D190" s="211" t="str">
         <f>B186</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E190" s="211" t="str">
         <f>B187</f>
@@ -5039,7 +5043,7 @@
       <c r="A191" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="B191" s="215">
+      <c r="B191" s="357">
         <f>(56/60*40 + 500 * 4/60)/1000</f>
         <v>7.0666666666666669E-2</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="238" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C206" s="232"/>
       <c r="D206" s="232"/>
@@ -5345,7 +5349,7 @@
       </c>
       <c r="D210" s="237" t="str">
         <f>B206</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E210" s="237" t="str">
         <f>B207</f>
@@ -5431,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="244" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C216" s="244"/>
       <c r="D216" s="244"/>
@@ -5507,7 +5511,7 @@
       </c>
       <c r="D220" s="249" t="str">
         <f t="shared" ref="D220" si="6">B216</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E220" s="249" t="str">
         <f t="shared" ref="E220" si="7">B217</f>
@@ -5546,23 +5550,23 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="244" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B222" s="244">
-        <v>1</v>
+        <v>6.5544999999999996E-8</v>
       </c>
       <c r="C222" s="244" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D222" s="244" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="E222" s="244" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F222" s="244"/>
       <c r="G222" s="244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H222" s="251" t="s">
         <v>24</v>
@@ -5570,19 +5574,19 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="244" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B223" s="244">
-        <v>6.5544999999999996E-8</v>
+        <v>0.23457</v>
       </c>
       <c r="C223" s="244" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D223" s="244" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E223" s="244" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F223" s="244"/>
       <c r="G223" s="244" t="s">
@@ -5594,19 +5598,19 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="244" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B224" s="244">
-        <v>0.23457</v>
+        <v>6.5544999999999996E-8</v>
       </c>
       <c r="C224" s="244" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D224" s="244" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E224" s="244" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F224" s="244"/>
       <c r="G224" s="244" t="s">
@@ -5616,36 +5620,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="244" t="s">
-        <v>120</v>
-      </c>
-      <c r="B225" s="244">
-        <v>6.5544999999999996E-8</v>
-      </c>
-      <c r="C225" s="244" t="s">
-        <v>121</v>
-      </c>
-      <c r="D225" s="244" t="s">
-        <v>119</v>
-      </c>
-      <c r="E225" s="244" t="s">
-        <v>6</v>
-      </c>
-      <c r="F225" s="244"/>
-      <c r="G225" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="H225" s="251" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="15.75">
-      <c r="A227" s="253" t="s">
+    <row r="226" spans="1:8" ht="15.75">
+      <c r="A226" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="B227" s="253" t="s">
+      <c r="B226" s="253" t="s">
         <v>14</v>
+      </c>
+      <c r="C226" s="122"/>
+      <c r="D226" s="122"/>
+      <c r="E226" s="122"/>
+      <c r="F226" s="122"/>
+      <c r="G226" s="122"/>
+      <c r="H226" s="122"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" s="254">
+        <v>1</v>
       </c>
       <c r="C227" s="122"/>
       <c r="D227" s="122"/>
@@ -5656,10 +5650,10 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="B228" s="254">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B228" s="122" t="s">
+        <v>14</v>
       </c>
       <c r="C228" s="122"/>
       <c r="D228" s="122"/>
@@ -5670,10 +5664,10 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="122" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B229" s="122" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C229" s="122"/>
       <c r="D229" s="122"/>
@@ -5684,10 +5678,10 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="122" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B230" s="122" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C230" s="122"/>
       <c r="D230" s="122"/>
@@ -5696,13 +5690,11 @@
       <c r="G230" s="122"/>
       <c r="H230" s="122"/>
     </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" s="122" t="s">
-        <v>18</v>
-      </c>
+    <row r="231" spans="1:8" ht="15.75">
+      <c r="A231" s="253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="122"/>
       <c r="C231" s="122"/>
       <c r="D231" s="122"/>
       <c r="E231" s="122"/>
@@ -5711,85 +5703,98 @@
       <c r="H231" s="122"/>
     </row>
     <row r="232" spans="1:8" ht="15.75">
-      <c r="A232" s="253" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232" s="122"/>
-      <c r="C232" s="122"/>
-      <c r="D232" s="122"/>
-      <c r="E232" s="122"/>
-      <c r="F232" s="122"/>
-      <c r="G232" s="122"/>
-      <c r="H232" s="122"/>
-    </row>
-    <row r="233" spans="1:8" ht="15.75">
-      <c r="A233" s="127" t="s">
+      <c r="A232" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B233" s="127" t="s">
+      <c r="B232" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C233" s="127" t="s">
+      <c r="C232" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D233" s="127" t="s">
+      <c r="D232" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="E233" s="127" t="s">
+      <c r="E232" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F233" s="128" t="s">
+      <c r="F232" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="G233" s="127" t="s">
+      <c r="G232" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="H233" s="127" t="s">
+      <c r="H232" s="127" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="122" t="str">
+        <f>B226</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="B233" s="255">
+        <f>B227</f>
+        <v>1</v>
+      </c>
+      <c r="C233" s="122" t="str">
+        <f>B228</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="D233" s="122" t="str">
+        <f>B229</f>
+        <v>DK</v>
+      </c>
+      <c r="E233" s="122" t="str">
+        <f>B230</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F233" s="122"/>
+      <c r="G233" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" s="122" t="str">
+        <f t="shared" ref="H233:H234" si="9">$B$1</f>
+        <v>case2_apos</v>
+      </c>
+    </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="122" t="str">
-        <f>B227</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="B234" s="255">
-        <f>B228</f>
-        <v>1</v>
-      </c>
-      <c r="C234" s="122" t="str">
-        <f>B229</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="D234" s="122" t="str">
-        <f>B230</f>
-        <v>GLO</v>
-      </c>
-      <c r="E234" s="122" t="str">
-        <f>B231</f>
-        <v>megajoule</v>
+      <c r="A234" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B234" s="122">
+        <v>0.1026</v>
+      </c>
+      <c r="C234" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D234" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="E234" s="122" t="s">
+        <v>18</v>
       </c>
       <c r="F234" s="122"/>
       <c r="G234" s="122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H234" s="122" t="str">
-        <f t="shared" ref="H234:H235" si="9">$B$1</f>
+        <f t="shared" si="9"/>
         <v>case2_apos</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="122" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B235" s="122">
-        <v>0.1026</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="C235" s="122" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D235" s="122" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E235" s="122" t="s">
         <v>18</v>
@@ -5798,23 +5803,22 @@
       <c r="G235" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H235" s="122" t="str">
-        <f t="shared" si="9"/>
-        <v>case2_apos</v>
+      <c r="H235" s="122" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="122" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B236" s="122">
-        <v>5.1299999999999998E-2</v>
+        <v>0.44869999999999999</v>
       </c>
       <c r="C236" s="122" t="s">
         <v>123</v>
       </c>
       <c r="D236" s="122" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E236" s="122" t="s">
         <v>18</v>
@@ -5829,16 +5833,16 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B237" s="122">
-        <v>0.44869999999999999</v>
+        <v>0.20513000000000001</v>
       </c>
       <c r="C237" s="122" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D237" s="122" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E237" s="122" t="s">
         <v>18</v>
@@ -5853,16 +5857,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="122" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B238" s="122">
-        <v>0.20513000000000001</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="C238" s="122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D238" s="122" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E238" s="122" t="s">
         <v>18</v>
@@ -5877,16 +5881,16 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="122" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B239" s="122">
-        <v>0.17949999999999999</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="C239" s="122" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D239" s="122" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E239" s="122" t="s">
         <v>18</v>
@@ -5899,36 +5903,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="B240" s="122">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="C240" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="D240" s="122" t="s">
-        <v>98</v>
-      </c>
-      <c r="E240" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F240" s="122"/>
-      <c r="G240" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="H240" s="122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="15.75">
-      <c r="A242" s="262" t="s">
+    <row r="241" spans="1:8" ht="15.75">
+      <c r="A241" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="262" t="s">
+      <c r="B241" s="262" t="s">
         <v>130</v>
+      </c>
+      <c r="C241" s="263"/>
+      <c r="D241" s="263"/>
+      <c r="E241" s="263"/>
+      <c r="F241" s="263"/>
+      <c r="G241" s="263"/>
+      <c r="H241" s="263"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="264">
+        <v>1</v>
       </c>
       <c r="C242" s="263"/>
       <c r="D242" s="263"/>
@@ -5939,10 +5933,10 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="263" t="s">
-        <v>2</v>
-      </c>
-      <c r="B243" s="264">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B243" s="263" t="s">
+        <v>131</v>
       </c>
       <c r="C243" s="263"/>
       <c r="D243" s="263"/>
@@ -5953,10 +5947,10 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="263" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B244" s="263" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C244" s="263"/>
       <c r="D244" s="263"/>
@@ -5967,10 +5961,10 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="263" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B245" s="263" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C245" s="263"/>
       <c r="D245" s="263"/>
@@ -5979,13 +5973,11 @@
       <c r="G245" s="263"/>
       <c r="H245" s="263"/>
     </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="263" t="s">
-        <v>6</v>
-      </c>
-      <c r="B246" s="263" t="s">
-        <v>19</v>
-      </c>
+    <row r="246" spans="1:8" ht="15.75">
+      <c r="A246" s="262" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="263"/>
       <c r="C246" s="263"/>
       <c r="D246" s="263"/>
       <c r="E246" s="263"/>
@@ -5994,85 +5986,97 @@
       <c r="H246" s="263"/>
     </row>
     <row r="247" spans="1:8" ht="15.75">
-      <c r="A247" s="262" t="s">
-        <v>7</v>
-      </c>
-      <c r="B247" s="263"/>
-      <c r="C247" s="263"/>
-      <c r="D247" s="263"/>
-      <c r="E247" s="263"/>
-      <c r="F247" s="263"/>
-      <c r="G247" s="263"/>
-      <c r="H247" s="263"/>
-    </row>
-    <row r="248" spans="1:8" ht="15.75">
-      <c r="A248" s="265" t="s">
+      <c r="A247" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="B248" s="265" t="s">
+      <c r="B247" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="C248" s="265" t="s">
+      <c r="C247" s="265" t="s">
         <v>3</v>
       </c>
-      <c r="D248" s="265" t="s">
+      <c r="D247" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="E248" s="265" t="s">
+      <c r="E247" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="F248" s="266" t="s">
+      <c r="F247" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="G248" s="265" t="s">
+      <c r="G247" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="H248" s="265" t="s">
+      <c r="H247" s="265" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="263" t="str">
+        <f>B241</f>
+        <v>eol SUD</v>
+      </c>
+      <c r="B248" s="267">
+        <f>B242</f>
+        <v>1</v>
+      </c>
+      <c r="C248" s="263" t="str">
+        <f>B243</f>
+        <v>eol</v>
+      </c>
+      <c r="D248" s="263" t="str">
+        <f>B244</f>
+        <v>GLO</v>
+      </c>
+      <c r="E248" s="263" t="str">
+        <f>B245</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F248" s="263"/>
+      <c r="G248" s="263" t="s">
+        <v>22</v>
+      </c>
+      <c r="H248" s="263" t="str">
+        <f t="shared" ref="H248" si="10">$B$1</f>
+        <v>case2_apos</v>
+      </c>
+    </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="263" t="str">
-        <f>B242</f>
-        <v>eol SUD</v>
-      </c>
-      <c r="B249" s="267">
-        <f>B243</f>
-        <v>1</v>
-      </c>
-      <c r="C249" s="263" t="str">
-        <f>B244</f>
-        <v>eol</v>
-      </c>
-      <c r="D249" s="263" t="str">
-        <f>B245</f>
-        <v>GLO</v>
-      </c>
-      <c r="E249" s="263" t="str">
-        <f>B246</f>
-        <v>kilogram</v>
+      <c r="A249" s="263" t="s">
+        <v>136</v>
+      </c>
+      <c r="B249" s="263">
+        <v>4.1554130910640599E-2</v>
+      </c>
+      <c r="C249" s="263" t="s">
+        <v>132</v>
+      </c>
+      <c r="D249" s="263" t="s">
+        <v>98</v>
+      </c>
+      <c r="E249" s="263" t="s">
+        <v>19</v>
       </c>
       <c r="F249" s="263"/>
       <c r="G249" s="263" t="s">
-        <v>22</v>
-      </c>
-      <c r="H249" s="263" t="str">
-        <f t="shared" ref="H249" si="10">$B$1</f>
-        <v>case2_apos</v>
+        <v>23</v>
+      </c>
+      <c r="H249" s="263" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="263" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B250" s="263">
-        <v>4.1554130910640599E-2</v>
+        <v>0.271672758270046</v>
       </c>
       <c r="C250" s="263" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D250" s="263" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E250" s="263" t="s">
         <v>19</v>
@@ -6087,13 +6091,13 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="263" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B251" s="263">
-        <v>0.271672758270046</v>
+        <v>0.52743927745681096</v>
       </c>
       <c r="C251" s="263" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D251" s="263" t="s">
         <v>119</v>
@@ -6111,13 +6115,13 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="263" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B252" s="263">
-        <v>0.52743927745681096</v>
+        <v>0.15933383336250301</v>
       </c>
       <c r="C252" s="263" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D252" s="263" t="s">
         <v>119</v>
@@ -6133,36 +6137,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="263" t="s">
-        <v>139</v>
-      </c>
-      <c r="B253" s="263">
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C253" s="263" t="s">
-        <v>135</v>
-      </c>
-      <c r="D253" s="263" t="s">
-        <v>119</v>
-      </c>
-      <c r="E253" s="263" t="s">
-        <v>19</v>
-      </c>
-      <c r="F253" s="263"/>
-      <c r="G253" s="263" t="s">
-        <v>23</v>
-      </c>
-      <c r="H253" s="263" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.75">
-      <c r="A255" s="256" t="s">
+    <row r="254" spans="1:8" ht="15.75">
+      <c r="A254" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="B255" s="256" t="s">
+      <c r="B254" s="256" t="s">
         <v>140</v>
+      </c>
+      <c r="C254" s="257"/>
+      <c r="D254" s="257"/>
+      <c r="E254" s="257"/>
+      <c r="F254" s="257"/>
+      <c r="G254" s="257"/>
+      <c r="H254" s="257"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="258">
+        <v>1</v>
       </c>
       <c r="C255" s="257"/>
       <c r="D255" s="257"/>
@@ -6173,10 +6167,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="257" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" s="258">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B256" s="257" t="s">
+        <v>131</v>
       </c>
       <c r="C256" s="257"/>
       <c r="D256" s="257"/>
@@ -6187,10 +6181,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="257" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B257" s="257" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C257" s="257"/>
       <c r="D257" s="257"/>
@@ -6201,10 +6195,10 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="257" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B258" s="257" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C258" s="257"/>
       <c r="D258" s="257"/>
@@ -6213,13 +6207,11 @@
       <c r="G258" s="257"/>
       <c r="H258" s="257"/>
     </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="257" t="s">
-        <v>6</v>
-      </c>
-      <c r="B259" s="257" t="s">
-        <v>19</v>
-      </c>
+    <row r="259" spans="1:8" ht="15.75">
+      <c r="A259" s="256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" s="257"/>
       <c r="C259" s="257"/>
       <c r="D259" s="257"/>
       <c r="E259" s="257"/>
@@ -6228,85 +6220,97 @@
       <c r="H259" s="257"/>
     </row>
     <row r="260" spans="1:8" ht="15.75">
-      <c r="A260" s="256" t="s">
-        <v>7</v>
-      </c>
-      <c r="B260" s="257"/>
-      <c r="C260" s="257"/>
-      <c r="D260" s="257"/>
-      <c r="E260" s="257"/>
-      <c r="F260" s="257"/>
-      <c r="G260" s="257"/>
-      <c r="H260" s="257"/>
-    </row>
-    <row r="261" spans="1:8" ht="15.75">
-      <c r="A261" s="259" t="s">
+      <c r="A260" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="B261" s="259" t="s">
+      <c r="B260" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="C261" s="259" t="s">
+      <c r="C260" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="D261" s="259" t="s">
+      <c r="D260" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="E261" s="259" t="s">
+      <c r="E260" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="F261" s="260" t="s">
+      <c r="F260" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="G261" s="259" t="s">
+      <c r="G260" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="H261" s="259" t="s">
+      <c r="H260" s="259" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="257" t="str">
+        <f>B254</f>
+        <v>eol MUD</v>
+      </c>
+      <c r="B261" s="261">
+        <f>B255</f>
+        <v>1</v>
+      </c>
+      <c r="C261" s="257" t="str">
+        <f>B256</f>
+        <v>eol</v>
+      </c>
+      <c r="D261" s="257" t="str">
+        <f>B257</f>
+        <v>GLO</v>
+      </c>
+      <c r="E261" s="257" t="str">
+        <f>B258</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F261" s="257"/>
+      <c r="G261" s="257" t="s">
+        <v>22</v>
+      </c>
+      <c r="H261" s="257" t="str">
+        <f t="shared" ref="H261" si="11">$B$1</f>
+        <v>case2_apos</v>
+      </c>
+    </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="257" t="str">
-        <f>B255</f>
-        <v>eol MUD</v>
-      </c>
-      <c r="B262" s="261">
-        <f>B256</f>
-        <v>1</v>
-      </c>
-      <c r="C262" s="257" t="str">
-        <f>B257</f>
-        <v>eol</v>
-      </c>
-      <c r="D262" s="257" t="str">
-        <f>B258</f>
-        <v>GLO</v>
-      </c>
-      <c r="E262" s="257" t="str">
-        <f>B259</f>
-        <v>kilogram</v>
+      <c r="A262" s="257" t="s">
+        <v>136</v>
+      </c>
+      <c r="B262" s="257">
+        <v>4.1554130910640599E-2</v>
+      </c>
+      <c r="C262" s="257" t="s">
+        <v>132</v>
+      </c>
+      <c r="D262" s="257" t="s">
+        <v>98</v>
+      </c>
+      <c r="E262" s="257" t="s">
+        <v>19</v>
       </c>
       <c r="F262" s="257"/>
       <c r="G262" s="257" t="s">
-        <v>22</v>
-      </c>
-      <c r="H262" s="257" t="str">
-        <f t="shared" ref="H262" si="11">$B$1</f>
-        <v>case2_apos</v>
+        <v>23</v>
+      </c>
+      <c r="H262" s="257" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="257" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B263" s="257">
-        <v>4.1554130910640599E-2</v>
+        <v>0.52743927745681096</v>
       </c>
       <c r="C263" s="257" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D263" s="257" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E263" s="257" t="s">
         <v>19</v>
@@ -6321,13 +6325,13 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="257" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B264" s="257">
-        <v>0.52743927745681096</v>
+        <v>0.15933383336250301</v>
       </c>
       <c r="C264" s="257" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D264" s="257" t="s">
         <v>119</v>
@@ -6343,39 +6347,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="257" t="s">
-        <v>139</v>
-      </c>
-      <c r="B265" s="257">
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C265" s="257" t="s">
-        <v>135</v>
-      </c>
-      <c r="D265" s="257" t="s">
-        <v>119</v>
-      </c>
-      <c r="E265" s="257" t="s">
-        <v>19</v>
-      </c>
-      <c r="F265" s="257"/>
-      <c r="G265" s="257" t="s">
-        <v>23</v>
-      </c>
-      <c r="H265" s="257" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="15.75">
-      <c r="A267" s="268" t="s">
+    <row r="266" spans="1:8" ht="15.75">
+      <c r="A266" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="B267" s="269" t="s">
+      <c r="B266" s="269" t="s">
         <v>141</v>
       </c>
+      <c r="C266" s="35"/>
+      <c r="D266" s="270"/>
+      <c r="E266" s="35"/>
+      <c r="F266" s="34"/>
+      <c r="G266" s="35"/>
+      <c r="H266" s="35"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" s="272">
+        <v>1</v>
+      </c>
       <c r="C267" s="35"/>
-      <c r="D267" s="270"/>
+      <c r="D267" s="35"/>
       <c r="E267" s="35"/>
       <c r="F267" s="34"/>
       <c r="G267" s="35"/>
@@ -6383,10 +6377,10 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="271" t="s">
-        <v>2</v>
-      </c>
-      <c r="B268" s="272">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B268" s="273" t="s">
+        <v>165</v>
       </c>
       <c r="C268" s="35"/>
       <c r="D268" s="35"/>
@@ -6397,10 +6391,10 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="271" t="s">
-        <v>3</v>
-      </c>
-      <c r="B269" s="273" t="s">
-        <v>165</v>
+        <v>4</v>
+      </c>
+      <c r="B269" s="274" t="s">
+        <v>5</v>
       </c>
       <c r="C269" s="35"/>
       <c r="D269" s="35"/>
@@ -6411,10 +6405,10 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="271" t="s">
-        <v>4</v>
-      </c>
-      <c r="B270" s="274" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B270" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C270" s="35"/>
       <c r="D270" s="35"/>
@@ -6423,82 +6417,93 @@
       <c r="G270" s="35"/>
       <c r="H270" s="35"/>
     </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="271" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C271" s="35"/>
-      <c r="D271" s="35"/>
-      <c r="E271" s="35"/>
+    <row r="271" spans="1:8" ht="15.75">
+      <c r="A271" s="275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" s="269"/>
+      <c r="C271" s="275"/>
+      <c r="D271" s="275"/>
+      <c r="E271" s="275"/>
       <c r="F271" s="34"/>
-      <c r="G271" s="35"/>
-      <c r="H271" s="35"/>
+      <c r="G271" s="275"/>
+      <c r="H271" s="275"/>
     </row>
     <row r="272" spans="1:8" ht="15.75">
       <c r="A272" s="275" t="s">
-        <v>7</v>
-      </c>
-      <c r="B272" s="269"/>
-      <c r="C272" s="275"/>
-      <c r="D272" s="275"/>
-      <c r="E272" s="275"/>
-      <c r="F272" s="34"/>
-      <c r="G272" s="275"/>
-      <c r="H272" s="275"/>
-    </row>
-    <row r="273" spans="1:8" ht="15.75">
-      <c r="A273" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="B273" s="275" t="s">
+      <c r="B272" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="C273" s="275" t="s">
+      <c r="C272" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="D273" s="275" t="s">
+      <c r="D272" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="E273" s="275" t="s">
+      <c r="E272" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="F273" s="276" t="s">
+      <c r="F272" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="G273" s="275" t="s">
+      <c r="G272" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="H273" s="275" t="s">
+      <c r="H272" s="275" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="32" t="str">
+        <f>B266</f>
+        <v>H200 SU</v>
+      </c>
+      <c r="B273" s="33">
+        <f>B267</f>
+        <v>1</v>
+      </c>
+      <c r="C273" s="32" t="str">
+        <f>B268</f>
+        <v>H2S</v>
+      </c>
+      <c r="D273" s="32" t="str">
+        <f>B269</f>
+        <v>GLO</v>
+      </c>
+      <c r="E273" s="32" t="str">
+        <f>B270</f>
+        <v>unit</v>
+      </c>
+      <c r="F273" s="34"/>
+      <c r="G273" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H273" s="32" t="str">
+        <f>$B$1</f>
+        <v>case2_apos</v>
+      </c>
+    </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="32" t="str">
-        <f>B267</f>
-        <v>H200 SU</v>
+      <c r="A274" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B274" s="33">
-        <f>B268</f>
         <v>1</v>
       </c>
-      <c r="C274" s="32" t="str">
-        <f>B269</f>
-        <v>H2S</v>
-      </c>
-      <c r="D274" s="32" t="str">
-        <f>B270</f>
-        <v>GLO</v>
-      </c>
-      <c r="E274" s="32" t="str">
-        <f>B271</f>
-        <v>unit</v>
+      <c r="C274" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="F274" s="34"/>
       <c r="G274" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H274" s="32" t="str">
         <f>$B$1</f>
@@ -6506,39 +6511,38 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B275" s="33">
-        <v>1</v>
-      </c>
-      <c r="C275" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D275" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E275" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F275" s="34"/>
-      <c r="G275" s="35" t="s">
+      <c r="A275" s="277" t="s">
+        <v>142</v>
+      </c>
+      <c r="B275" s="278">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="C275" s="277" t="s">
+        <v>143</v>
+      </c>
+      <c r="D275" s="279" t="s">
+        <v>119</v>
+      </c>
+      <c r="E275" s="279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F275" s="279"/>
+      <c r="G275" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="H275" s="32" t="str">
-        <f>$B$1</f>
-        <v>case2_apos</v>
+      <c r="H275" s="280" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="277" t="s">
-        <v>142</v>
+      <c r="A276" s="281" t="s">
+        <v>138</v>
       </c>
       <c r="B276" s="278">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="C276" s="277" t="s">
-        <v>143</v>
+        <v>-7.2700000000000004E-3</v>
+      </c>
+      <c r="C276" s="280" t="s">
+        <v>134</v>
       </c>
       <c r="D276" s="279" t="s">
         <v>119</v>
@@ -6556,19 +6560,19 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="281" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B277" s="278">
-        <v>-7.2700000000000004E-3</v>
+        <v>-0.14709144573749999</v>
       </c>
       <c r="C277" s="280" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D277" s="279" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E277" s="279" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F277" s="279"/>
       <c r="G277" s="280" t="s">
@@ -6580,96 +6584,85 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="281" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B278" s="278">
-        <v>-0.14709144573749999</v>
+        <v>-2.6476460232750001</v>
       </c>
       <c r="C278" s="280" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D278" s="279" t="s">
         <v>95</v>
       </c>
       <c r="E278" s="279" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F278" s="279"/>
       <c r="G278" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="H278" s="280" t="s">
-        <v>24</v>
+      <c r="H278" s="32" t="str">
+        <f>$B$1</f>
+        <v>case2_apos</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="281" t="s">
-        <v>14</v>
-      </c>
-      <c r="B279" s="278">
-        <v>-2.6476460232750001</v>
+        <v>144</v>
+      </c>
+      <c r="B279" s="282">
+        <v>-3.16E-3</v>
       </c>
       <c r="C279" s="280" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D279" s="279" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E279" s="279" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F279" s="279"/>
       <c r="G279" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="H279" s="32" t="str">
-        <f>$B$1</f>
-        <v>case2_apos</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="281" t="s">
-        <v>144</v>
-      </c>
-      <c r="B280" s="282">
-        <v>-3.16E-3</v>
-      </c>
-      <c r="C280" s="280" t="s">
-        <v>15</v>
-      </c>
-      <c r="D280" s="279" t="s">
-        <v>166</v>
-      </c>
-      <c r="E280" s="279" t="s">
-        <v>19</v>
-      </c>
-      <c r="F280" s="279"/>
-      <c r="G280" s="280" t="s">
-        <v>23</v>
-      </c>
-      <c r="H280" s="280" t="s">
+      <c r="H279" s="280" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.75">
-      <c r="A282" s="157" t="s">
+    <row r="281" spans="1:8" ht="15.75">
+      <c r="A281" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B282" s="158" t="s">
+      <c r="B281" s="158" t="s">
         <v>34</v>
       </c>
+      <c r="C281" s="17"/>
+      <c r="D281" s="159"/>
+      <c r="E281" s="17"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="17"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="161">
+        <v>1</v>
+      </c>
       <c r="C282" s="17"/>
-      <c r="D282" s="159"/>
+      <c r="D282" s="17"/>
       <c r="E282" s="17"/>
       <c r="F282" s="17"/>
       <c r="G282" s="17"/>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="160" t="s">
-        <v>2</v>
-      </c>
-      <c r="B283" s="161">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B283" s="162" t="s">
+        <v>34</v>
       </c>
       <c r="C283" s="17"/>
       <c r="D283" s="17"/>
@@ -6679,10 +6672,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="160" t="s">
-        <v>3</v>
-      </c>
-      <c r="B284" s="162" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B284" s="163" t="s">
+        <v>5</v>
       </c>
       <c r="C284" s="17"/>
       <c r="D284" s="17"/>
@@ -6692,10 +6685,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="160" t="s">
-        <v>4</v>
-      </c>
-      <c r="B285" s="163" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C285" s="17"/>
       <c r="D285" s="17"/>
@@ -6703,80 +6696,90 @@
       <c r="F285" s="17"/>
       <c r="G285" s="17"/>
     </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="160" t="s">
-        <v>6</v>
-      </c>
-      <c r="B286" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C286" s="17"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
+    <row r="286" spans="1:8" ht="15.75">
+      <c r="A286" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" s="158"/>
+      <c r="C286" s="164"/>
+      <c r="D286" s="164"/>
+      <c r="E286" s="164"/>
+      <c r="F286" s="164"/>
+      <c r="G286" s="164"/>
     </row>
     <row r="287" spans="1:8" ht="15.75">
       <c r="A287" s="164" t="s">
-        <v>7</v>
-      </c>
-      <c r="B287" s="158"/>
-      <c r="C287" s="164"/>
-      <c r="D287" s="164"/>
-      <c r="E287" s="164"/>
-      <c r="F287" s="164"/>
-      <c r="G287" s="164"/>
-    </row>
-    <row r="288" spans="1:8" ht="15.75">
-      <c r="A288" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B288" s="164" t="s">
+      <c r="B287" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C288" s="164" t="s">
+      <c r="C287" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="D288" s="164" t="s">
+      <c r="D287" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="E288" s="164" t="s">
+      <c r="E287" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="F288" s="164" t="s">
+      <c r="F287" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="G288" s="164" t="s">
+      <c r="G287" s="164" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="16" t="str">
+    <row r="288" spans="1:8">
+      <c r="A288" s="16" t="str">
+        <f>B281</f>
+        <v>H200</v>
+      </c>
+      <c r="B288" s="15">
         <f>B282</f>
+        <v>1</v>
+      </c>
+      <c r="C288" s="16" t="str">
+        <f>B283</f>
         <v>H200</v>
       </c>
-      <c r="B289" s="15">
-        <f>B283</f>
-        <v>1</v>
-      </c>
-      <c r="C289" s="16" t="str">
+      <c r="D288" s="16" t="str">
         <f>B284</f>
-        <v>H200</v>
-      </c>
-      <c r="D289" s="16" t="str">
+        <v>GLO</v>
+      </c>
+      <c r="E288" s="16" t="str">
         <f>B285</f>
-        <v>GLO</v>
-      </c>
-      <c r="E289" s="16" t="str">
-        <f>B286</f>
         <v>unit</v>
       </c>
-      <c r="F289" s="17" t="s">
+      <c r="F288" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G289" s="16" t="str">
+      <c r="G288" s="16" t="str">
         <f>$B$1</f>
         <v>case2_apos</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B289" s="16">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C289" s="165" t="s">
+        <v>146</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F289" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G289" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -6784,7 +6787,7 @@
         <v>145</v>
       </c>
       <c r="B290" s="16">
-        <v>6.3E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C290" s="165" t="s">
         <v>146</v>
@@ -6803,19 +6806,19 @@
       </c>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B291" s="16">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C291" s="165" t="s">
-        <v>146</v>
-      </c>
-      <c r="D291" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E291" s="17" t="s">
+      <c r="A291" s="166" t="s">
+        <v>147</v>
+      </c>
+      <c r="B291" s="162">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="C291" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="D291" s="166" t="s">
+        <v>44</v>
+      </c>
+      <c r="E291" s="166" t="s">
         <v>19</v>
       </c>
       <c r="F291" s="17" t="s">
@@ -6826,16 +6829,16 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="166" t="s">
-        <v>147</v>
-      </c>
-      <c r="B292" s="162">
-        <v>7.2700000000000004E-3</v>
-      </c>
-      <c r="C292" s="166" t="s">
-        <v>61</v>
-      </c>
-      <c r="D292" s="166" t="s">
+      <c r="A292" s="167" t="s">
+        <v>63</v>
+      </c>
+      <c r="B292" s="283">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D292" s="167" t="s">
         <v>44</v>
       </c>
       <c r="E292" s="166" t="s">
@@ -6850,19 +6853,19 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="167" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B293" s="283">
-        <v>2.8E-3</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D293" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="E293" s="166" t="s">
-        <v>19</v>
+      <c r="E293" s="167" t="s">
+        <v>16</v>
       </c>
       <c r="F293" s="17" t="s">
         <v>23</v>
@@ -6873,16 +6876,16 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="167" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="B294" s="283">
-        <v>2.5999999999999998E-5</v>
+        <v>1.8100000000000001E-4</v>
       </c>
       <c r="C294" s="17" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D294" s="167" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E294" s="167" t="s">
         <v>16</v>
@@ -6896,16 +6899,16 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="167" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B295" s="283">
-        <v>1.8100000000000001E-4</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D295" s="167" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="E295" s="167" t="s">
         <v>16</v>
@@ -6919,47 +6922,24 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="167" t="s">
-        <v>151</v>
-      </c>
-      <c r="B296" s="283">
-        <v>3.3300000000000001E-3</v>
+        <v>109</v>
+      </c>
+      <c r="B296" s="284">
+        <v>4.1300000000000001E-5</v>
       </c>
       <c r="C296" s="17" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D296" s="167" t="s">
-        <v>5</v>
-      </c>
-      <c r="E296" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="E296" s="168" t="s">
         <v>16</v>
       </c>
       <c r="F296" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G296" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="B297" s="284">
-        <v>4.1300000000000001E-5</v>
-      </c>
-      <c r="C297" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D297" s="167" t="s">
-        <v>44</v>
-      </c>
-      <c r="E297" s="168" t="s">
-        <v>16</v>
-      </c>
-      <c r="F297" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G297" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6975,8 +6955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916DA13D-3ACD-4FB0-8444-EE0A0D72880A}">
   <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J219" sqref="J219"/>
+    <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7268,9 +7248,8 @@
         <f>C210</f>
         <v>marginal heating grid</v>
       </c>
-      <c r="D15" s="7" t="str">
-        <f>ev391apos!D15</f>
-        <v>GLO</v>
+      <c r="D15" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>ev391apos!E15</f>
@@ -7361,9 +7340,8 @@
         <f>ev391apos!C18</f>
         <v>electricity consumption</v>
       </c>
-      <c r="D18" s="7" t="str">
-        <f>ev391apos!D18</f>
-        <v>GLO</v>
+      <c r="D18" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E18" s="7" t="str">
         <f>ev391apos!E18</f>
@@ -7392,9 +7370,8 @@
         <f>ev391apos!C19</f>
         <v>waste paper, unsorted</v>
       </c>
-      <c r="D19" s="7" t="str">
-        <f>ev391apos!D19</f>
-        <v>RoW</v>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>ev391apos!E19</f>
@@ -7553,7 +7530,7 @@
         <f>ev391apos!A29</f>
         <v>MUD manufacturing</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="287">
         <f>ev391apos!B29</f>
         <v>1</v>
       </c>
@@ -7615,7 +7592,7 @@
         <f>ev391apos!A31</f>
         <v>MUD raw materials</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="287">
         <f>ev391apos!B31</f>
         <v>1</v>
       </c>
@@ -7646,7 +7623,7 @@
         <f>ev391apos!A32</f>
         <v>mechanical disinfection</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="287">
         <f>ev391apos!B32</f>
         <v>3.125E-2</v>
       </c>
@@ -7654,9 +7631,8 @@
         <f>ev391apos!C32</f>
         <v>dishwaser cycle</v>
       </c>
-      <c r="D32" s="38" t="str">
-        <f>ev391apos!D32</f>
-        <v>GLO</v>
+      <c r="D32" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="E32" s="38" t="str">
         <f>ev391apos!E32</f>
@@ -7677,7 +7653,7 @@
         <f>ev391apos!A33</f>
         <v>H200 SU</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="287">
         <f>ev391apos!B33</f>
         <v>0.25</v>
       </c>
@@ -7707,7 +7683,7 @@
       <c r="A34" s="345" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="346">
+      <c r="B34" s="361">
         <f>ev391apos!B34</f>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -7715,13 +7691,13 @@
         <v>104</v>
       </c>
       <c r="D34" s="345" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E34" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="347"/>
-      <c r="G34" s="348" t="s">
+      <c r="F34" s="346"/>
+      <c r="G34" s="347" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="345" t="str">
@@ -7734,7 +7710,7 @@
         <f>ev391apos!A35</f>
         <v>transport</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="287">
         <f>ev391apos!B35</f>
         <v>1.9479437734400001E-2</v>
       </c>
@@ -7765,7 +7741,7 @@
         <f>A210</f>
         <v>marginal heating grid</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="287">
         <f>ev391apos!B36</f>
         <v>-0.95508976109681298</v>
       </c>
@@ -7773,9 +7749,8 @@
         <f>C210</f>
         <v>marginal heating grid</v>
       </c>
-      <c r="D36" s="38" t="str">
-        <f>ev391apos!D36</f>
-        <v>GLO</v>
+      <c r="D36" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="E36" s="38" t="str">
         <f>ev391apos!E36</f>
@@ -7795,7 +7770,7 @@
       <c r="A37" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="287">
         <f>ev391apos!B37</f>
         <v>-0.19101795221936299</v>
       </c>
@@ -7852,7 +7827,7 @@
         <f>ev391apos!A39</f>
         <v>scalpel</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="287">
         <f>ev391apos!B39</f>
         <v>1</v>
       </c>
@@ -7883,7 +7858,7 @@
         <f>ev391apos!A40</f>
         <v>surgery use</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="287">
         <f>ev391apos!B40</f>
         <v>1</v>
       </c>
@@ -7893,7 +7868,7 @@
       </c>
       <c r="D40" s="38" t="str">
         <f>ev391apos!D40</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E40" s="38" t="str">
         <f>ev391apos!E40</f>
@@ -8080,9 +8055,8 @@
         <f>ev391apos!C50</f>
         <v>electricity, medium voltage</v>
       </c>
-      <c r="D50" s="43" t="str">
-        <f>ev391apos!D50</f>
-        <v>GLO</v>
+      <c r="D50" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="E50" s="43" t="str">
         <f>ev391apos!E50</f>
@@ -9036,7 +9010,7 @@
       </c>
       <c r="D93" s="83" t="str">
         <f>ev391apos!D93</f>
-        <v>GLO</v>
+        <v>RER</v>
       </c>
       <c r="E93" s="83" t="str">
         <f>ev391apos!E93</f>
@@ -10080,7 +10054,7 @@
         <f>ev391apos!A143</f>
         <v>mechanical disinfection</v>
       </c>
-      <c r="B143" s="135">
+      <c r="B143" s="356">
         <f>ev391apos!B143</f>
         <v>3.125E-2</v>
       </c>
@@ -10088,9 +10062,8 @@
         <f>ev391apos!C143</f>
         <v>dishwaser cycle</v>
       </c>
-      <c r="D143" s="135" t="str">
-        <f>ev391apos!D143</f>
-        <v>GLO</v>
+      <c r="D143" s="135" t="s">
+        <v>95</v>
       </c>
       <c r="E143" s="135" t="str">
         <f>ev391apos!E143</f>
@@ -10111,7 +10084,7 @@
         <f>ev391apos!A144</f>
         <v>autoclave</v>
       </c>
-      <c r="B144" s="135">
+      <c r="B144" s="356">
         <f>ev391apos!B144</f>
         <v>2.77777777777777E-2</v>
       </c>
@@ -10119,9 +10092,8 @@
         <f>ev391apos!C144</f>
         <v>autoclave operation</v>
       </c>
-      <c r="D144" s="135" t="str">
-        <f>ev391apos!D144</f>
-        <v>GLO</v>
+      <c r="D144" s="135" t="s">
+        <v>95</v>
       </c>
       <c r="E144" s="135" t="str">
         <f>ev391apos!E144</f>
@@ -10300,7 +10272,7 @@
         <f>ev391apos!A154</f>
         <v>market for iron-nickel-chromium alloy</v>
       </c>
-      <c r="B154" s="148">
+      <c r="B154" s="156">
         <f>ev391apos!B154</f>
         <v>1.6799999999999901E-3</v>
       </c>
@@ -10330,7 +10302,7 @@
         <f>ev391apos!A155</f>
         <v>market for metal working, average for metal product manufacturing</v>
       </c>
-      <c r="B155" s="148">
+      <c r="B155" s="156">
         <f>ev391apos!B155</f>
         <v>1.6799999999999901E-3</v>
       </c>
@@ -10405,9 +10377,8 @@
         <f>ev391apos!A160</f>
         <v>location</v>
       </c>
-      <c r="B160" s="176" t="str">
-        <f>ev391apos!B160</f>
-        <v>GLO</v>
+      <c r="B160" s="176" t="s">
+        <v>95</v>
       </c>
       <c r="C160" s="171"/>
       <c r="D160" s="171"/>
@@ -10486,8 +10457,8 @@
         <v>dishwaser cycle</v>
       </c>
       <c r="D164" s="177" t="str">
-        <f>ev391apos!D164</f>
-        <v>GLO</v>
+        <f>B160</f>
+        <v>DK</v>
       </c>
       <c r="E164" s="177" t="str">
         <f>ev391apos!E164</f>
@@ -10700,9 +10671,8 @@
         <f>ev391apos!A174</f>
         <v>location</v>
       </c>
-      <c r="B174" s="193" t="str">
-        <f>ev391apos!B174</f>
-        <v>GLO</v>
+      <c r="B174" s="193" t="s">
+        <v>95</v>
       </c>
       <c r="C174" s="187"/>
       <c r="D174" s="187"/>
@@ -10788,8 +10758,8 @@
         <v>autoclave cycle</v>
       </c>
       <c r="D178" s="194" t="str">
-        <f>ev391apos!D178</f>
-        <v>GLO</v>
+        <f>B174</f>
+        <v>DK</v>
       </c>
       <c r="E178" s="194" t="str">
         <f>ev391apos!E178</f>
@@ -10948,9 +10918,8 @@
         <f>ev391apos!A186</f>
         <v>location</v>
       </c>
-      <c r="B186" s="210" t="str">
-        <f>ev391apos!B186</f>
-        <v>GLO</v>
+      <c r="B186" s="210" t="s">
+        <v>95</v>
       </c>
       <c r="C186" s="204"/>
       <c r="D186" s="204"/>
@@ -11036,8 +11005,8 @@
         <v>electricity consumption</v>
       </c>
       <c r="D190" s="211" t="str">
-        <f>ev391apos!D190</f>
-        <v>GLO</v>
+        <f>B186</f>
+        <v>DK</v>
       </c>
       <c r="E190" s="211" t="str">
         <f>ev391apos!E190</f>
@@ -11058,7 +11027,7 @@
         <f>ev391apos!A191</f>
         <v>market for electricity, low voltage</v>
       </c>
-      <c r="B191" s="215">
+      <c r="B191" s="357">
         <f>ev391apos!B191</f>
         <v>7.0666666666666669E-2</v>
       </c>
@@ -11273,7 +11242,7 @@
     </row>
     <row r="203" spans="1:8" ht="15.75">
       <c r="A203" s="253" t="str">
-        <f>ev391apos!A227</f>
+        <f>ev391apos!A226</f>
         <v>Activity</v>
       </c>
       <c r="B203" s="253" t="s">
@@ -11288,11 +11257,11 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="122" t="str">
-        <f>ev391apos!A228</f>
+        <f>ev391apos!A227</f>
         <v>production amount</v>
       </c>
       <c r="B204" s="254">
-        <f>ev391apos!B228</f>
+        <f>ev391apos!B227</f>
         <v>1</v>
       </c>
       <c r="C204" s="122"/>
@@ -11304,7 +11273,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="122" t="str">
-        <f>ev391apos!A229</f>
+        <f>ev391apos!A228</f>
         <v>reference product</v>
       </c>
       <c r="B205" s="122" t="s">
@@ -11319,12 +11288,11 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="122" t="str">
-        <f>ev391apos!A230</f>
+        <f>ev391apos!A229</f>
         <v>location</v>
       </c>
-      <c r="B206" s="122" t="str">
-        <f>ev391apos!B230</f>
-        <v>GLO</v>
+      <c r="B206" s="122" t="s">
+        <v>95</v>
       </c>
       <c r="C206" s="122"/>
       <c r="D206" s="122"/>
@@ -11335,11 +11303,11 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="122" t="str">
-        <f>ev391apos!A231</f>
+        <f>ev391apos!A230</f>
         <v>unit</v>
       </c>
       <c r="B207" s="122" t="str">
-        <f>ev391apos!B231</f>
+        <f>ev391apos!B230</f>
         <v>megajoule</v>
       </c>
       <c r="C207" s="122"/>
@@ -11351,7 +11319,7 @@
     </row>
     <row r="208" spans="1:8" ht="15.75">
       <c r="A208" s="253" t="str">
-        <f>ev391apos!A232</f>
+        <f>ev391apos!A231</f>
         <v>Exchanges</v>
       </c>
       <c r="B208" s="122"/>
@@ -11364,35 +11332,35 @@
     </row>
     <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="127" t="str">
-        <f>ev391apos!A233</f>
+        <f>ev391apos!A232</f>
         <v>name</v>
       </c>
       <c r="B209" s="127" t="str">
-        <f>ev391apos!B233</f>
+        <f>ev391apos!B232</f>
         <v>amount</v>
       </c>
       <c r="C209" s="127" t="str">
-        <f>ev391apos!C233</f>
+        <f>ev391apos!C232</f>
         <v>reference product</v>
       </c>
       <c r="D209" s="127" t="str">
-        <f>ev391apos!D233</f>
+        <f>ev391apos!D232</f>
         <v>location</v>
       </c>
       <c r="E209" s="127" t="str">
-        <f>ev391apos!E233</f>
+        <f>ev391apos!E232</f>
         <v>unit</v>
       </c>
       <c r="F209" s="128" t="str">
-        <f>ev391apos!F233</f>
+        <f>ev391apos!F232</f>
         <v>categories</v>
       </c>
       <c r="G209" s="127" t="str">
-        <f>ev391apos!G233</f>
+        <f>ev391apos!G232</f>
         <v>type</v>
       </c>
       <c r="H209" s="127" t="str">
-        <f>ev391apos!H233</f>
+        <f>ev391apos!H232</f>
         <v>database</v>
       </c>
     </row>
@@ -11411,7 +11379,7 @@
       </c>
       <c r="D210" s="122" t="str">
         <f>B206</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E210" s="122" t="str">
         <f>B207</f>
@@ -11445,7 +11413,7 @@
       </c>
       <c r="F211" s="122"/>
       <c r="G211" s="122" t="str">
-        <f>ev391apos!G235</f>
+        <f>ev391apos!G234</f>
         <v>technosphere</v>
       </c>
       <c r="H211" s="122" t="s">
@@ -11470,7 +11438,7 @@
       </c>
       <c r="F212" s="122"/>
       <c r="G212" s="122" t="str">
-        <f>ev391apos!G236</f>
+        <f>ev391apos!G235</f>
         <v>technosphere</v>
       </c>
       <c r="H212" s="122" t="s">
@@ -11495,7 +11463,7 @@
       </c>
       <c r="F213" s="122"/>
       <c r="G213" s="122" t="str">
-        <f>ev391apos!G237</f>
+        <f>ev391apos!G236</f>
         <v>technosphere</v>
       </c>
       <c r="H213" s="122" t="s">
@@ -11504,7 +11472,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B214" s="122">
         <v>0.36499999999999999</v>
@@ -11520,7 +11488,7 @@
       </c>
       <c r="F214" s="122"/>
       <c r="G214" s="122" t="str">
-        <f>ev391apos!G238</f>
+        <f>ev391apos!G237</f>
         <v>technosphere</v>
       </c>
       <c r="H214" s="130" t="str">
@@ -11531,11 +11499,11 @@
     </row>
     <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="262" t="str">
-        <f>ev391apos!A242</f>
+        <f>ev391apos!A241</f>
         <v>Activity</v>
       </c>
       <c r="B216" s="262" t="str">
-        <f>ev391apos!B242</f>
+        <f>ev391apos!B241</f>
         <v>eol SUD</v>
       </c>
       <c r="C216" s="263"/>
@@ -11547,11 +11515,11 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="263" t="str">
-        <f>ev391apos!A243</f>
+        <f>ev391apos!A242</f>
         <v>production amount</v>
       </c>
       <c r="B217" s="264">
-        <f>ev391apos!B243</f>
+        <f>ev391apos!B242</f>
         <v>1</v>
       </c>
       <c r="C217" s="263"/>
@@ -11563,11 +11531,11 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="263" t="str">
-        <f>ev391apos!A244</f>
+        <f>ev391apos!A243</f>
         <v>reference product</v>
       </c>
       <c r="B218" s="263" t="str">
-        <f>ev391apos!B244</f>
+        <f>ev391apos!B243</f>
         <v>eol</v>
       </c>
       <c r="C218" s="263"/>
@@ -11579,11 +11547,11 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="263" t="str">
-        <f>ev391apos!A245</f>
+        <f>ev391apos!A244</f>
         <v>location</v>
       </c>
       <c r="B219" s="263" t="str">
-        <f>ev391apos!B245</f>
+        <f>ev391apos!B244</f>
         <v>GLO</v>
       </c>
       <c r="C219" s="263"/>
@@ -11595,11 +11563,11 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="263" t="str">
-        <f>ev391apos!A246</f>
+        <f>ev391apos!A245</f>
         <v>unit</v>
       </c>
       <c r="B220" s="263" t="str">
-        <f>ev391apos!B246</f>
+        <f>ev391apos!B245</f>
         <v>kilogram</v>
       </c>
       <c r="C220" s="263"/>
@@ -11611,7 +11579,7 @@
     </row>
     <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="262" t="str">
-        <f>ev391apos!A247</f>
+        <f>ev391apos!A246</f>
         <v>Exchanges</v>
       </c>
       <c r="B221" s="263"/>
@@ -11624,62 +11592,62 @@
     </row>
     <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="265" t="str">
-        <f>ev391apos!A248</f>
+        <f>ev391apos!A247</f>
         <v>name</v>
       </c>
       <c r="B222" s="265" t="str">
-        <f>ev391apos!B248</f>
+        <f>ev391apos!B247</f>
         <v>amount</v>
       </c>
       <c r="C222" s="265" t="str">
-        <f>ev391apos!C248</f>
+        <f>ev391apos!C247</f>
         <v>reference product</v>
       </c>
       <c r="D222" s="265" t="str">
-        <f>ev391apos!D248</f>
+        <f>ev391apos!D247</f>
         <v>location</v>
       </c>
       <c r="E222" s="265" t="str">
-        <f>ev391apos!E248</f>
+        <f>ev391apos!E247</f>
         <v>unit</v>
       </c>
       <c r="F222" s="266" t="str">
-        <f>ev391apos!F248</f>
+        <f>ev391apos!F247</f>
         <v>categories</v>
       </c>
       <c r="G222" s="265" t="str">
-        <f>ev391apos!G248</f>
+        <f>ev391apos!G247</f>
         <v>type</v>
       </c>
       <c r="H222" s="265" t="str">
-        <f>ev391apos!H248</f>
+        <f>ev391apos!H247</f>
         <v>database</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="263" t="str">
-        <f>ev391apos!A249</f>
+        <f>ev391apos!A248</f>
         <v>eol SUD</v>
       </c>
       <c r="B223" s="267">
-        <f>ev391apos!B249</f>
+        <f>ev391apos!B248</f>
         <v>1</v>
       </c>
       <c r="C223" s="263" t="str">
-        <f>ev391apos!C249</f>
+        <f>ev391apos!C248</f>
         <v>eol</v>
       </c>
       <c r="D223" s="263" t="str">
-        <f>ev391apos!D249</f>
+        <f>ev391apos!D248</f>
         <v>GLO</v>
       </c>
       <c r="E223" s="263" t="str">
-        <f>ev391apos!E249</f>
+        <f>ev391apos!E248</f>
         <v>kilogram</v>
       </c>
       <c r="F223" s="263"/>
       <c r="G223" s="263" t="str">
-        <f>ev391apos!G249</f>
+        <f>ev391apos!G248</f>
         <v>production</v>
       </c>
       <c r="H223" s="285" t="str">
@@ -11689,118 +11657,118 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="263" t="str">
+        <f>ev391apos!A249</f>
+        <v>treatment of hazardous waste, hazardous waste incineration</v>
+      </c>
+      <c r="B224" s="263">
+        <f>ev391apos!B249</f>
+        <v>4.1554130910640599E-2</v>
+      </c>
+      <c r="C224" s="263" t="str">
+        <f>ev391apos!C249</f>
+        <v>hazardous waste, for incineration</v>
+      </c>
+      <c r="D224" s="263" t="str">
+        <f>ev391apos!D249</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="E224" s="263" t="str">
+        <f>ev391apos!E249</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F224" s="263"/>
+      <c r="G224" s="263" t="str">
+        <f>ev391apos!G249</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H224" s="263" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="263" t="str">
         <f>ev391apos!A250</f>
-        <v>treatment of hazardous waste, hazardous waste incineration</v>
-      </c>
-      <c r="B224" s="263">
+        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B225" s="263">
         <f>ev391apos!B250</f>
-        <v>4.1554130910640599E-2</v>
-      </c>
-      <c r="C224" s="263" t="str">
+        <v>0.271672758270046</v>
+      </c>
+      <c r="C225" s="263" t="str">
         <f>ev391apos!C250</f>
-        <v>hazardous waste, for incineration</v>
-      </c>
-      <c r="D224" s="263" t="str">
+        <v>municipal solid waste</v>
+      </c>
+      <c r="D225" s="263" t="str">
         <f>ev391apos!D250</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="E224" s="263" t="str">
+        <v>CH</v>
+      </c>
+      <c r="E225" s="263" t="str">
         <f>ev391apos!E250</f>
         <v>kilogram</v>
       </c>
-      <c r="F224" s="263"/>
-      <c r="G224" s="263" t="str">
+      <c r="F225" s="263"/>
+      <c r="G225" s="263" t="str">
         <f>ev391apos!G250</f>
         <v>technosphere</v>
       </c>
-      <c r="H224" s="263" t="s">
+      <c r="H225" s="263" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="263" t="str">
+    <row r="226" spans="1:8">
+      <c r="A226" s="263" t="str">
         <f>ev391apos!A251</f>
-        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B225" s="263">
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B226" s="263">
         <f>ev391apos!B251</f>
-        <v>0.271672758270046</v>
-      </c>
-      <c r="C225" s="263" t="str">
+        <v>0.52743927745681096</v>
+      </c>
+      <c r="C226" s="263" t="str">
         <f>ev391apos!C251</f>
-        <v>municipal solid waste</v>
-      </c>
-      <c r="D225" s="263" t="str">
+        <v>waste polyethylene</v>
+      </c>
+      <c r="D226" s="263" t="str">
         <f>ev391apos!D251</f>
         <v>CH</v>
       </c>
-      <c r="E225" s="263" t="str">
+      <c r="E226" s="263" t="str">
         <f>ev391apos!E251</f>
         <v>kilogram</v>
       </c>
-      <c r="F225" s="263"/>
-      <c r="G225" s="263" t="str">
+      <c r="F226" s="263"/>
+      <c r="G226" s="263" t="str">
         <f>ev391apos!G251</f>
         <v>technosphere</v>
       </c>
-      <c r="H225" s="263" t="s">
+      <c r="H226" s="263" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="263" t="str">
+    <row r="227" spans="1:8">
+      <c r="A227" s="263" t="str">
         <f>ev391apos!A252</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B226" s="263">
+        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B227" s="263">
         <f>ev391apos!B252</f>
-        <v>0.52743927745681096</v>
-      </c>
-      <c r="C226" s="263" t="str">
+        <v>0.15933383336250301</v>
+      </c>
+      <c r="C227" s="263" t="str">
         <f>ev391apos!C252</f>
-        <v>waste polyethylene</v>
-      </c>
-      <c r="D226" s="263" t="str">
+        <v>waste plastic, mixture</v>
+      </c>
+      <c r="D227" s="263" t="str">
         <f>ev391apos!D252</f>
         <v>CH</v>
       </c>
-      <c r="E226" s="263" t="str">
+      <c r="E227" s="263" t="str">
         <f>ev391apos!E252</f>
         <v>kilogram</v>
       </c>
-      <c r="F226" s="263"/>
-      <c r="G226" s="263" t="str">
-        <f>ev391apos!G252</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H226" s="263" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="263" t="str">
-        <f>ev391apos!A253</f>
-        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B227" s="263">
-        <f>ev391apos!B253</f>
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C227" s="263" t="str">
-        <f>ev391apos!C253</f>
-        <v>waste plastic, mixture</v>
-      </c>
-      <c r="D227" s="263" t="str">
-        <f>ev391apos!D253</f>
-        <v>CH</v>
-      </c>
-      <c r="E227" s="263" t="str">
-        <f>ev391apos!E253</f>
-        <v>kilogram</v>
-      </c>
       <c r="F227" s="263"/>
       <c r="G227" s="263" t="str">
-        <f>ev391apos!G253</f>
+        <f>ev391apos!G252</f>
         <v>technosphere</v>
       </c>
       <c r="H227" s="263" t="s">
@@ -11859,11 +11827,11 @@
     </row>
     <row r="231" spans="1:8" ht="15.75">
       <c r="A231" s="256" t="str">
-        <f>ev391apos!A255</f>
+        <f>ev391apos!A254</f>
         <v>Activity</v>
       </c>
       <c r="B231" s="256" t="str">
-        <f>ev391apos!B255</f>
+        <f>ev391apos!B254</f>
         <v>eol MUD</v>
       </c>
       <c r="C231" s="257"/>
@@ -11875,11 +11843,11 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="257" t="str">
-        <f>ev391apos!A256</f>
+        <f>ev391apos!A255</f>
         <v>production amount</v>
       </c>
       <c r="B232" s="258">
-        <f>ev391apos!B256</f>
+        <f>ev391apos!B255</f>
         <v>1</v>
       </c>
       <c r="C232" s="257"/>
@@ -11891,11 +11859,11 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="257" t="str">
-        <f>ev391apos!A257</f>
+        <f>ev391apos!A256</f>
         <v>reference product</v>
       </c>
       <c r="B233" s="257" t="str">
-        <f>ev391apos!B257</f>
+        <f>ev391apos!B256</f>
         <v>eol</v>
       </c>
       <c r="C233" s="257"/>
@@ -11907,11 +11875,11 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="257" t="str">
-        <f>ev391apos!A258</f>
+        <f>ev391apos!A257</f>
         <v>location</v>
       </c>
       <c r="B234" s="257" t="str">
-        <f>ev391apos!B258</f>
+        <f>ev391apos!B257</f>
         <v>GLO</v>
       </c>
       <c r="C234" s="257"/>
@@ -11923,11 +11891,11 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="257" t="str">
-        <f>ev391apos!A259</f>
+        <f>ev391apos!A258</f>
         <v>unit</v>
       </c>
       <c r="B235" s="257" t="str">
-        <f>ev391apos!B259</f>
+        <f>ev391apos!B258</f>
         <v>kilogram</v>
       </c>
       <c r="C235" s="257"/>
@@ -11939,7 +11907,7 @@
     </row>
     <row r="236" spans="1:8" ht="15.75">
       <c r="A236" s="256" t="str">
-        <f>ev391apos!A260</f>
+        <f>ev391apos!A259</f>
         <v>Exchanges</v>
       </c>
       <c r="B236" s="257"/>
@@ -11952,62 +11920,62 @@
     </row>
     <row r="237" spans="1:8" ht="15.75">
       <c r="A237" s="259" t="str">
-        <f>ev391apos!A261</f>
+        <f>ev391apos!A260</f>
         <v>name</v>
       </c>
       <c r="B237" s="259" t="str">
-        <f>ev391apos!B261</f>
+        <f>ev391apos!B260</f>
         <v>amount</v>
       </c>
       <c r="C237" s="259" t="str">
-        <f>ev391apos!C261</f>
+        <f>ev391apos!C260</f>
         <v>reference product</v>
       </c>
       <c r="D237" s="259" t="str">
-        <f>ev391apos!D261</f>
+        <f>ev391apos!D260</f>
         <v>location</v>
       </c>
       <c r="E237" s="259" t="str">
-        <f>ev391apos!E261</f>
+        <f>ev391apos!E260</f>
         <v>unit</v>
       </c>
       <c r="F237" s="260" t="str">
-        <f>ev391apos!F261</f>
+        <f>ev391apos!F260</f>
         <v>categories</v>
       </c>
       <c r="G237" s="259" t="str">
-        <f>ev391apos!G261</f>
+        <f>ev391apos!G260</f>
         <v>type</v>
       </c>
       <c r="H237" s="259" t="str">
-        <f>ev391apos!H261</f>
+        <f>ev391apos!H260</f>
         <v>database</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="257" t="str">
-        <f>ev391apos!A262</f>
+        <f>ev391apos!A261</f>
         <v>eol MUD</v>
       </c>
       <c r="B238" s="261">
-        <f>ev391apos!B262</f>
+        <f>ev391apos!B261</f>
         <v>1</v>
       </c>
       <c r="C238" s="257" t="str">
-        <f>ev391apos!C262</f>
+        <f>ev391apos!C261</f>
         <v>eol</v>
       </c>
       <c r="D238" s="257" t="str">
-        <f>ev391apos!D262</f>
+        <f>ev391apos!D261</f>
         <v>GLO</v>
       </c>
       <c r="E238" s="257" t="str">
-        <f>ev391apos!E262</f>
+        <f>ev391apos!E261</f>
         <v>kilogram</v>
       </c>
       <c r="F238" s="257"/>
       <c r="G238" s="257" t="str">
-        <f>ev391apos!G262</f>
+        <f>ev391apos!G261</f>
         <v>production</v>
       </c>
       <c r="H238" s="286" t="str">
@@ -12017,88 +11985,88 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="257" t="str">
+        <f>ev391apos!A262</f>
+        <v>treatment of hazardous waste, hazardous waste incineration</v>
+      </c>
+      <c r="B239" s="257">
+        <f>ev391apos!B262</f>
+        <v>4.1554130910640599E-2</v>
+      </c>
+      <c r="C239" s="257" t="str">
+        <f>ev391apos!C262</f>
+        <v>hazardous waste, for incineration</v>
+      </c>
+      <c r="D239" s="257" t="str">
+        <f>ev391apos!D262</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="E239" s="257" t="str">
+        <f>ev391apos!E262</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F239" s="257"/>
+      <c r="G239" s="257" t="str">
+        <f>ev391apos!G262</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H239" s="257" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="257" t="str">
         <f>ev391apos!A263</f>
-        <v>treatment of hazardous waste, hazardous waste incineration</v>
-      </c>
-      <c r="B239" s="257">
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B240" s="257">
         <f>ev391apos!B263</f>
-        <v>4.1554130910640599E-2</v>
-      </c>
-      <c r="C239" s="257" t="str">
+        <v>0.52743927745681096</v>
+      </c>
+      <c r="C240" s="257" t="str">
         <f>ev391apos!C263</f>
-        <v>hazardous waste, for incineration</v>
-      </c>
-      <c r="D239" s="257" t="str">
+        <v>waste polyethylene</v>
+      </c>
+      <c r="D240" s="257" t="str">
         <f>ev391apos!D263</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="E239" s="257" t="str">
+        <v>CH</v>
+      </c>
+      <c r="E240" s="257" t="str">
         <f>ev391apos!E263</f>
         <v>kilogram</v>
       </c>
-      <c r="F239" s="257"/>
-      <c r="G239" s="257" t="str">
+      <c r="F240" s="257"/>
+      <c r="G240" s="257" t="str">
         <f>ev391apos!G263</f>
         <v>technosphere</v>
       </c>
-      <c r="H239" s="257" t="s">
+      <c r="H240" s="257" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="257" t="str">
+    <row r="241" spans="1:8">
+      <c r="A241" s="257" t="str">
         <f>ev391apos!A264</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B240" s="257">
+        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B241" s="257">
         <f>ev391apos!B264</f>
-        <v>0.52743927745681096</v>
-      </c>
-      <c r="C240" s="257" t="str">
+        <v>0.15933383336250301</v>
+      </c>
+      <c r="C241" s="257" t="str">
         <f>ev391apos!C264</f>
-        <v>waste polyethylene</v>
-      </c>
-      <c r="D240" s="257" t="str">
+        <v>waste plastic, mixture</v>
+      </c>
+      <c r="D241" s="257" t="str">
         <f>ev391apos!D264</f>
         <v>CH</v>
       </c>
-      <c r="E240" s="257" t="str">
+      <c r="E241" s="257" t="str">
         <f>ev391apos!E264</f>
         <v>kilogram</v>
       </c>
-      <c r="F240" s="257"/>
-      <c r="G240" s="257" t="str">
-        <f>ev391apos!G264</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H240" s="257" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="257" t="str">
-        <f>ev391apos!A265</f>
-        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B241" s="257">
-        <f>ev391apos!B265</f>
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C241" s="257" t="str">
-        <f>ev391apos!C265</f>
-        <v>waste plastic, mixture</v>
-      </c>
-      <c r="D241" s="257" t="str">
-        <f>ev391apos!D265</f>
-        <v>CH</v>
-      </c>
-      <c r="E241" s="257" t="str">
-        <f>ev391apos!E265</f>
-        <v>kilogram</v>
-      </c>
       <c r="F241" s="257"/>
       <c r="G241" s="257" t="str">
-        <f>ev391apos!G265</f>
+        <f>ev391apos!G264</f>
         <v>technosphere</v>
       </c>
       <c r="H241" s="257" t="s">
@@ -12398,7 +12366,7 @@
         <v>32</v>
       </c>
       <c r="D257" s="279" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E257" s="279" t="s">
         <v>18</v>
@@ -12423,7 +12391,7 @@
         <v>15</v>
       </c>
       <c r="D258" s="279" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="E258" s="279" t="s">
         <v>19</v>
@@ -12597,7 +12565,7 @@
       <c r="A269" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B269" s="300">
+      <c r="B269" s="306">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C269" s="300" t="s">
@@ -12621,7 +12589,7 @@
       <c r="A270" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="B270" s="300">
+      <c r="B270" s="306">
         <v>7.2700000000000004E-3</v>
       </c>
       <c r="C270" s="300" t="s">
@@ -12645,7 +12613,7 @@
       <c r="A271" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="B271" s="300">
+      <c r="B271" s="306">
         <v>2.8E-3</v>
       </c>
       <c r="C271" s="300" t="s">
@@ -12669,7 +12637,7 @@
       <c r="A272" s="300" t="s">
         <v>109</v>
       </c>
-      <c r="B272" s="300">
+      <c r="B272" s="306">
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="C272" s="300" t="s">
@@ -12693,7 +12661,7 @@
       <c r="A273" s="300" t="s">
         <v>148</v>
       </c>
-      <c r="B273" s="300">
+      <c r="B273" s="306">
         <v>1.8100000000000001E-4</v>
       </c>
       <c r="C273" s="300" t="s">
@@ -12717,7 +12685,7 @@
       <c r="A274" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="B274" s="300">
+      <c r="B274" s="306">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="C274" s="300" t="s">
@@ -12741,7 +12709,7 @@
       <c r="A275" s="300" t="s">
         <v>109</v>
       </c>
-      <c r="B275" s="300">
+      <c r="B275" s="306">
         <v>4.1300000000000001E-5</v>
       </c>
       <c r="C275" s="300" t="s">
@@ -12927,7 +12895,7 @@
       <c r="A286" s="313" t="s">
         <v>154</v>
       </c>
-      <c r="B286" s="313">
+      <c r="B286" s="358">
         <v>-1.5427999999999999</v>
       </c>
       <c r="C286" s="313" t="s">
@@ -12951,7 +12919,7 @@
       <c r="A287" s="313" t="s">
         <v>156</v>
       </c>
-      <c r="B287" s="313">
+      <c r="B287" s="358">
         <v>-10.694000000000001</v>
       </c>
       <c r="C287" s="313" t="s">
@@ -13147,7 +13115,7 @@
       <c r="A298" s="331" t="s">
         <v>154</v>
       </c>
-      <c r="B298" s="331">
+      <c r="B298" s="359">
         <v>-1.1687000000000001</v>
       </c>
       <c r="C298" s="331" t="s">
@@ -13171,7 +13139,7 @@
       <c r="A299" s="331" t="s">
         <v>156</v>
       </c>
-      <c r="B299" s="331">
+      <c r="B299" s="359">
         <v>-8.1515000000000004</v>
       </c>
       <c r="C299" s="331" t="s">
@@ -13195,8 +13163,8 @@
       <c r="A301" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B301" s="351" t="s">
-        <v>167</v>
+      <c r="B301" s="350" t="s">
+        <v>166</v>
       </c>
       <c r="C301" s="146"/>
       <c r="D301" s="147"/>
@@ -13223,7 +13191,7 @@
       <c r="A303" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B303" s="352" t="s">
+      <c r="B303" s="351" t="s">
         <v>128</v>
       </c>
       <c r="C303" s="146"/>
@@ -13330,43 +13298,43 @@
       </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" s="353" t="s">
+      <c r="A309" s="352" t="s">
         <v>93</v>
       </c>
-      <c r="B309" s="354">
+      <c r="B309" s="353">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="C309" s="355" t="s">
+      <c r="C309" s="354" t="s">
         <v>94</v>
       </c>
-      <c r="D309" s="356" t="s">
+      <c r="D309" s="355" t="s">
         <v>95</v>
       </c>
-      <c r="E309" s="356" t="s">
+      <c r="E309" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="F309" s="356"/>
-      <c r="G309" s="355" t="s">
+      <c r="F309" s="355"/>
+      <c r="G309" s="354" t="s">
         <v>23</v>
       </c>
-      <c r="H309" s="355" t="s">
+      <c r="H309" s="354" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B310" s="156">
         <v>3.47E-8</v>
       </c>
       <c r="C310" s="148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D310" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="E310" s="356" t="s">
+      <c r="E310" s="355" t="s">
         <v>6</v>
       </c>
       <c r="F310" s="148"/>
@@ -13384,10 +13352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCB1CF9-8C18-44A9-91B3-2C5BFD88192B}">
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13647,7 +13615,7 @@
         <f>ev391apos!A14</f>
         <v>market for electricity, high voltage</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="349">
         <f>ev391apos!B14</f>
         <v>-0.84100660000000005</v>
       </c>
@@ -13677,7 +13645,7 @@
         <f>ev391apos!A15</f>
         <v>mixed heating grid</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="349">
         <f>ev391apos!B15</f>
         <v>-4.2050332499999996</v>
       </c>
@@ -13687,7 +13655,7 @@
       </c>
       <c r="D15" s="7" t="str">
         <f>ev391apos!D15</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>ev391apos!E15</f>
@@ -13708,7 +13676,7 @@
         <f>ev391apos!A16</f>
         <v>transport</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="349">
         <f>ev391apos!B16</f>
         <v>4.76221188185003E-2</v>
       </c>
@@ -13739,7 +13707,7 @@
         <f>ev391apos!A17</f>
         <v>eol SUD</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="349">
         <f>ev391apos!B17</f>
         <v>-0.19031802197973299</v>
       </c>
@@ -13780,7 +13748,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f>ev391apos!D18</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E18" s="7" t="str">
         <f>ev391apos!E18</f>
@@ -13801,16 +13769,15 @@
         <f>ev391apos!A19</f>
         <v>treatment of waste paper to pulp, wet lap, totally chlorine free bleached</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="37">
         <f>ev391apos!B19</f>
         <v>-1.4740219797333401E-3</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="7" t="str">
-        <f>ev391apos!D19</f>
-        <v>RoW</v>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>ev391apos!E19</f>
@@ -14072,7 +14039,7 @@
       </c>
       <c r="D32" s="23" t="str">
         <f>ev391apos!D32</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E32" s="23" t="str">
         <f>ev391apos!E32</f>
@@ -14134,7 +14101,7 @@
       </c>
       <c r="D34" s="28" t="str">
         <f>ev391apos!D34</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E34" s="28" t="str">
         <f>ev391apos!E34</f>
@@ -14195,7 +14162,7 @@
       </c>
       <c r="D36" s="23" t="str">
         <f>ev391apos!D36</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E36" s="23" t="str">
         <f>ev391apos!E36</f>
@@ -14319,7 +14286,7 @@
       </c>
       <c r="D40" s="23" t="str">
         <f>ev391apos!D40</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E40" s="23" t="str">
         <f>ev391apos!E40</f>
@@ -14508,7 +14475,7 @@
       </c>
       <c r="D50" s="43" t="str">
         <f>ev391apos!D50</f>
-        <v>GLO</v>
+        <v>RER</v>
       </c>
       <c r="E50" s="43" t="str">
         <f>ev391apos!E50</f>
@@ -15462,7 +15429,7 @@
       </c>
       <c r="D93" s="83" t="str">
         <f>ev391apos!D93</f>
-        <v>GLO</v>
+        <v>RER</v>
       </c>
       <c r="E93" s="83" t="str">
         <f>ev391apos!E93</f>
@@ -16516,7 +16483,7 @@
       </c>
       <c r="D143" s="135" t="str">
         <f>ev391apos!D143</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E143" s="135" t="str">
         <f>ev391apos!E143</f>
@@ -16547,7 +16514,7 @@
       </c>
       <c r="D144" s="135" t="str">
         <f>ev391apos!D144</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E144" s="135" t="str">
         <f>ev391apos!E144</f>
@@ -16842,7 +16809,7 @@
       </c>
       <c r="B160" s="176" t="str">
         <f>ev391apos!B160</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="C160" s="171"/>
       <c r="D160" s="171"/>
@@ -16922,7 +16889,7 @@
       </c>
       <c r="D164" s="177" t="str">
         <f>ev391apos!D164</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E164" s="177" t="str">
         <f>ev391apos!E164</f>
@@ -17137,7 +17104,7 @@
       </c>
       <c r="B174" s="193" t="str">
         <f>ev391apos!B174</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="C174" s="187"/>
       <c r="D174" s="187"/>
@@ -17224,7 +17191,7 @@
       </c>
       <c r="D178" s="194" t="str">
         <f>ev391apos!D178</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E178" s="194" t="str">
         <f>ev391apos!E178</f>
@@ -17385,7 +17352,7 @@
       </c>
       <c r="B186" s="210" t="str">
         <f>ev391apos!B186</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="C186" s="204"/>
       <c r="D186" s="204"/>
@@ -17472,7 +17439,7 @@
       </c>
       <c r="D190" s="211" t="str">
         <f>ev391apos!D190</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E190" s="211" t="str">
         <f>ev391apos!E190</f>
@@ -17761,7 +17728,7 @@
       </c>
       <c r="B206" s="244" t="str">
         <f>ev391apos!B216</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="C206" s="244"/>
       <c r="D206" s="244"/>
@@ -17848,7 +17815,7 @@
       </c>
       <c r="D210" s="249" t="str">
         <f>ev391apos!D220</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E210" s="249" t="str">
         <f>ev391apos!E220</f>
@@ -17895,28 +17862,28 @@
     <row r="212" spans="1:8">
       <c r="A212" s="244" t="str">
         <f>ev391apos!A222</f>
-        <v>heat production from hot water</v>
+        <v>auxiliary heating unit production, electric, 5kW</v>
       </c>
       <c r="B212" s="244">
         <f>ev391apos!B222</f>
-        <v>1</v>
+        <v>6.5544999999999996E-8</v>
       </c>
       <c r="C212" s="244" t="str">
         <f>ev391apos!C222</f>
-        <v>heat production from hot water</v>
+        <v>auxiliary heating unit, electric, 5kW</v>
       </c>
       <c r="D212" s="244" t="str">
         <f>ev391apos!D222</f>
-        <v>GLO</v>
+        <v>CH</v>
       </c>
       <c r="E212" s="244" t="str">
         <f>ev391apos!E222</f>
-        <v>megajoule</v>
+        <v>unit</v>
       </c>
       <c r="F212" s="244"/>
       <c r="G212" s="244" t="str">
         <f>ev391apos!G222</f>
-        <v>production</v>
+        <v>technosphere</v>
       </c>
       <c r="H212" s="251" t="s">
         <v>33</v>
@@ -17925,23 +17892,23 @@
     <row r="213" spans="1:8">
       <c r="A213" s="244" t="str">
         <f>ev391apos!A223</f>
-        <v>auxiliary heating unit production, electric, 5kW</v>
+        <v>market for electricity, low voltage</v>
       </c>
       <c r="B213" s="244">
         <f>ev391apos!B223</f>
-        <v>6.5544999999999996E-8</v>
+        <v>0.23457</v>
       </c>
       <c r="C213" s="244" t="str">
         <f>ev391apos!C223</f>
-        <v>auxiliary heating unit, electric, 5kW</v>
+        <v>electricity, low voltage</v>
       </c>
       <c r="D213" s="244" t="str">
         <f>ev391apos!D223</f>
-        <v>CH</v>
+        <v>DK</v>
       </c>
       <c r="E213" s="244" t="str">
         <f>ev391apos!E223</f>
-        <v>unit</v>
+        <v>kilowatt hour</v>
       </c>
       <c r="F213" s="244"/>
       <c r="G213" s="244" t="str">
@@ -17955,23 +17922,23 @@
     <row r="214" spans="1:8">
       <c r="A214" s="244" t="str">
         <f>ev391apos!A224</f>
-        <v>market for electricity, low voltage</v>
+        <v>solar collector system installation, Cu flat plate collector, multiple dwelling, hot water</v>
       </c>
       <c r="B214" s="244">
         <f>ev391apos!B224</f>
-        <v>0.23457</v>
+        <v>6.5544999999999996E-8</v>
       </c>
       <c r="C214" s="244" t="str">
         <f>ev391apos!C224</f>
-        <v>electricity, low voltage</v>
+        <v>solar collector system, Cu flat plate collector, multiple dwelling, hot water</v>
       </c>
       <c r="D214" s="244" t="str">
         <f>ev391apos!D224</f>
-        <v>DK</v>
+        <v>CH</v>
       </c>
       <c r="E214" s="244" t="str">
         <f>ev391apos!E224</f>
-        <v>kilowatt hour</v>
+        <v>unit</v>
       </c>
       <c r="F214" s="244"/>
       <c r="G214" s="244" t="str">
@@ -17982,44 +17949,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="244" t="str">
-        <f>ev391apos!A225</f>
-        <v>solar collector system installation, Cu flat plate collector, multiple dwelling, hot water</v>
-      </c>
-      <c r="B215" s="244">
-        <f>ev391apos!B225</f>
-        <v>6.5544999999999996E-8</v>
-      </c>
-      <c r="C215" s="244" t="str">
-        <f>ev391apos!C225</f>
-        <v>solar collector system, Cu flat plate collector, multiple dwelling, hot water</v>
-      </c>
-      <c r="D215" s="244" t="str">
-        <f>ev391apos!D225</f>
-        <v>CH</v>
-      </c>
-      <c r="E215" s="244" t="str">
-        <f>ev391apos!E225</f>
-        <v>unit</v>
-      </c>
-      <c r="F215" s="244"/>
-      <c r="G215" s="244" t="str">
-        <f>ev391apos!G225</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H215" s="251" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="15.75">
-      <c r="A217" s="253" t="str">
+    <row r="216" spans="1:8" ht="15.75">
+      <c r="A216" s="253" t="str">
+        <f>ev391apos!A226</f>
+        <v>Activity</v>
+      </c>
+      <c r="B216" s="253" t="str">
+        <f>ev391apos!B226</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="C216" s="122"/>
+      <c r="D216" s="122"/>
+      <c r="E216" s="122"/>
+      <c r="F216" s="122"/>
+      <c r="G216" s="122"/>
+      <c r="H216" s="122"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="122" t="str">
         <f>ev391apos!A227</f>
-        <v>Activity</v>
-      </c>
-      <c r="B217" s="253" t="str">
+        <v>production amount</v>
+      </c>
+      <c r="B217" s="254">
         <f>ev391apos!B227</f>
-        <v>mixed heating grid</v>
+        <v>1</v>
       </c>
       <c r="C217" s="122"/>
       <c r="D217" s="122"/>
@@ -18031,11 +17984,11 @@
     <row r="218" spans="1:8">
       <c r="A218" s="122" t="str">
         <f>ev391apos!A228</f>
-        <v>production amount</v>
-      </c>
-      <c r="B218" s="254">
+        <v>reference product</v>
+      </c>
+      <c r="B218" s="122" t="str">
         <f>ev391apos!B228</f>
-        <v>1</v>
+        <v>mixed heating grid</v>
       </c>
       <c r="C218" s="122"/>
       <c r="D218" s="122"/>
@@ -18047,11 +18000,11 @@
     <row r="219" spans="1:8">
       <c r="A219" s="122" t="str">
         <f>ev391apos!A229</f>
-        <v>reference product</v>
+        <v>location</v>
       </c>
       <c r="B219" s="122" t="str">
         <f>ev391apos!B229</f>
-        <v>mixed heating grid</v>
+        <v>DK</v>
       </c>
       <c r="C219" s="122"/>
       <c r="D219" s="122"/>
@@ -18063,11 +18016,11 @@
     <row r="220" spans="1:8">
       <c r="A220" s="122" t="str">
         <f>ev391apos!A230</f>
-        <v>location</v>
+        <v>unit</v>
       </c>
       <c r="B220" s="122" t="str">
         <f>ev391apos!B230</f>
-        <v>GLO</v>
+        <v>megajoule</v>
       </c>
       <c r="C220" s="122"/>
       <c r="D220" s="122"/>
@@ -18076,15 +18029,12 @@
       <c r="G220" s="122"/>
       <c r="H220" s="122"/>
     </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="122" t="str">
+    <row r="221" spans="1:8" ht="15.75">
+      <c r="A221" s="253" t="str">
         <f>ev391apos!A231</f>
-        <v>unit</v>
-      </c>
-      <c r="B221" s="122" t="str">
-        <f>ev391apos!B231</f>
-        <v>megajoule</v>
-      </c>
+        <v>Exchanges</v>
+      </c>
+      <c r="B221" s="122"/>
       <c r="C221" s="122"/>
       <c r="D221" s="122"/>
       <c r="E221" s="122"/>
@@ -18093,68 +18043,86 @@
       <c r="H221" s="122"/>
     </row>
     <row r="222" spans="1:8" ht="15.75">
-      <c r="A222" s="253" t="str">
+      <c r="A222" s="127" t="str">
         <f>ev391apos!A232</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B222" s="122"/>
-      <c r="C222" s="122"/>
-      <c r="D222" s="122"/>
-      <c r="E222" s="122"/>
-      <c r="F222" s="122"/>
-      <c r="G222" s="122"/>
-      <c r="H222" s="122"/>
-    </row>
-    <row r="223" spans="1:8" ht="15.75">
-      <c r="A223" s="127" t="str">
+        <v>name</v>
+      </c>
+      <c r="B222" s="127" t="str">
+        <f>ev391apos!B232</f>
+        <v>amount</v>
+      </c>
+      <c r="C222" s="127" t="str">
+        <f>ev391apos!C232</f>
+        <v>reference product</v>
+      </c>
+      <c r="D222" s="127" t="str">
+        <f>ev391apos!D232</f>
+        <v>location</v>
+      </c>
+      <c r="E222" s="127" t="str">
+        <f>ev391apos!E232</f>
+        <v>unit</v>
+      </c>
+      <c r="F222" s="128" t="str">
+        <f>ev391apos!F232</f>
+        <v>categories</v>
+      </c>
+      <c r="G222" s="127" t="str">
+        <f>ev391apos!G232</f>
+        <v>type</v>
+      </c>
+      <c r="H222" s="127" t="str">
+        <f>ev391apos!H232</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="122" t="str">
         <f>ev391apos!A233</f>
-        <v>name</v>
-      </c>
-      <c r="B223" s="127" t="str">
+        <v>mixed heating grid</v>
+      </c>
+      <c r="B223" s="255">
         <f>ev391apos!B233</f>
-        <v>amount</v>
-      </c>
-      <c r="C223" s="127" t="str">
+        <v>1</v>
+      </c>
+      <c r="C223" s="122" t="str">
         <f>ev391apos!C233</f>
-        <v>reference product</v>
-      </c>
-      <c r="D223" s="127" t="str">
+        <v>mixed heating grid</v>
+      </c>
+      <c r="D223" s="122" t="str">
         <f>ev391apos!D233</f>
-        <v>location</v>
-      </c>
-      <c r="E223" s="127" t="str">
+        <v>DK</v>
+      </c>
+      <c r="E223" s="122" t="str">
         <f>ev391apos!E233</f>
-        <v>unit</v>
-      </c>
-      <c r="F223" s="128" t="str">
-        <f>ev391apos!F233</f>
-        <v>categories</v>
-      </c>
-      <c r="G223" s="127" t="str">
+        <v>megajoule</v>
+      </c>
+      <c r="F223" s="122"/>
+      <c r="G223" s="122" t="str">
         <f>ev391apos!G233</f>
-        <v>type</v>
-      </c>
-      <c r="H223" s="127" t="str">
+        <v>production</v>
+      </c>
+      <c r="H223" s="122" t="str">
         <f>ev391apos!H233</f>
-        <v>database</v>
+        <v>case2_apos</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="122" t="str">
         <f>ev391apos!A234</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="B224" s="255">
+        <v>heat production from hot water</v>
+      </c>
+      <c r="B224" s="122">
         <f>ev391apos!B234</f>
-        <v>1</v>
+        <v>0.1026</v>
       </c>
       <c r="C224" s="122" t="str">
         <f>ev391apos!C234</f>
-        <v>mixed heating grid</v>
+        <v>heat production from hot water</v>
       </c>
       <c r="D224" s="122" t="str">
         <f>ev391apos!D234</f>
-        <v>GLO</v>
+        <v>DK</v>
       </c>
       <c r="E224" s="122" t="str">
         <f>ev391apos!E234</f>
@@ -18163,7 +18131,7 @@
       <c r="F224" s="122"/>
       <c r="G224" s="122" t="str">
         <f>ev391apos!G234</f>
-        <v>production</v>
+        <v>technosphere</v>
       </c>
       <c r="H224" s="122" t="str">
         <f>ev391apos!H234</f>
@@ -18173,19 +18141,19 @@
     <row r="225" spans="1:8">
       <c r="A225" s="122" t="str">
         <f>ev391apos!A235</f>
-        <v>heat production from hot water</v>
+        <v>heat production, at hard coal industrial furnace 1-10MW</v>
       </c>
       <c r="B225" s="122">
         <f>ev391apos!B235</f>
-        <v>0.1026</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="C225" s="122" t="str">
         <f>ev391apos!C235</f>
-        <v>heat production from hot water</v>
+        <v>heat, district or industrial, other than natural gas</v>
       </c>
       <c r="D225" s="122" t="str">
         <f>ev391apos!D235</f>
-        <v>GLO</v>
+        <v>Europe without Switzerland</v>
       </c>
       <c r="E225" s="122" t="str">
         <f>ev391apos!E235</f>
@@ -18196,19 +18164,18 @@
         <f>ev391apos!G235</f>
         <v>technosphere</v>
       </c>
-      <c r="H225" s="122" t="str">
-        <f>ev391apos!H235</f>
-        <v>case2_apos</v>
+      <c r="H225" s="122" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="122" t="str">
         <f>ev391apos!A236</f>
-        <v>heat production, at hard coal industrial furnace 1-10MW</v>
+        <v>heat production, hardwood chips from forest, at furnace 5000kW, state-of-the-art 2014</v>
       </c>
       <c r="B226" s="122">
         <f>ev391apos!B236</f>
-        <v>5.1299999999999998E-2</v>
+        <v>0.44869999999999999</v>
       </c>
       <c r="C226" s="122" t="str">
         <f>ev391apos!C236</f>
@@ -18216,7 +18183,7 @@
       </c>
       <c r="D226" s="122" t="str">
         <f>ev391apos!D236</f>
-        <v>Europe without Switzerland</v>
+        <v>CH</v>
       </c>
       <c r="E226" s="122" t="str">
         <f>ev391apos!E236</f>
@@ -18234,19 +18201,19 @@
     <row r="227" spans="1:8">
       <c r="A227" s="122" t="str">
         <f>ev391apos!A237</f>
-        <v>heat production, hardwood chips from forest, at furnace 5000kW, state-of-the-art 2014</v>
+        <v>heat production, natural gas, at industrial furnace low-NOx &gt;100kW</v>
       </c>
       <c r="B227" s="122">
         <f>ev391apos!B237</f>
-        <v>0.44869999999999999</v>
+        <v>0.20513000000000001</v>
       </c>
       <c r="C227" s="122" t="str">
         <f>ev391apos!C237</f>
-        <v>heat, district or industrial, other than natural gas</v>
+        <v>heat, district or industrial, natural gas</v>
       </c>
       <c r="D227" s="122" t="str">
         <f>ev391apos!D237</f>
-        <v>CH</v>
+        <v>Europe without Switzerland</v>
       </c>
       <c r="E227" s="122" t="str">
         <f>ev391apos!E237</f>
@@ -18264,19 +18231,19 @@
     <row r="228" spans="1:8">
       <c r="A228" s="122" t="str">
         <f>ev391apos!A238</f>
-        <v>heat production, natural gas, at industrial furnace low-NOx &gt;100kW</v>
+        <v>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</v>
       </c>
       <c r="B228" s="122">
         <f>ev391apos!B238</f>
-        <v>0.20513000000000001</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="C228" s="122" t="str">
         <f>ev391apos!C238</f>
-        <v>heat, district or industrial, natural gas</v>
+        <v>heat, central or small-scale, other than natural gas</v>
       </c>
       <c r="D228" s="122" t="str">
         <f>ev391apos!D238</f>
-        <v>Europe without Switzerland</v>
+        <v>CH</v>
       </c>
       <c r="E228" s="122" t="str">
         <f>ev391apos!E238</f>
@@ -18294,19 +18261,19 @@
     <row r="229" spans="1:8">
       <c r="A229" s="122" t="str">
         <f>ev391apos!A239</f>
-        <v>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</v>
+        <v>heavy fuel oil, burned in refinery furnace</v>
       </c>
       <c r="B229" s="122">
         <f>ev391apos!B239</f>
-        <v>0.17949999999999999</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="C229" s="122" t="str">
         <f>ev391apos!C239</f>
-        <v>heat, central or small-scale, other than natural gas</v>
+        <v>heavy fuel oil, burned in refinery furnace</v>
       </c>
       <c r="D229" s="122" t="str">
         <f>ev391apos!D239</f>
-        <v>CH</v>
+        <v>Europe without Switzerland</v>
       </c>
       <c r="E229" s="122" t="str">
         <f>ev391apos!E239</f>
@@ -18321,44 +18288,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="122" t="str">
-        <f>ev391apos!A240</f>
-        <v>heavy fuel oil, burned in refinery furnace</v>
-      </c>
-      <c r="B230" s="122">
-        <f>ev391apos!B240</f>
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="C230" s="122" t="str">
-        <f>ev391apos!C240</f>
-        <v>heavy fuel oil, burned in refinery furnace</v>
-      </c>
-      <c r="D230" s="122" t="str">
-        <f>ev391apos!D240</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="E230" s="122" t="str">
-        <f>ev391apos!E240</f>
-        <v>megajoule</v>
-      </c>
-      <c r="F230" s="122"/>
-      <c r="G230" s="122" t="str">
-        <f>ev391apos!G240</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H230" s="122" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="15.75">
-      <c r="A232" s="262" t="str">
+    <row r="231" spans="1:8" ht="15.75">
+      <c r="A231" s="262" t="str">
+        <f>ev391apos!A241</f>
+        <v>Activity</v>
+      </c>
+      <c r="B231" s="262" t="str">
+        <f>ev391apos!B241</f>
+        <v>eol SUD</v>
+      </c>
+      <c r="C231" s="263"/>
+      <c r="D231" s="263"/>
+      <c r="E231" s="263"/>
+      <c r="F231" s="263"/>
+      <c r="G231" s="263"/>
+      <c r="H231" s="263"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="263" t="str">
         <f>ev391apos!A242</f>
-        <v>Activity</v>
-      </c>
-      <c r="B232" s="262" t="str">
+        <v>production amount</v>
+      </c>
+      <c r="B232" s="264">
         <f>ev391apos!B242</f>
-        <v>eol SUD</v>
+        <v>1</v>
       </c>
       <c r="C232" s="263"/>
       <c r="D232" s="263"/>
@@ -18370,11 +18323,11 @@
     <row r="233" spans="1:8">
       <c r="A233" s="263" t="str">
         <f>ev391apos!A243</f>
-        <v>production amount</v>
-      </c>
-      <c r="B233" s="264">
+        <v>reference product</v>
+      </c>
+      <c r="B233" s="263" t="str">
         <f>ev391apos!B243</f>
-        <v>1</v>
+        <v>eol</v>
       </c>
       <c r="C233" s="263"/>
       <c r="D233" s="263"/>
@@ -18386,11 +18339,11 @@
     <row r="234" spans="1:8">
       <c r="A234" s="263" t="str">
         <f>ev391apos!A244</f>
-        <v>reference product</v>
+        <v>location</v>
       </c>
       <c r="B234" s="263" t="str">
         <f>ev391apos!B244</f>
-        <v>eol</v>
+        <v>GLO</v>
       </c>
       <c r="C234" s="263"/>
       <c r="D234" s="263"/>
@@ -18402,11 +18355,11 @@
     <row r="235" spans="1:8">
       <c r="A235" s="263" t="str">
         <f>ev391apos!A245</f>
-        <v>location</v>
+        <v>unit</v>
       </c>
       <c r="B235" s="263" t="str">
         <f>ev391apos!B245</f>
-        <v>GLO</v>
+        <v>kilogram</v>
       </c>
       <c r="C235" s="263"/>
       <c r="D235" s="263"/>
@@ -18415,15 +18368,12 @@
       <c r="G235" s="263"/>
       <c r="H235" s="263"/>
     </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="263" t="str">
+    <row r="236" spans="1:8" ht="15.75">
+      <c r="A236" s="262" t="str">
         <f>ev391apos!A246</f>
-        <v>unit</v>
-      </c>
-      <c r="B236" s="263" t="str">
-        <f>ev391apos!B246</f>
-        <v>kilogram</v>
-      </c>
+        <v>Exchanges</v>
+      </c>
+      <c r="B236" s="263"/>
       <c r="C236" s="263"/>
       <c r="D236" s="263"/>
       <c r="E236" s="263"/>
@@ -18432,68 +18382,86 @@
       <c r="H236" s="263"/>
     </row>
     <row r="237" spans="1:8" ht="15.75">
-      <c r="A237" s="262" t="str">
+      <c r="A237" s="265" t="str">
         <f>ev391apos!A247</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B237" s="263"/>
-      <c r="C237" s="263"/>
-      <c r="D237" s="263"/>
-      <c r="E237" s="263"/>
-      <c r="F237" s="263"/>
-      <c r="G237" s="263"/>
-      <c r="H237" s="263"/>
-    </row>
-    <row r="238" spans="1:8" ht="15.75">
-      <c r="A238" s="265" t="str">
+        <v>name</v>
+      </c>
+      <c r="B237" s="265" t="str">
+        <f>ev391apos!B247</f>
+        <v>amount</v>
+      </c>
+      <c r="C237" s="265" t="str">
+        <f>ev391apos!C247</f>
+        <v>reference product</v>
+      </c>
+      <c r="D237" s="265" t="str">
+        <f>ev391apos!D247</f>
+        <v>location</v>
+      </c>
+      <c r="E237" s="265" t="str">
+        <f>ev391apos!E247</f>
+        <v>unit</v>
+      </c>
+      <c r="F237" s="266" t="str">
+        <f>ev391apos!F247</f>
+        <v>categories</v>
+      </c>
+      <c r="G237" s="265" t="str">
+        <f>ev391apos!G247</f>
+        <v>type</v>
+      </c>
+      <c r="H237" s="265" t="str">
+        <f>ev391apos!H247</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="263" t="str">
         <f>ev391apos!A248</f>
-        <v>name</v>
-      </c>
-      <c r="B238" s="265" t="str">
+        <v>eol SUD</v>
+      </c>
+      <c r="B238" s="267">
         <f>ev391apos!B248</f>
-        <v>amount</v>
-      </c>
-      <c r="C238" s="265" t="str">
+        <v>1</v>
+      </c>
+      <c r="C238" s="263" t="str">
         <f>ev391apos!C248</f>
-        <v>reference product</v>
-      </c>
-      <c r="D238" s="265" t="str">
+        <v>eol</v>
+      </c>
+      <c r="D238" s="263" t="str">
         <f>ev391apos!D248</f>
-        <v>location</v>
-      </c>
-      <c r="E238" s="265" t="str">
+        <v>GLO</v>
+      </c>
+      <c r="E238" s="263" t="str">
         <f>ev391apos!E248</f>
-        <v>unit</v>
-      </c>
-      <c r="F238" s="266" t="str">
-        <f>ev391apos!F248</f>
-        <v>categories</v>
-      </c>
-      <c r="G238" s="265" t="str">
+        <v>kilogram</v>
+      </c>
+      <c r="F238" s="263"/>
+      <c r="G238" s="263" t="str">
         <f>ev391apos!G248</f>
-        <v>type</v>
-      </c>
-      <c r="H238" s="265" t="str">
+        <v>production</v>
+      </c>
+      <c r="H238" s="263" t="str">
         <f>ev391apos!H248</f>
-        <v>database</v>
+        <v>case2_apos</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="263" t="str">
         <f>ev391apos!A249</f>
-        <v>eol SUD</v>
-      </c>
-      <c r="B239" s="267">
+        <v>treatment of hazardous waste, hazardous waste incineration</v>
+      </c>
+      <c r="B239" s="263">
         <f>ev391apos!B249</f>
-        <v>1</v>
+        <v>4.1554130910640599E-2</v>
       </c>
       <c r="C239" s="263" t="str">
         <f>ev391apos!C249</f>
-        <v>eol</v>
+        <v>hazardous waste, for incineration</v>
       </c>
       <c r="D239" s="263" t="str">
         <f>ev391apos!D249</f>
-        <v>GLO</v>
+        <v>Europe without Switzerland</v>
       </c>
       <c r="E239" s="263" t="str">
         <f>ev391apos!E249</f>
@@ -18502,29 +18470,28 @@
       <c r="F239" s="263"/>
       <c r="G239" s="263" t="str">
         <f>ev391apos!G249</f>
-        <v>production</v>
-      </c>
-      <c r="H239" s="263" t="str">
-        <f>ev391apos!H249</f>
-        <v>case2_apos</v>
+        <v>technosphere</v>
+      </c>
+      <c r="H239" s="263" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="263" t="str">
         <f>ev391apos!A250</f>
-        <v>treatment of hazardous waste, hazardous waste incineration</v>
+        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
       </c>
       <c r="B240" s="263">
         <f>ev391apos!B250</f>
-        <v>4.1554130910640599E-2</v>
+        <v>0.271672758270046</v>
       </c>
       <c r="C240" s="263" t="str">
         <f>ev391apos!C250</f>
-        <v>hazardous waste, for incineration</v>
+        <v>municipal solid waste</v>
       </c>
       <c r="D240" s="263" t="str">
         <f>ev391apos!D250</f>
-        <v>Europe without Switzerland</v>
+        <v>CH</v>
       </c>
       <c r="E240" s="263" t="str">
         <f>ev391apos!E250</f>
@@ -18542,15 +18509,15 @@
     <row r="241" spans="1:8">
       <c r="A241" s="263" t="str">
         <f>ev391apos!A251</f>
-        <v>treatment of municipal solid waste, municipal incineration with fly ash extraction</v>
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
       </c>
       <c r="B241" s="263">
         <f>ev391apos!B251</f>
-        <v>0.271672758270046</v>
+        <v>0.52743927745681096</v>
       </c>
       <c r="C241" s="263" t="str">
         <f>ev391apos!C251</f>
-        <v>municipal solid waste</v>
+        <v>waste polyethylene</v>
       </c>
       <c r="D241" s="263" t="str">
         <f>ev391apos!D251</f>
@@ -18572,15 +18539,15 @@
     <row r="242" spans="1:8">
       <c r="A242" s="263" t="str">
         <f>ev391apos!A252</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
       </c>
       <c r="B242" s="263">
         <f>ev391apos!B252</f>
-        <v>0.52743927745681096</v>
+        <v>0.15933383336250301</v>
       </c>
       <c r="C242" s="263" t="str">
         <f>ev391apos!C252</f>
-        <v>waste polyethylene</v>
+        <v>waste plastic, mixture</v>
       </c>
       <c r="D242" s="263" t="str">
         <f>ev391apos!D252</f>
@@ -18599,44 +18566,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="263" t="str">
-        <f>ev391apos!A253</f>
-        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B243" s="263">
-        <f>ev391apos!B253</f>
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C243" s="263" t="str">
-        <f>ev391apos!C253</f>
-        <v>waste plastic, mixture</v>
-      </c>
-      <c r="D243" s="263" t="str">
-        <f>ev391apos!D253</f>
-        <v>CH</v>
-      </c>
-      <c r="E243" s="263" t="str">
-        <f>ev391apos!E253</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F243" s="263"/>
-      <c r="G243" s="263" t="str">
-        <f>ev391apos!G253</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H243" s="263" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="15.75">
-      <c r="A245" s="256" t="str">
+    <row r="244" spans="1:8" ht="15.75">
+      <c r="A244" s="256" t="str">
+        <f>ev391apos!A254</f>
+        <v>Activity</v>
+      </c>
+      <c r="B244" s="256" t="str">
+        <f>ev391apos!B254</f>
+        <v>eol MUD</v>
+      </c>
+      <c r="C244" s="257"/>
+      <c r="D244" s="257"/>
+      <c r="E244" s="257"/>
+      <c r="F244" s="257"/>
+      <c r="G244" s="257"/>
+      <c r="H244" s="257"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="257" t="str">
         <f>ev391apos!A255</f>
-        <v>Activity</v>
-      </c>
-      <c r="B245" s="256" t="str">
+        <v>production amount</v>
+      </c>
+      <c r="B245" s="258">
         <f>ev391apos!B255</f>
-        <v>eol MUD</v>
+        <v>1</v>
       </c>
       <c r="C245" s="257"/>
       <c r="D245" s="257"/>
@@ -18648,11 +18601,11 @@
     <row r="246" spans="1:8">
       <c r="A246" s="257" t="str">
         <f>ev391apos!A256</f>
-        <v>production amount</v>
-      </c>
-      <c r="B246" s="258">
+        <v>reference product</v>
+      </c>
+      <c r="B246" s="257" t="str">
         <f>ev391apos!B256</f>
-        <v>1</v>
+        <v>eol</v>
       </c>
       <c r="C246" s="257"/>
       <c r="D246" s="257"/>
@@ -18664,11 +18617,11 @@
     <row r="247" spans="1:8">
       <c r="A247" s="257" t="str">
         <f>ev391apos!A257</f>
-        <v>reference product</v>
+        <v>location</v>
       </c>
       <c r="B247" s="257" t="str">
         <f>ev391apos!B257</f>
-        <v>eol</v>
+        <v>GLO</v>
       </c>
       <c r="C247" s="257"/>
       <c r="D247" s="257"/>
@@ -18680,11 +18633,11 @@
     <row r="248" spans="1:8">
       <c r="A248" s="257" t="str">
         <f>ev391apos!A258</f>
-        <v>location</v>
+        <v>unit</v>
       </c>
       <c r="B248" s="257" t="str">
         <f>ev391apos!B258</f>
-        <v>GLO</v>
+        <v>kilogram</v>
       </c>
       <c r="C248" s="257"/>
       <c r="D248" s="257"/>
@@ -18693,15 +18646,12 @@
       <c r="G248" s="257"/>
       <c r="H248" s="257"/>
     </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="257" t="str">
+    <row r="249" spans="1:8" ht="15.75">
+      <c r="A249" s="256" t="str">
         <f>ev391apos!A259</f>
-        <v>unit</v>
-      </c>
-      <c r="B249" s="257" t="str">
-        <f>ev391apos!B259</f>
-        <v>kilogram</v>
-      </c>
+        <v>Exchanges</v>
+      </c>
+      <c r="B249" s="257"/>
       <c r="C249" s="257"/>
       <c r="D249" s="257"/>
       <c r="E249" s="257"/>
@@ -18710,68 +18660,86 @@
       <c r="H249" s="257"/>
     </row>
     <row r="250" spans="1:8" ht="15.75">
-      <c r="A250" s="256" t="str">
+      <c r="A250" s="259" t="str">
         <f>ev391apos!A260</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B250" s="257"/>
-      <c r="C250" s="257"/>
-      <c r="D250" s="257"/>
-      <c r="E250" s="257"/>
-      <c r="F250" s="257"/>
-      <c r="G250" s="257"/>
-      <c r="H250" s="257"/>
-    </row>
-    <row r="251" spans="1:8" ht="15.75">
-      <c r="A251" s="259" t="str">
+        <v>name</v>
+      </c>
+      <c r="B250" s="259" t="str">
+        <f>ev391apos!B260</f>
+        <v>amount</v>
+      </c>
+      <c r="C250" s="259" t="str">
+        <f>ev391apos!C260</f>
+        <v>reference product</v>
+      </c>
+      <c r="D250" s="259" t="str">
+        <f>ev391apos!D260</f>
+        <v>location</v>
+      </c>
+      <c r="E250" s="259" t="str">
+        <f>ev391apos!E260</f>
+        <v>unit</v>
+      </c>
+      <c r="F250" s="260" t="str">
+        <f>ev391apos!F260</f>
+        <v>categories</v>
+      </c>
+      <c r="G250" s="259" t="str">
+        <f>ev391apos!G260</f>
+        <v>type</v>
+      </c>
+      <c r="H250" s="259" t="str">
+        <f>ev391apos!H260</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="257" t="str">
         <f>ev391apos!A261</f>
-        <v>name</v>
-      </c>
-      <c r="B251" s="259" t="str">
+        <v>eol MUD</v>
+      </c>
+      <c r="B251" s="261">
         <f>ev391apos!B261</f>
-        <v>amount</v>
-      </c>
-      <c r="C251" s="259" t="str">
+        <v>1</v>
+      </c>
+      <c r="C251" s="257" t="str">
         <f>ev391apos!C261</f>
-        <v>reference product</v>
-      </c>
-      <c r="D251" s="259" t="str">
+        <v>eol</v>
+      </c>
+      <c r="D251" s="257" t="str">
         <f>ev391apos!D261</f>
-        <v>location</v>
-      </c>
-      <c r="E251" s="259" t="str">
+        <v>GLO</v>
+      </c>
+      <c r="E251" s="257" t="str">
         <f>ev391apos!E261</f>
-        <v>unit</v>
-      </c>
-      <c r="F251" s="260" t="str">
-        <f>ev391apos!F261</f>
-        <v>categories</v>
-      </c>
-      <c r="G251" s="259" t="str">
+        <v>kilogram</v>
+      </c>
+      <c r="F251" s="257"/>
+      <c r="G251" s="257" t="str">
         <f>ev391apos!G261</f>
-        <v>type</v>
-      </c>
-      <c r="H251" s="259" t="str">
+        <v>production</v>
+      </c>
+      <c r="H251" s="257" t="str">
         <f>ev391apos!H261</f>
-        <v>database</v>
+        <v>case2_apos</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="257" t="str">
         <f>ev391apos!A262</f>
-        <v>eol MUD</v>
-      </c>
-      <c r="B252" s="261">
+        <v>treatment of hazardous waste, hazardous waste incineration</v>
+      </c>
+      <c r="B252" s="257">
         <f>ev391apos!B262</f>
-        <v>1</v>
+        <v>4.1554130910640599E-2</v>
       </c>
       <c r="C252" s="257" t="str">
         <f>ev391apos!C262</f>
-        <v>eol</v>
+        <v>hazardous waste, for incineration</v>
       </c>
       <c r="D252" s="257" t="str">
         <f>ev391apos!D262</f>
-        <v>GLO</v>
+        <v>Europe without Switzerland</v>
       </c>
       <c r="E252" s="257" t="str">
         <f>ev391apos!E262</f>
@@ -18780,29 +18748,28 @@
       <c r="F252" s="257"/>
       <c r="G252" s="257" t="str">
         <f>ev391apos!G262</f>
-        <v>production</v>
-      </c>
-      <c r="H252" s="257" t="str">
-        <f>ev391apos!H262</f>
-        <v>case2_apos</v>
+        <v>technosphere</v>
+      </c>
+      <c r="H252" s="257" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="257" t="str">
         <f>ev391apos!A263</f>
-        <v>treatment of hazardous waste, hazardous waste incineration</v>
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
       </c>
       <c r="B253" s="257">
         <f>ev391apos!B263</f>
-        <v>4.1554130910640599E-2</v>
+        <v>0.52743927745681096</v>
       </c>
       <c r="C253" s="257" t="str">
         <f>ev391apos!C263</f>
-        <v>hazardous waste, for incineration</v>
+        <v>waste polyethylene</v>
       </c>
       <c r="D253" s="257" t="str">
         <f>ev391apos!D263</f>
-        <v>Europe without Switzerland</v>
+        <v>CH</v>
       </c>
       <c r="E253" s="257" t="str">
         <f>ev391apos!E263</f>
@@ -18820,15 +18787,15 @@
     <row r="254" spans="1:8">
       <c r="A254" s="257" t="str">
         <f>ev391apos!A264</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
       </c>
       <c r="B254" s="257">
         <f>ev391apos!B264</f>
-        <v>0.52743927745681096</v>
+        <v>0.15933383336250301</v>
       </c>
       <c r="C254" s="257" t="str">
         <f>ev391apos!C264</f>
-        <v>waste polyethylene</v>
+        <v>waste plastic, mixture</v>
       </c>
       <c r="D254" s="257" t="str">
         <f>ev391apos!D264</f>
@@ -18847,47 +18814,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="257" t="str">
-        <f>ev391apos!A265</f>
-        <v>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</v>
-      </c>
-      <c r="B255" s="257">
-        <f>ev391apos!B265</f>
-        <v>0.15933383336250301</v>
-      </c>
-      <c r="C255" s="257" t="str">
-        <f>ev391apos!C265</f>
-        <v>waste plastic, mixture</v>
-      </c>
-      <c r="D255" s="257" t="str">
-        <f>ev391apos!D265</f>
-        <v>CH</v>
-      </c>
-      <c r="E255" s="257" t="str">
-        <f>ev391apos!E265</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F255" s="257"/>
-      <c r="G255" s="257" t="str">
-        <f>ev391apos!G265</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H255" s="257" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="15.75">
-      <c r="A257" s="268" t="str">
+    <row r="256" spans="1:8" ht="15.75">
+      <c r="A256" s="268" t="str">
+        <f>ev391apos!A266</f>
+        <v>Activity</v>
+      </c>
+      <c r="B256" s="269" t="str">
+        <f>ev391apos!B266</f>
+        <v>H200 SU</v>
+      </c>
+      <c r="C256" s="35"/>
+      <c r="D256" s="270"/>
+      <c r="E256" s="35"/>
+      <c r="F256" s="34"/>
+      <c r="G256" s="35"/>
+      <c r="H256" s="35"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="271" t="str">
         <f>ev391apos!A267</f>
-        <v>Activity</v>
-      </c>
-      <c r="B257" s="269" t="str">
+        <v>production amount</v>
+      </c>
+      <c r="B257" s="272">
         <f>ev391apos!B267</f>
-        <v>H200 SU</v>
+        <v>1</v>
       </c>
       <c r="C257" s="35"/>
-      <c r="D257" s="270"/>
+      <c r="D257" s="35"/>
       <c r="E257" s="35"/>
       <c r="F257" s="34"/>
       <c r="G257" s="35"/>
@@ -18896,11 +18849,11 @@
     <row r="258" spans="1:8">
       <c r="A258" s="271" t="str">
         <f>ev391apos!A268</f>
-        <v>production amount</v>
-      </c>
-      <c r="B258" s="272">
+        <v>reference product</v>
+      </c>
+      <c r="B258" s="273" t="str">
         <f>ev391apos!B268</f>
-        <v>1</v>
+        <v>H2S</v>
       </c>
       <c r="C258" s="35"/>
       <c r="D258" s="35"/>
@@ -18912,11 +18865,11 @@
     <row r="259" spans="1:8">
       <c r="A259" s="271" t="str">
         <f>ev391apos!A269</f>
-        <v>reference product</v>
-      </c>
-      <c r="B259" s="273" t="str">
+        <v>location</v>
+      </c>
+      <c r="B259" s="274" t="str">
         <f>ev391apos!B269</f>
-        <v>H2S</v>
+        <v>GLO</v>
       </c>
       <c r="C259" s="35"/>
       <c r="D259" s="35"/>
@@ -18928,11 +18881,11 @@
     <row r="260" spans="1:8">
       <c r="A260" s="271" t="str">
         <f>ev391apos!A270</f>
-        <v>location</v>
-      </c>
-      <c r="B260" s="274" t="str">
+        <v>unit</v>
+      </c>
+      <c r="B260" s="32" t="str">
         <f>ev391apos!B270</f>
-        <v>GLO</v>
+        <v>unit</v>
       </c>
       <c r="C260" s="35"/>
       <c r="D260" s="35"/>
@@ -18941,73 +18894,88 @@
       <c r="G260" s="35"/>
       <c r="H260" s="35"/>
     </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="271" t="str">
+    <row r="261" spans="1:8" ht="15.75">
+      <c r="A261" s="275" t="str">
         <f>ev391apos!A271</f>
-        <v>unit</v>
-      </c>
-      <c r="B261" s="32" t="str">
-        <f>ev391apos!B271</f>
-        <v>unit</v>
-      </c>
-      <c r="C261" s="35"/>
-      <c r="D261" s="35"/>
-      <c r="E261" s="35"/>
+        <v>Exchanges</v>
+      </c>
+      <c r="B261" s="269"/>
+      <c r="C261" s="275"/>
+      <c r="D261" s="275"/>
+      <c r="E261" s="275"/>
       <c r="F261" s="34"/>
-      <c r="G261" s="35"/>
-      <c r="H261" s="35"/>
+      <c r="G261" s="275"/>
+      <c r="H261" s="275"/>
     </row>
     <row r="262" spans="1:8" ht="15.75">
       <c r="A262" s="275" t="str">
         <f>ev391apos!A272</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B262" s="269"/>
-      <c r="C262" s="275"/>
-      <c r="D262" s="275"/>
-      <c r="E262" s="275"/>
-      <c r="F262" s="34"/>
-      <c r="G262" s="275"/>
-      <c r="H262" s="275"/>
-    </row>
-    <row r="263" spans="1:8" ht="15.75">
-      <c r="A263" s="275" t="str">
+        <v>name</v>
+      </c>
+      <c r="B262" s="275" t="str">
+        <f>ev391apos!B272</f>
+        <v>amount</v>
+      </c>
+      <c r="C262" s="275" t="str">
+        <f>ev391apos!C272</f>
+        <v>reference product</v>
+      </c>
+      <c r="D262" s="275" t="str">
+        <f>ev391apos!D272</f>
+        <v>location</v>
+      </c>
+      <c r="E262" s="275" t="str">
+        <f>ev391apos!E272</f>
+        <v>unit</v>
+      </c>
+      <c r="F262" s="276" t="str">
+        <f>ev391apos!F272</f>
+        <v>categories</v>
+      </c>
+      <c r="G262" s="275" t="str">
+        <f>ev391apos!G272</f>
+        <v>type</v>
+      </c>
+      <c r="H262" s="275" t="str">
+        <f>ev391apos!H272</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="32" t="str">
         <f>ev391apos!A273</f>
-        <v>name</v>
-      </c>
-      <c r="B263" s="275" t="str">
+        <v>H200 SU</v>
+      </c>
+      <c r="B263" s="33">
         <f>ev391apos!B273</f>
-        <v>amount</v>
-      </c>
-      <c r="C263" s="275" t="str">
+        <v>1</v>
+      </c>
+      <c r="C263" s="32" t="str">
         <f>ev391apos!C273</f>
-        <v>reference product</v>
-      </c>
-      <c r="D263" s="275" t="str">
+        <v>H2S</v>
+      </c>
+      <c r="D263" s="32" t="str">
         <f>ev391apos!D273</f>
-        <v>location</v>
-      </c>
-      <c r="E263" s="275" t="str">
+        <v>GLO</v>
+      </c>
+      <c r="E263" s="32" t="str">
         <f>ev391apos!E273</f>
         <v>unit</v>
       </c>
-      <c r="F263" s="276" t="str">
-        <f>ev391apos!F273</f>
-        <v>categories</v>
-      </c>
-      <c r="G263" s="275" t="str">
+      <c r="F263" s="34"/>
+      <c r="G263" s="35" t="str">
         <f>ev391apos!G273</f>
-        <v>type</v>
-      </c>
-      <c r="H263" s="275" t="str">
+        <v>production</v>
+      </c>
+      <c r="H263" s="32" t="str">
         <f>ev391apos!H273</f>
-        <v>database</v>
+        <v>case2_apos</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="32" t="str">
         <f>ev391apos!A274</f>
-        <v>H200 SU</v>
+        <v>H200</v>
       </c>
       <c r="B264" s="33">
         <f>ev391apos!B274</f>
@@ -19015,7 +18983,7 @@
       </c>
       <c r="C264" s="32" t="str">
         <f>ev391apos!C274</f>
-        <v>H2S</v>
+        <v>H200</v>
       </c>
       <c r="D264" s="32" t="str">
         <f>ev391apos!D274</f>
@@ -19028,7 +18996,7 @@
       <c r="F264" s="34"/>
       <c r="G264" s="35" t="str">
         <f>ev391apos!G274</f>
-        <v>production</v>
+        <v>technosphere</v>
       </c>
       <c r="H264" s="32" t="str">
         <f>ev391apos!H274</f>
@@ -19036,48 +19004,47 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="32" t="str">
+      <c r="A265" s="277" t="str">
         <f>ev391apos!A275</f>
-        <v>H200</v>
-      </c>
-      <c r="B265" s="33">
+        <v>treatment of waste polypropylene, municipal incineration with fly ash extraction</v>
+      </c>
+      <c r="B265" s="278">
         <f>ev391apos!B275</f>
-        <v>1</v>
-      </c>
-      <c r="C265" s="32" t="str">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="C265" s="277" t="str">
         <f>ev391apos!C275</f>
-        <v>H200</v>
-      </c>
-      <c r="D265" s="32" t="str">
+        <v>waste polypropylene</v>
+      </c>
+      <c r="D265" s="279" t="str">
         <f>ev391apos!D275</f>
-        <v>GLO</v>
-      </c>
-      <c r="E265" s="32" t="str">
+        <v>CH</v>
+      </c>
+      <c r="E265" s="279" t="str">
         <f>ev391apos!E275</f>
-        <v>unit</v>
-      </c>
-      <c r="F265" s="34"/>
-      <c r="G265" s="35" t="str">
+        <v>kilogram</v>
+      </c>
+      <c r="F265" s="279"/>
+      <c r="G265" s="280" t="str">
         <f>ev391apos!G275</f>
         <v>technosphere</v>
       </c>
-      <c r="H265" s="32" t="str">
-        <f>ev391apos!H275</f>
-        <v>case2_apos</v>
+      <c r="H265" s="280" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="277" t="str">
+      <c r="A266" s="281" t="str">
         <f>ev391apos!A276</f>
-        <v>treatment of waste polypropylene, municipal incineration with fly ash extraction</v>
+        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
       </c>
       <c r="B266" s="278">
         <f>ev391apos!B276</f>
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="C266" s="277" t="str">
+        <v>-7.2700000000000004E-3</v>
+      </c>
+      <c r="C266" s="280" t="str">
         <f>ev391apos!C276</f>
-        <v>waste polypropylene</v>
+        <v>waste polyethylene</v>
       </c>
       <c r="D266" s="279" t="str">
         <f>ev391apos!D276</f>
@@ -19099,23 +19066,23 @@
     <row r="267" spans="1:8">
       <c r="A267" s="281" t="str">
         <f>ev391apos!A277</f>
-        <v>treatment of waste polyethylene, municipal incineration with fly ash extraction</v>
+        <v>market for electricity, high voltage</v>
       </c>
       <c r="B267" s="278">
         <f>ev391apos!B277</f>
-        <v>-7.2700000000000004E-3</v>
+        <v>-0.14709144573749999</v>
       </c>
       <c r="C267" s="280" t="str">
         <f>ev391apos!C277</f>
-        <v>waste polyethylene</v>
+        <v>electricity, high voltage</v>
       </c>
       <c r="D267" s="279" t="str">
         <f>ev391apos!D277</f>
-        <v>CH</v>
+        <v>DK</v>
       </c>
       <c r="E267" s="279" t="str">
         <f>ev391apos!E277</f>
-        <v>kilogram</v>
+        <v>kilowatt hour</v>
       </c>
       <c r="F267" s="279"/>
       <c r="G267" s="280" t="str">
@@ -19129,15 +19096,15 @@
     <row r="268" spans="1:8">
       <c r="A268" s="281" t="str">
         <f>ev391apos!A278</f>
-        <v>market for electricity, high voltage</v>
+        <v>mixed heating grid</v>
       </c>
       <c r="B268" s="278">
         <f>ev391apos!B278</f>
-        <v>-0.14709144573749999</v>
+        <v>-2.6476460232750001</v>
       </c>
       <c r="C268" s="280" t="str">
         <f>ev391apos!C278</f>
-        <v>electricity, high voltage</v>
+        <v>mixed heating grid</v>
       </c>
       <c r="D268" s="279" t="str">
         <f>ev391apos!D278</f>
@@ -19145,87 +19112,72 @@
       </c>
       <c r="E268" s="279" t="str">
         <f>ev391apos!E278</f>
-        <v>kilowatt hour</v>
+        <v>megajoule</v>
       </c>
       <c r="F268" s="279"/>
       <c r="G268" s="280" t="str">
         <f>ev391apos!G278</f>
         <v>technosphere</v>
       </c>
-      <c r="H268" s="280" t="s">
-        <v>33</v>
+      <c r="H268" s="32" t="str">
+        <f>ev391apos!H278</f>
+        <v>case2_apos</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="281" t="str">
         <f>ev391apos!A279</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="B269" s="278">
+        <v>treatment of waste paper, unsorted, sorting</v>
+      </c>
+      <c r="B269" s="282">
         <f>ev391apos!B279</f>
-        <v>-2.6476460232750001</v>
-      </c>
-      <c r="C269" s="280" t="str">
-        <f>ev391apos!C279</f>
-        <v>mixed heating grid</v>
-      </c>
-      <c r="D269" s="279" t="str">
-        <f>ev391apos!D279</f>
-        <v>GLO</v>
+        <v>-3.16E-3</v>
+      </c>
+      <c r="C269" s="280" t="s">
+        <v>161</v>
+      </c>
+      <c r="D269" s="279" t="s">
+        <v>98</v>
       </c>
       <c r="E269" s="279" t="str">
         <f>ev391apos!E279</f>
-        <v>megajoule</v>
+        <v>kilogram</v>
       </c>
       <c r="F269" s="279"/>
       <c r="G269" s="280" t="str">
         <f>ev391apos!G279</f>
         <v>technosphere</v>
       </c>
-      <c r="H269" s="32" t="str">
-        <f>ev391apos!H279</f>
-        <v>case2_apos</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="281" t="str">
-        <f>ev391apos!A280</f>
-        <v>treatment of waste paper, unsorted, sorting</v>
-      </c>
-      <c r="B270" s="282">
-        <f>ev391apos!B280</f>
-        <v>-3.16E-3</v>
-      </c>
-      <c r="C270" s="280" t="s">
-        <v>161</v>
-      </c>
-      <c r="D270" s="279" t="s">
-        <v>98</v>
-      </c>
-      <c r="E270" s="279" t="str">
-        <f>ev391apos!E280</f>
-        <v>kilogram</v>
-      </c>
-      <c r="F270" s="279"/>
-      <c r="G270" s="280" t="str">
-        <f>ev391apos!G280</f>
-        <v>technosphere</v>
-      </c>
-      <c r="H270" s="280" t="s">
+      <c r="H269" s="280" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15.75">
-      <c r="A272" s="157" t="str">
+    <row r="271" spans="1:8" ht="15.75">
+      <c r="A271" s="157" t="str">
+        <f>ev391apos!A281</f>
+        <v>Activity</v>
+      </c>
+      <c r="B271" s="158" t="str">
+        <f>ev391apos!B281</f>
+        <v>H200</v>
+      </c>
+      <c r="C271" s="17"/>
+      <c r="D271" s="159"/>
+      <c r="E271" s="17"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="160" t="str">
         <f>ev391apos!A282</f>
-        <v>Activity</v>
-      </c>
-      <c r="B272" s="158" t="str">
+        <v>production amount</v>
+      </c>
+      <c r="B272" s="161">
         <f>ev391apos!B282</f>
-        <v>H200</v>
+        <v>1</v>
       </c>
       <c r="C272" s="17"/>
-      <c r="D272" s="159"/>
+      <c r="D272" s="17"/>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
       <c r="G272" s="17"/>
@@ -19233,11 +19185,11 @@
     <row r="273" spans="1:7">
       <c r="A273" s="160" t="str">
         <f>ev391apos!A283</f>
-        <v>production amount</v>
-      </c>
-      <c r="B273" s="161">
+        <v>reference product</v>
+      </c>
+      <c r="B273" s="162" t="str">
         <f>ev391apos!B283</f>
-        <v>1</v>
+        <v>H200</v>
       </c>
       <c r="C273" s="17"/>
       <c r="D273" s="17"/>
@@ -19248,11 +19200,11 @@
     <row r="274" spans="1:7">
       <c r="A274" s="160" t="str">
         <f>ev391apos!A284</f>
-        <v>reference product</v>
-      </c>
-      <c r="B274" s="162" t="str">
+        <v>location</v>
+      </c>
+      <c r="B274" s="163" t="str">
         <f>ev391apos!B284</f>
-        <v>H200</v>
+        <v>GLO</v>
       </c>
       <c r="C274" s="17"/>
       <c r="D274" s="17"/>
@@ -19263,11 +19215,11 @@
     <row r="275" spans="1:7">
       <c r="A275" s="160" t="str">
         <f>ev391apos!A285</f>
-        <v>location</v>
-      </c>
-      <c r="B275" s="163" t="str">
+        <v>unit</v>
+      </c>
+      <c r="B275" s="16" t="str">
         <f>ev391apos!B285</f>
-        <v>GLO</v>
+        <v>unit</v>
       </c>
       <c r="C275" s="17"/>
       <c r="D275" s="17"/>
@@ -19275,91 +19227,105 @@
       <c r="F275" s="17"/>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="160" t="str">
+    <row r="276" spans="1:7" ht="15.75">
+      <c r="A276" s="164" t="str">
         <f>ev391apos!A286</f>
-        <v>unit</v>
-      </c>
-      <c r="B276" s="16" t="str">
-        <f>ev391apos!B286</f>
-        <v>unit</v>
-      </c>
-      <c r="C276" s="17"/>
-      <c r="D276" s="17"/>
-      <c r="E276" s="17"/>
-      <c r="F276" s="17"/>
-      <c r="G276" s="17"/>
+        <v>Exchanges</v>
+      </c>
+      <c r="B276" s="158"/>
+      <c r="C276" s="164"/>
+      <c r="D276" s="164"/>
+      <c r="E276" s="164"/>
+      <c r="F276" s="164"/>
+      <c r="G276" s="164"/>
     </row>
     <row r="277" spans="1:7" ht="15.75">
       <c r="A277" s="164" t="str">
         <f>ev391apos!A287</f>
-        <v>Exchanges</v>
-      </c>
-      <c r="B277" s="158"/>
-      <c r="C277" s="164"/>
-      <c r="D277" s="164"/>
-      <c r="E277" s="164"/>
-      <c r="F277" s="164"/>
-      <c r="G277" s="164"/>
-    </row>
-    <row r="278" spans="1:7" ht="15.75">
-      <c r="A278" s="164" t="str">
+        <v>name</v>
+      </c>
+      <c r="B277" s="164" t="str">
+        <f>ev391apos!B287</f>
+        <v>amount</v>
+      </c>
+      <c r="C277" s="164" t="str">
+        <f>ev391apos!C287</f>
+        <v>reference product</v>
+      </c>
+      <c r="D277" s="164" t="str">
+        <f>ev391apos!D287</f>
+        <v>location</v>
+      </c>
+      <c r="E277" s="164" t="str">
+        <f>ev391apos!E287</f>
+        <v>unit</v>
+      </c>
+      <c r="F277" s="164" t="str">
+        <f>ev391apos!F287</f>
+        <v>type</v>
+      </c>
+      <c r="G277" s="164" t="str">
+        <f>ev391apos!G287</f>
+        <v>database</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="16" t="str">
         <f>ev391apos!A288</f>
-        <v>name</v>
-      </c>
-      <c r="B278" s="164" t="str">
+        <v>H200</v>
+      </c>
+      <c r="B278" s="15">
         <f>ev391apos!B288</f>
-        <v>amount</v>
-      </c>
-      <c r="C278" s="164" t="str">
+        <v>1</v>
+      </c>
+      <c r="C278" s="16" t="str">
         <f>ev391apos!C288</f>
-        <v>reference product</v>
-      </c>
-      <c r="D278" s="164" t="str">
+        <v>H200</v>
+      </c>
+      <c r="D278" s="16" t="str">
         <f>ev391apos!D288</f>
-        <v>location</v>
-      </c>
-      <c r="E278" s="164" t="str">
+        <v>GLO</v>
+      </c>
+      <c r="E278" s="16" t="str">
         <f>ev391apos!E288</f>
         <v>unit</v>
       </c>
-      <c r="F278" s="164" t="str">
+      <c r="F278" s="17" t="str">
         <f>ev391apos!F288</f>
-        <v>type</v>
-      </c>
-      <c r="G278" s="164" t="str">
+        <v>production</v>
+      </c>
+      <c r="G278" s="16" t="str">
         <f>ev391apos!G288</f>
-        <v>database</v>
+        <v>case2_apos</v>
       </c>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="16" t="str">
+      <c r="A279" s="17" t="str">
         <f>ev391apos!A289</f>
-        <v>H200</v>
-      </c>
-      <c r="B279" s="15">
+        <v>market for textile, nonwoven polypropylene</v>
+      </c>
+      <c r="B279" s="16">
         <f>ev391apos!B289</f>
-        <v>1</v>
-      </c>
-      <c r="C279" s="16" t="str">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C279" s="165" t="str">
         <f>ev391apos!C289</f>
-        <v>H200</v>
-      </c>
-      <c r="D279" s="16" t="str">
+        <v>textile, nonwoven polypropylene</v>
+      </c>
+      <c r="D279" s="17" t="str">
         <f>ev391apos!D289</f>
         <v>GLO</v>
       </c>
-      <c r="E279" s="16" t="str">
+      <c r="E279" s="17" t="str">
         <f>ev391apos!E289</f>
-        <v>unit</v>
+        <v>kilogram</v>
       </c>
       <c r="F279" s="17" t="str">
         <f>ev391apos!F289</f>
-        <v>production</v>
-      </c>
-      <c r="G279" s="16" t="str">
-        <f>ev391apos!G289</f>
-        <v>case2_apos</v>
+        <v>technosphere</v>
+      </c>
+      <c r="G279" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -19369,7 +19335,7 @@
       </c>
       <c r="B280" s="16">
         <f>ev391apos!B290</f>
-        <v>6.3E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C280" s="165" t="str">
         <f>ev391apos!C290</f>
@@ -19392,23 +19358,23 @@
       </c>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="17" t="str">
+      <c r="A281" s="166" t="str">
         <f>ev391apos!A291</f>
-        <v>market for textile, nonwoven polypropylene</v>
-      </c>
-      <c r="B281" s="16">
+        <v>packaging film production, low density polyethylene</v>
+      </c>
+      <c r="B281" s="162">
         <f>ev391apos!B291</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C281" s="165" t="str">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="C281" s="166" t="str">
         <f>ev391apos!C291</f>
-        <v>textile, nonwoven polypropylene</v>
-      </c>
-      <c r="D281" s="17" t="str">
+        <v>packaging film, low density polyethylene</v>
+      </c>
+      <c r="D281" s="166" t="str">
         <f>ev391apos!D291</f>
-        <v>GLO</v>
-      </c>
-      <c r="E281" s="17" t="str">
+        <v>RER</v>
+      </c>
+      <c r="E281" s="166" t="str">
         <f>ev391apos!E291</f>
         <v>kilogram</v>
       </c>
@@ -19421,19 +19387,19 @@
       </c>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="166" t="str">
+      <c r="A282" s="167" t="str">
         <f>ev391apos!A292</f>
-        <v>packaging film production, low density polyethylene</v>
-      </c>
-      <c r="B282" s="162">
+        <v>market for corrugated board box</v>
+      </c>
+      <c r="B282" s="283">
         <f>ev391apos!B292</f>
-        <v>7.2700000000000004E-3</v>
-      </c>
-      <c r="C282" s="166" t="str">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C282" s="17" t="str">
         <f>ev391apos!C292</f>
-        <v>packaging film, low density polyethylene</v>
-      </c>
-      <c r="D282" s="166" t="str">
+        <v>corrugated board box</v>
+      </c>
+      <c r="D282" s="167" t="str">
         <f>ev391apos!D292</f>
         <v>RER</v>
       </c>
@@ -19452,23 +19418,23 @@
     <row r="283" spans="1:7">
       <c r="A283" s="167" t="str">
         <f>ev391apos!A293</f>
-        <v>market for corrugated board box</v>
+        <v>market for transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
       <c r="B283" s="283">
         <f>ev391apos!B293</f>
-        <v>2.8E-3</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="C283" s="17" t="str">
         <f>ev391apos!C293</f>
-        <v>corrugated board box</v>
+        <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
       <c r="D283" s="167" t="str">
         <f>ev391apos!D293</f>
         <v>RER</v>
       </c>
-      <c r="E283" s="166" t="str">
+      <c r="E283" s="167" t="str">
         <f>ev391apos!E293</f>
-        <v>kilogram</v>
+        <v>ton kilometer</v>
       </c>
       <c r="F283" s="17" t="str">
         <f>ev391apos!F293</f>
@@ -19481,19 +19447,19 @@
     <row r="284" spans="1:7">
       <c r="A284" s="167" t="str">
         <f>ev391apos!A294</f>
-        <v>market for transport, freight, lorry 16-32 metric ton, EURO6</v>
+        <v>market for transport, freight train</v>
       </c>
       <c r="B284" s="283">
         <f>ev391apos!B294</f>
-        <v>2.5999999999999998E-5</v>
+        <v>1.8100000000000001E-4</v>
       </c>
       <c r="C284" s="17" t="str">
         <f>ev391apos!C294</f>
-        <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
+        <v>transport, freight train</v>
       </c>
       <c r="D284" s="167" t="str">
         <f>ev391apos!D294</f>
-        <v>RER</v>
+        <v>US</v>
       </c>
       <c r="E284" s="167" t="str">
         <f>ev391apos!E294</f>
@@ -19510,19 +19476,19 @@
     <row r="285" spans="1:7">
       <c r="A285" s="167" t="str">
         <f>ev391apos!A295</f>
-        <v>market for transport, freight train</v>
+        <v>market for transport, freight, sea, container ship</v>
       </c>
       <c r="B285" s="283">
         <f>ev391apos!B295</f>
-        <v>1.8100000000000001E-4</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="C285" s="17" t="str">
         <f>ev391apos!C295</f>
-        <v>transport, freight train</v>
+        <v>transport, freight, sea, container ship</v>
       </c>
       <c r="D285" s="167" t="str">
         <f>ev391apos!D295</f>
-        <v>US</v>
+        <v>GLO</v>
       </c>
       <c r="E285" s="167" t="str">
         <f>ev391apos!E295</f>
@@ -19539,21 +19505,21 @@
     <row r="286" spans="1:7">
       <c r="A286" s="167" t="str">
         <f>ev391apos!A296</f>
-        <v>market for transport, freight, sea, container ship</v>
-      </c>
-      <c r="B286" s="283">
+        <v>market for transport, freight, lorry 16-32 metric ton, EURO6</v>
+      </c>
+      <c r="B286" s="284">
         <f>ev391apos!B296</f>
-        <v>3.3300000000000001E-3</v>
+        <v>4.1300000000000001E-5</v>
       </c>
       <c r="C286" s="17" t="str">
         <f>ev391apos!C296</f>
-        <v>transport, freight, sea, container ship</v>
+        <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
       <c r="D286" s="167" t="str">
         <f>ev391apos!D296</f>
-        <v>GLO</v>
-      </c>
-      <c r="E286" s="167" t="str">
+        <v>RER</v>
+      </c>
+      <c r="E286" s="168" t="str">
         <f>ev391apos!E296</f>
         <v>ton kilometer</v>
       </c>
@@ -19562,35 +19528,6 @@
         <v>technosphere</v>
       </c>
       <c r="G286" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="167" t="str">
-        <f>ev391apos!A297</f>
-        <v>market for transport, freight, lorry 16-32 metric ton, EURO6</v>
-      </c>
-      <c r="B287" s="284">
-        <f>ev391apos!B297</f>
-        <v>4.1300000000000001E-5</v>
-      </c>
-      <c r="C287" s="17" t="str">
-        <f>ev391apos!C297</f>
-        <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
-      </c>
-      <c r="D287" s="167" t="str">
-        <f>ev391apos!D297</f>
-        <v>RER</v>
-      </c>
-      <c r="E287" s="168" t="str">
-        <f>ev391apos!E297</f>
-        <v>ton kilometer</v>
-      </c>
-      <c r="F287" s="17" t="str">
-        <f>ev391apos!F297</f>
-        <v>technosphere</v>
-      </c>
-      <c r="G287" s="17" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Data/databases/case2.xlsx
+++ b/Data/databases/case2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA380A-E762-4A59-8034-18586E338657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B75A9-493E-44E3-8588-AC4FD15D4021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108:L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3046,8 +3046,8 @@
         <v>103</v>
       </c>
       <c r="B34" s="382">
-        <f>1/(12*4)</f>
-        <v>2.0833333333333332E-2</v>
+        <f>1/(14*4)</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="C34" s="375" t="s">
         <v>104</v>
@@ -3093,10 +3093,7 @@
         <f t="shared" si="1"/>
         <v>case2_apos</v>
       </c>
-      <c r="I35" s="380">
-        <f>B35*250</f>
-        <v>4.8698594336000003</v>
-      </c>
+      <c r="I35" s="380"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="370" t="s">
@@ -5040,7 +5037,7 @@
         <v>24</v>
       </c>
       <c r="I140" s="380">
-        <f t="shared" ref="I140:I144" si="4">B140*250</f>
+        <f t="shared" ref="I140:I142" si="4">B140*250</f>
         <v>8.1977362500000005E-3</v>
       </c>
     </row>
@@ -7859,7 +7856,7 @@
   <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8588,7 +8585,7 @@
       </c>
       <c r="B34" s="346">
         <f>ev391apos!B34</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="C34" s="332" t="s">
         <v>104</v>
@@ -14258,7 +14255,7 @@
   <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B38"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14996,7 +14993,7 @@
       </c>
       <c r="B34" s="31">
         <f>ev391apos!B34</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="C34" s="28" t="str">
         <f>ev391apos!C34</f>

--- a/Data/databases/case2.xlsx
+++ b/Data/databases/case2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B75A9-493E-44E3-8588-AC4FD15D4021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99780E53-0519-4E40-8D3C-DC14AD330FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="171">
   <si>
     <t>Database</t>
   </si>
@@ -545,6 +545,12 @@
   <si>
     <t>heat pump, 30kW</t>
   </si>
+  <si>
+    <t>steel production, chromium steel 18/8, hot rolled</t>
+  </si>
+  <si>
+    <t>steel, chromium steel 18/8, hot rolled</t>
+  </si>
 </sst>
 </file>
 
@@ -2364,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
-  <dimension ref="A1:K296"/>
+  <dimension ref="A1:J296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108:L110"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4513,32 +4519,29 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="456" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" s="464">
+      <c r="A114" s="459" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="463">
         <v>3.2790945000000001E-5</v>
       </c>
-      <c r="C114" s="456" t="s">
-        <v>52</v>
-      </c>
-      <c r="D114" s="456" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="456" t="s">
+      <c r="C114" s="459" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="459" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="459" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="456"/>
-      <c r="G114" s="456" t="s">
+      <c r="F114" s="454"/>
+      <c r="G114" s="454" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="456" t="s">
+      <c r="H114" s="464" t="s">
         <v>24</v>
       </c>
-      <c r="I114" s="380">
-        <f>B114*250</f>
-        <v>8.1977362500000005E-3</v>
-      </c>
+      <c r="I114" s="380"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="456" t="s">
@@ -4563,10 +4566,7 @@
       <c r="H115" s="456" t="s">
         <v>24</v>
       </c>
-      <c r="I115" s="380">
-        <f t="shared" ref="I115:I119" si="3">B115*250</f>
-        <v>5.5102898793718E-3</v>
-      </c>
+      <c r="I115" s="380"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="456" t="s">
@@ -4591,10 +4591,7 @@
       <c r="H116" s="456" t="s">
         <v>24</v>
       </c>
-      <c r="I116" s="380">
-        <f>B116*250</f>
-        <v>5.3950267068199001E-5</v>
-      </c>
+      <c r="I116" s="380"/>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="456" t="s">
@@ -4619,10 +4616,7 @@
       <c r="H117" s="456" t="s">
         <v>24</v>
       </c>
-      <c r="I117" s="380">
-        <f t="shared" si="3"/>
-        <v>1.3053227318353427E-4</v>
-      </c>
+      <c r="I117" s="380"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="456" t="s">
@@ -4647,10 +4641,7 @@
       <c r="H118" s="456" t="s">
         <v>24</v>
       </c>
-      <c r="I118" s="380">
-        <f t="shared" si="3"/>
-        <v>7.7648379809665746E-4</v>
-      </c>
+      <c r="I118" s="380"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="456" t="s">
@@ -4676,10 +4667,7 @@
         <f>$B$1</f>
         <v>case2_apos</v>
       </c>
-      <c r="I119" s="380">
-        <f t="shared" si="3"/>
-        <v>2.5258404934862E-4</v>
-      </c>
+      <c r="I119" s="380"/>
       <c r="J119" s="380"/>
     </row>
     <row r="120" spans="1:10">
@@ -4823,7 +4811,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:9">
       <c r="A129" s="469" t="s">
         <v>64</v>
       </c>
@@ -4847,7 +4835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="478" t="s">
         <v>1</v>
       </c>
@@ -4861,7 +4849,7 @@
       <c r="G131" s="480"/>
       <c r="H131" s="480"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:9">
       <c r="A132" s="483" t="s">
         <v>2</v>
       </c>
@@ -4875,7 +4863,7 @@
       <c r="G132" s="480"/>
       <c r="H132" s="480"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:9">
       <c r="A133" s="483" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +4877,7 @@
       <c r="G133" s="480"/>
       <c r="H133" s="480"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:9">
       <c r="A134" s="483" t="s">
         <v>4</v>
       </c>
@@ -4903,7 +4891,7 @@
       <c r="G134" s="480"/>
       <c r="H134" s="480"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:9">
       <c r="A135" s="483" t="s">
         <v>6</v>
       </c>
@@ -4917,7 +4905,7 @@
       <c r="G135" s="480"/>
       <c r="H135" s="480"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="487" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +4917,7 @@
       <c r="G136" s="487"/>
       <c r="H136" s="487"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="487" t="s">
         <v>8</v>
       </c>
@@ -4955,7 +4943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:9">
       <c r="A138" s="485" t="str">
         <f>B131</f>
         <v>MUD manufacturing</v>
@@ -4985,7 +4973,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:9">
       <c r="A139" s="482" t="s">
         <v>70</v>
       </c>
@@ -5008,12 +4996,9 @@
       <c r="H139" s="482" t="s">
         <v>24</v>
       </c>
-      <c r="I139" s="380">
-        <f>B139*250</f>
-        <v>6.3249999999999999E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="I139" s="380"/>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="482" t="s">
         <v>71</v>
       </c>
@@ -5036,12 +5021,9 @@
       <c r="H140" s="482" t="s">
         <v>24</v>
       </c>
-      <c r="I140" s="380">
-        <f t="shared" ref="I140:I142" si="4">B140*250</f>
-        <v>8.1977362500000005E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="I140" s="380"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="482" t="s">
         <v>72</v>
       </c>
@@ -5064,12 +5046,9 @@
       <c r="H141" s="482" t="s">
         <v>24</v>
       </c>
-      <c r="I141" s="380">
-        <f t="shared" si="4"/>
-        <v>4.5218700000000001E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="I141" s="380"/>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="482" t="s">
         <v>35</v>
       </c>
@@ -5093,16 +5072,9 @@
         <f>$B$1</f>
         <v>case2_apos</v>
       </c>
-      <c r="I142" s="380">
-        <f t="shared" si="4"/>
-        <v>5.9994020293295251E-2</v>
-      </c>
-      <c r="K142" s="350">
-        <f>(5.13*10^(-3))*250</f>
-        <v>1.2825</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="I142" s="380"/>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="490" t="str">
         <f>A164</f>
         <v>mechanical disinfection</v>
@@ -5125,15 +5097,12 @@
         <v>23</v>
       </c>
       <c r="H143" s="490" t="str">
-        <f t="shared" ref="H143:H144" si="5">$B$1</f>
+        <f t="shared" ref="H143:H144" si="3">$B$1</f>
         <v>case2_apos</v>
       </c>
-      <c r="I143" s="380">
-        <f>B143</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="I143" s="380"/>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="482" t="s">
         <v>103</v>
       </c>
@@ -5154,13 +5123,10 @@
         <v>23</v>
       </c>
       <c r="H144" s="490" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>case2_apos</v>
       </c>
-      <c r="I144" s="380">
-        <f>B144</f>
-        <v>2.77777777777777E-2</v>
-      </c>
+      <c r="I144" s="380"/>
     </row>
     <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="491" t="s">
@@ -5301,20 +5267,24 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="495" t="s">
-        <v>46</v>
+      <c r="A154" s="503" t="str">
+        <f>A114</f>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="B154" s="495">
         <v>1.6799999999999901E-3</v>
       </c>
-      <c r="C154" s="495" t="s">
-        <v>52</v>
-      </c>
-      <c r="D154" s="495" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="495" t="s">
-        <v>19</v>
+      <c r="C154" s="503" t="str">
+        <f>C114</f>
+        <v>steel, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="D154" s="503" t="str">
+        <f t="shared" ref="D154:E154" si="4">D114</f>
+        <v>RER</v>
+      </c>
+      <c r="E154" s="503" t="str">
+        <f t="shared" si="4"/>
+        <v>kilogram</v>
       </c>
       <c r="F154" s="495"/>
       <c r="G154" s="495" t="s">
@@ -6402,19 +6372,19 @@
         <v>heat production from hot water</v>
       </c>
       <c r="B220" s="583">
-        <f t="shared" ref="B220" si="6">B214</f>
+        <f t="shared" ref="B220" si="5">B214</f>
         <v>1</v>
       </c>
       <c r="C220" s="582" t="str">
-        <f t="shared" ref="C220" si="7">B215</f>
+        <f t="shared" ref="C220" si="6">B215</f>
         <v>heat production from hot water</v>
       </c>
       <c r="D220" s="582" t="str">
-        <f t="shared" ref="D220" si="8">B216</f>
+        <f t="shared" ref="D220" si="7">B216</f>
         <v>DK</v>
       </c>
       <c r="E220" s="582" t="str">
-        <f t="shared" ref="E220" si="9">B217</f>
+        <f t="shared" ref="E220" si="8">B217</f>
         <v>megajoule</v>
       </c>
       <c r="F220" s="577"/>
@@ -6422,7 +6392,7 @@
         <v>22</v>
       </c>
       <c r="H220" s="582" t="str">
-        <f t="shared" ref="H220" si="10">$B$1</f>
+        <f t="shared" ref="H220" si="9">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
@@ -6654,7 +6624,7 @@
         <v>22</v>
       </c>
       <c r="H233" s="469" t="str">
-        <f t="shared" ref="H233:H234" si="11">$B$1</f>
+        <f t="shared" ref="H233:H234" si="10">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
@@ -6679,7 +6649,7 @@
         <v>23</v>
       </c>
       <c r="H234" s="469" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>case2_apos</v>
       </c>
     </row>
@@ -6937,7 +6907,7 @@
         <v>22</v>
       </c>
       <c r="H248" s="347" t="str">
-        <f t="shared" ref="H248" si="12">$B$1</f>
+        <f t="shared" ref="H248" si="11">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
@@ -7171,7 +7141,7 @@
         <v>22</v>
       </c>
       <c r="H261" s="595" t="str">
-        <f t="shared" ref="H261" si="13">$B$1</f>
+        <f t="shared" ref="H261" si="12">$B$1</f>
         <v>case2_apos</v>
       </c>
     </row>
@@ -10304,7 +10274,7 @@
     <row r="114" spans="1:8">
       <c r="A114" s="109" t="str">
         <f>ev391apos!A114</f>
-        <v>market for iron-nickel-chromium alloy</v>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="B114" s="117">
         <f>ev391apos!B114</f>
@@ -10312,11 +10282,11 @@
       </c>
       <c r="C114" s="109" t="str">
         <f>ev391apos!C114</f>
-        <v>iron-nickel-chromium alloy</v>
+        <v>steel, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="D114" s="109" t="str">
         <f>ev391apos!D114</f>
-        <v>GLO</v>
+        <v>RER</v>
       </c>
       <c r="E114" s="109" t="str">
         <f>ev391apos!E114</f>
@@ -11170,7 +11140,7 @@
     <row r="154" spans="1:8">
       <c r="A154" s="148" t="str">
         <f>ev391apos!A154</f>
-        <v>market for iron-nickel-chromium alloy</v>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="B154" s="156">
         <f>ev391apos!B154</f>
@@ -11178,11 +11148,11 @@
       </c>
       <c r="C154" s="148" t="str">
         <f>ev391apos!C154</f>
-        <v>iron-nickel-chromium alloy</v>
+        <v>steel, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="D154" s="148" t="str">
         <f>ev391apos!D154</f>
-        <v>GLO</v>
+        <v>RER</v>
       </c>
       <c r="E154" s="148" t="str">
         <f>ev391apos!E154</f>
@@ -16723,7 +16693,7 @@
     <row r="114" spans="1:8">
       <c r="A114" s="109" t="str">
         <f>ev391apos!A114</f>
-        <v>market for iron-nickel-chromium alloy</v>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="B114" s="117">
         <f>ev391apos!B114</f>
@@ -16731,11 +16701,11 @@
       </c>
       <c r="C114" s="109" t="str">
         <f>ev391apos!C114</f>
-        <v>iron-nickel-chromium alloy</v>
+        <v>steel, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="D114" s="109" t="str">
         <f>ev391apos!D114</f>
-        <v>GLO</v>
+        <v>RER</v>
       </c>
       <c r="E114" s="109" t="str">
         <f>ev391apos!E114</f>
@@ -17594,7 +17564,7 @@
     <row r="154" spans="1:8">
       <c r="A154" s="148" t="str">
         <f>ev391apos!A154</f>
-        <v>market for iron-nickel-chromium alloy</v>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="B154" s="148">
         <f>ev391apos!B154</f>
@@ -17602,11 +17572,11 @@
       </c>
       <c r="C154" s="148" t="str">
         <f>ev391apos!C154</f>
-        <v>iron-nickel-chromium alloy</v>
+        <v>steel, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="D154" s="148" t="str">
         <f>ev391apos!D154</f>
-        <v>GLO</v>
+        <v>RER</v>
       </c>
       <c r="E154" s="148" t="str">
         <f>ev391apos!E154</f>
@@ -20437,21 +20407,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Data/databases/case2.xlsx
+++ b/Data/databases/case2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F5678-09C1-4931-A37F-BA51F1288E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DEB013-9AD5-4682-87C8-A2810B271486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="657">
+  <cellXfs count="656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2208,10 +2208,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2777,7 +2774,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="A17" s="331" t="str">
         <f>A227</f>
         <v>eol SUD</v>
@@ -2804,7 +2801,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="A18" s="340" t="str">
         <f>$A$180</f>
         <v>surgery use</v>
@@ -2831,7 +2828,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="A19" s="331" t="s">
         <v>21</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="342" t="s">
         <v>1</v>
       </c>
@@ -2869,7 +2866,7 @@
       <c r="G21" s="344"/>
       <c r="H21" s="344"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:10">
       <c r="A22" s="347" t="s">
         <v>2</v>
       </c>
@@ -2883,7 +2880,7 @@
       <c r="G22" s="344"/>
       <c r="H22" s="344"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:10">
       <c r="A23" s="347" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2894,7 @@
       <c r="G23" s="344"/>
       <c r="H23" s="344"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:10">
       <c r="A24" s="347" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2908,7 @@
       <c r="G24" s="344"/>
       <c r="H24" s="344"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:10">
       <c r="A25" s="347" t="s">
         <v>6</v>
       </c>
@@ -2925,7 +2922,7 @@
       <c r="G25" s="344"/>
       <c r="H25" s="344"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="352" t="s">
         <v>7</v>
       </c>
@@ -2937,7 +2934,7 @@
       <c r="G26" s="352"/>
       <c r="H26" s="352"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="352" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:10">
       <c r="A28" s="351" t="str">
         <f>B21</f>
         <v>MUD</v>
@@ -2992,9 +2989,8 @@
         <f t="shared" ref="H28:H40" si="3">$B$1</f>
         <v>case2_apos</v>
       </c>
-      <c r="K28" s="655"/>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="355" t="str">
         <f>A128</f>
         <v>MUD manufacturing</v>
@@ -3020,9 +3016,8 @@
         <f t="shared" si="3"/>
         <v>case2_apos</v>
       </c>
-      <c r="K29" s="655"/>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="355" t="str">
         <f>A76</f>
         <v>packgaging materials</v>
@@ -3053,9 +3048,8 @@
       </c>
       <c r="I30" s="654"/>
       <c r="J30" s="356"/>
-      <c r="K30" s="655"/>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="355" t="str">
         <f>A113</f>
         <v>MUD raw materials</v>
@@ -3083,9 +3077,8 @@
       </c>
       <c r="I31" s="356"/>
       <c r="J31" s="356"/>
-      <c r="K31" s="655"/>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="355" t="str">
         <f>A154</f>
         <v>mechanical disinfection</v>
@@ -3112,9 +3105,8 @@
         <v>case2_apos</v>
       </c>
       <c r="J32" s="356"/>
-      <c r="K32" s="655"/>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="351" t="str">
         <f>A252</f>
         <v>H200 SU</v>
@@ -3141,9 +3133,8 @@
         <f t="shared" si="3"/>
         <v>case2_apos</v>
       </c>
-      <c r="K33" s="655"/>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="351" t="s">
         <v>101</v>
       </c>
@@ -3169,7 +3160,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:9">
       <c r="A35" s="346" t="str">
         <f>A16</f>
         <v>transport</v>
@@ -3197,7 +3188,7 @@
       </c>
       <c r="I35" s="356"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:9">
       <c r="A36" s="346" t="s">
         <v>14</v>
       </c>
@@ -3222,7 +3213,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:9">
       <c r="A37" s="346" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:9">
       <c r="A38" s="346" t="str">
         <f>A240</f>
         <v>eol MUD</v>
@@ -3273,7 +3264,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:9">
       <c r="A39" s="355" t="str">
         <f>A143</f>
         <v>scalpel</v>
@@ -3300,7 +3291,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:9">
       <c r="A40" s="355" t="str">
         <f>A18</f>
         <v>surgery use</v>
@@ -3330,7 +3321,7 @@
         <v>case2_apos</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="359" t="s">
         <v>1</v>
       </c>
@@ -3344,7 +3335,7 @@
       <c r="G42" s="361"/>
       <c r="H42" s="361"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:9">
       <c r="A43" s="364" t="s">
         <v>2</v>
       </c>
@@ -3358,7 +3349,7 @@
       <c r="G43" s="361"/>
       <c r="H43" s="361"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:9">
       <c r="A44" s="364" t="s">
         <v>3</v>
       </c>
@@ -3372,7 +3363,7 @@
       <c r="G44" s="361"/>
       <c r="H44" s="361"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:9">
       <c r="A45" s="364" t="s">
         <v>4</v>
       </c>
@@ -3386,7 +3377,7 @@
       <c r="G45" s="361"/>
       <c r="H45" s="361"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:9">
       <c r="A46" s="364" t="s">
         <v>6</v>
       </c>
@@ -3400,7 +3391,7 @@
       <c r="G46" s="361"/>
       <c r="H46" s="361"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="369" t="s">
         <v>7</v>
       </c>
@@ -3412,7 +3403,7 @@
       <c r="G47" s="369"/>
       <c r="H47" s="369"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="369" t="s">
         <v>8</v>
       </c>
@@ -14783,8 +14774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCB1CF9-8C18-44A9-91B3-2C5BFD88192B}">
   <dimension ref="A1:I303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15459,7 +15450,7 @@
         <f>ev391apos!A32</f>
         <v>mechanical disinfection</v>
       </c>
-      <c r="B32" s="656">
+      <c r="B32" s="655">
         <f>ev391apos!B32</f>
         <v>3.125E-2</v>
       </c>
@@ -21297,21 +21288,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>